--- a/data/hotels_by_city/Houston/Houston_shard_341.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_341.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="485">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56761-d676925-Reviews-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
   </si>
   <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Galveston-Hotels-Holiday-Inn-Express-Hotel-Suites-Texas-City.h1742866.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1387 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r599925527-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>56761</t>
+  </si>
+  <si>
+    <t>676925</t>
+  </si>
+  <si>
+    <t>599925527</t>
+  </si>
+  <si>
+    <t>07/26/2018</t>
+  </si>
+  <si>
+    <t>Not Up To Par</t>
+  </si>
+  <si>
+    <t>First of all, there was a major renovation in progress, which is understandable, but it felt completely lacking in any kind of safety and security with the multitude of construction workers throughout the facility.  The entire lobby area was a mess, areas, were cordoned off, workers were all over the place,  and I was shocked at the price I'd paid for a completely different experience than I'd ever had at a Holiday Inn.  I think if the breakfast had been good, that might have been at least a little helpful with redeeming the situation.  Unfortunately, that was not the case.  There was absolutely no fruit available.  Choice was extremely limited.  We were there 15 minutes, waiting for the empty coffee pot to be refilled.  It never was.  There was no juice in the juice machine.  And, there was a pancake griddle in the breakfast area that was never turned on, and no batter was provided.  Extremely disappointed with this Holiday Inn Express.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>First of all, there was a major renovation in progress, which is understandable, but it felt completely lacking in any kind of safety and security with the multitude of construction workers throughout the facility.  The entire lobby area was a mess, areas, were cordoned off, workers were all over the place,  and I was shocked at the price I'd paid for a completely different experience than I'd ever had at a Holiday Inn.  I think if the breakfast had been good, that might have been at least a little helpful with redeeming the situation.  Unfortunately, that was not the case.  There was absolutely no fruit available.  Choice was extremely limited.  We were there 15 minutes, waiting for the empty coffee pot to be refilled.  It never was.  There was no juice in the juice machine.  And, there was a pancake griddle in the breakfast area that was never turned on, and no batter was provided.  Extremely disappointed with this Holiday Inn Express.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r599595603-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>599595603</t>
+  </si>
+  <si>
+    <t>07/25/2018</t>
+  </si>
+  <si>
+    <t>Not all Holiday Inns are the same</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This was one of the worst. I understand they are under renovation but they could’ve had better accommodations. Our room didn’t have a remote or laundry bag. The room was just gross. The headboards were coming apart. Nasty floor. It looked like they only had 1 person working so she was managing breakfast and the front desk. They were out of everything for breakfast! It was awful. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r597095330-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>597095330</t>
+  </si>
+  <si>
+    <t>07/17/2018</t>
+  </si>
+  <si>
+    <t>Comfy place and nice folks</t>
+  </si>
+  <si>
+    <t>It's a Holiday Inn.  The are pretty much all the same.  They were in the process of renovating which is always a good sign.  I wasn't happy that I was assigned the first floor but then again I booked it the week before.  Nevertheless the experience was very pleasant.  Clean room with 2 very comfortable beds and we loved how cold it was!!!! We stayed two nights.  We didn't get to get in the pool or exercise room but they looked nice.  I loved that they had yoga mats, free weights AND a scale.  They do the breakfast from 6:30-9:30.  Lots of things to choose from. Of course it isn't restaurant style but you got boiled, peeled eggs, yogurt, many cereals, sausage, bacon, biscuits, gravy, eggs, variety of drinks, pancakes and my son's favorite cinnamon rolls.  I forgot my blow dryer so had to use the one in the room.  The coils immediately got red and I smelled something burning so i quickly unplugged and reported it.  They brought me a new one in a box.  Everyone working there, maids included were always polite.MoreShow less</t>
+  </si>
+  <si>
+    <t>It's a Holiday Inn.  The are pretty much all the same.  They were in the process of renovating which is always a good sign.  I wasn't happy that I was assigned the first floor but then again I booked it the week before.  Nevertheless the experience was very pleasant.  Clean room with 2 very comfortable beds and we loved how cold it was!!!! We stayed two nights.  We didn't get to get in the pool or exercise room but they looked nice.  I loved that they had yoga mats, free weights AND a scale.  They do the breakfast from 6:30-9:30.  Lots of things to choose from. Of course it isn't restaurant style but you got boiled, peeled eggs, yogurt, many cereals, sausage, bacon, biscuits, gravy, eggs, variety of drinks, pancakes and my son's favorite cinnamon rolls.  I forgot my blow dryer so had to use the one in the room.  The coils immediately got red and I smelled something burning so i quickly unplugged and reported it.  They brought me a new one in a box.  Everyone working there, maids included were always polite.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r590987138-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>590987138</t>
+  </si>
+  <si>
+    <t>06/26/2018</t>
+  </si>
+  <si>
+    <t>Staff not so friendly/hotel under-construction</t>
+  </si>
+  <si>
+    <t>I understand construction goes on, however, It was COMPLETELY under-construction. I have stayed in hotels when they have been renovating, but we would have booked elsewhere if we had know what an inconvenience this was going to be. Everything but our room was torn apart and being worked on. Elevator was very sketchy, doors would hand up and not close. Very scary and seemed to be unsafe. We had no towels in our bathroom at all, when we called the front desk, they told us they had it wrote down that we didn't have towels, and would bring some up. Not sure about why they included the extra information of them already knowing we didn't have towels.1st thing my family did was go swimming, Went to ask for towels.....front desk looked at me like she really didn't want to give them to me, as she paused, then asked me how many I wanted. She left and came back with 3 (when I asked for 5, yes, I have a large family), and said that is all that she had. Not sure what the other 2 families swimming in the pool are going to dry off with, but they didn't have towels as well. We have stayed at several Holiday Inn's and never really had a bad experience with them, but this was beyond, especially when we got the bill of nearly $200.00 for one night. When we booked it showed...I understand construction goes on, however, It was COMPLETELY under-construction. I have stayed in hotels when they have been renovating, but we would have booked elsewhere if we had know what an inconvenience this was going to be. Everything but our room was torn apart and being worked on. Elevator was very sketchy, doors would hand up and not close. Very scary and seemed to be unsafe. We had no towels in our bathroom at all, when we called the front desk, they told us they had it wrote down that we didn't have towels, and would bring some up. Not sure about why they included the extra information of them already knowing we didn't have towels.1st thing my family did was go swimming, Went to ask for towels.....front desk looked at me like she really didn't want to give them to me, as she paused, then asked me how many I wanted. She left and came back with 3 (when I asked for 5, yes, I have a large family), and said that is all that she had. Not sure what the other 2 families swimming in the pool are going to dry off with, but they didn't have towels as well. We have stayed at several Holiday Inn's and never really had a bad experience with them, but this was beyond, especially when we got the bill of nearly $200.00 for one night. When we booked it showed $128.00. This was part of our vacation as traveling thru, and had previously been staying in a Hampton for $125.00 a night that was 45min away, and we were instantly regretting not staying there another night.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>I understand construction goes on, however, It was COMPLETELY under-construction. I have stayed in hotels when they have been renovating, but we would have booked elsewhere if we had know what an inconvenience this was going to be. Everything but our room was torn apart and being worked on. Elevator was very sketchy, doors would hand up and not close. Very scary and seemed to be unsafe. We had no towels in our bathroom at all, when we called the front desk, they told us they had it wrote down that we didn't have towels, and would bring some up. Not sure about why they included the extra information of them already knowing we didn't have towels.1st thing my family did was go swimming, Went to ask for towels.....front desk looked at me like she really didn't want to give them to me, as she paused, then asked me how many I wanted. She left and came back with 3 (when I asked for 5, yes, I have a large family), and said that is all that she had. Not sure what the other 2 families swimming in the pool are going to dry off with, but they didn't have towels as well. We have stayed at several Holiday Inn's and never really had a bad experience with them, but this was beyond, especially when we got the bill of nearly $200.00 for one night. When we booked it showed...I understand construction goes on, however, It was COMPLETELY under-construction. I have stayed in hotels when they have been renovating, but we would have booked elsewhere if we had know what an inconvenience this was going to be. Everything but our room was torn apart and being worked on. Elevator was very sketchy, doors would hand up and not close. Very scary and seemed to be unsafe. We had no towels in our bathroom at all, when we called the front desk, they told us they had it wrote down that we didn't have towels, and would bring some up. Not sure about why they included the extra information of them already knowing we didn't have towels.1st thing my family did was go swimming, Went to ask for towels.....front desk looked at me like she really didn't want to give them to me, as she paused, then asked me how many I wanted. She left and came back with 3 (when I asked for 5, yes, I have a large family), and said that is all that she had. Not sure what the other 2 families swimming in the pool are going to dry off with, but they didn't have towels as well. We have stayed at several Holiday Inn's and never really had a bad experience with them, but this was beyond, especially when we got the bill of nearly $200.00 for one night. When we booked it showed $128.00. This was part of our vacation as traveling thru, and had previously been staying in a Hampton for $125.00 a night that was 45min away, and we were instantly regretting not staying there another night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r585955047-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>585955047</t>
+  </si>
+  <si>
+    <t>06/08/2018</t>
+  </si>
+  <si>
+    <t>Great Staff!</t>
+  </si>
+  <si>
+    <t>We ended up unexpectedly having to extend our stay because a family member was hospitalized the day we were supposed to leave this area. We selected this hotel on the fly. It turned out to be just fine.  The wonderful staff make the place. Everyone at the desk has been kind, helpful and extremely accommodating, especially in in light of the fact we have been extending day by day, due to a family illness. They are having a total renovation, and if construction bothers you wait until it’s complete but I have to say the construction has not interfered with our visit at all.  It’s been quiet outside of the hours of 9 to 6 that they have posted that there will be noise.  And it looks like when this renovation is complete the place is going to be top notch.  I do hope when the construction is complete they buy new linens because that’s the one very minor criticism.  The bed linens are very clean but old and need replacing.  All and all this hotel has made a difficult situation easier for us to navigate!MoreShow less</t>
+  </si>
+  <si>
+    <t>We ended up unexpectedly having to extend our stay because a family member was hospitalized the day we were supposed to leave this area. We selected this hotel on the fly. It turned out to be just fine.  The wonderful staff make the place. Everyone at the desk has been kind, helpful and extremely accommodating, especially in in light of the fact we have been extending day by day, due to a family illness. They are having a total renovation, and if construction bothers you wait until it’s complete but I have to say the construction has not interfered with our visit at all.  It’s been quiet outside of the hours of 9 to 6 that they have posted that there will be noise.  And it looks like when this renovation is complete the place is going to be top notch.  I do hope when the construction is complete they buy new linens because that’s the one very minor criticism.  The bed linens are very clean but old and need replacing.  All and all this hotel has made a difficult situation easier for us to navigate!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r584770575-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>584770575</t>
+  </si>
+  <si>
+    <t>06/03/2018</t>
+  </si>
+  <si>
+    <t>Nice place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a typical HI Express. Nice clean and comfortable facility. Check in was quick, breakfast typical, and overall a good experience. They are updating but it didn’t get in the way. I would stay here again. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r558192629-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>558192629</t>
+  </si>
+  <si>
+    <t>02/03/2018</t>
+  </si>
+  <si>
+    <t>Welcoming</t>
+  </si>
+  <si>
+    <t>This is an older property and in places it's aging gracefully but it's clean, comfortable and cared for. Beds were comfortable, bathroom was clean, toilet worked, desk chair proper size for desk. TV picture little dim but responsive controls. Best thing for me was heavy wooden hall doors so one didn't hear the loud metallic clanging all night long as people came and went. Well, that was the second best thing. First best was checking in with a teen group and the desk manager was quick, friendly and efficient. I got the kids to their rooms in under ten minutes. Believe me, that is not the norm. Safe parking lot. Easy on/off highway. Tasty breakfast. Very reasonably priced. We'll stay here next time we're competing in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>This is an older property and in places it's aging gracefully but it's clean, comfortable and cared for. Beds were comfortable, bathroom was clean, toilet worked, desk chair proper size for desk. TV picture little dim but responsive controls. Best thing for me was heavy wooden hall doors so one didn't hear the loud metallic clanging all night long as people came and went. Well, that was the second best thing. First best was checking in with a teen group and the desk manager was quick, friendly and efficient. I got the kids to their rooms in under ten minutes. Believe me, that is not the norm. Safe parking lot. Easy on/off highway. Tasty breakfast. Very reasonably priced. We'll stay here next time we're competing in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r528985300-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>528985300</t>
+  </si>
+  <si>
+    <t>10/02/2017</t>
+  </si>
+  <si>
+    <t>Poorly Managed, Not Clean</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here for a night on our way to Galveston as part of our anniversary trip. Reviews were great, but our stay was not. (I review all hotel rooms I stay in, both good and bad. This is an honest review.)We checked in around 10 pm, went straight to our room, and there was a plate of half-eaten food on the counter. I called down to the front desk to see if someone else was staying in the room and was assured no one was. The desk man came up to the room, took the plate, and left. I jumped in the shower, only to find used soap and shampoo, along with a used washcloth. The room looked like it had been cleaned but this was just forgotten. When I pulled down the covers to the bed it was obvious that it had been slept in and someone re-made to bed to make it look unused. I went down to the desk and waited for 10 minutes while one employee (who I believe was the manager) was on his cell phone and kept telling me the other employee would be right back. He moved us to another room. The whole thing felt shady. I would not suggest staying there.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Coco2_go, Front Office Manager at Holiday Inn Express Hotel &amp; Suites Texas City, responded to this reviewResponded October 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 4, 2017</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here for a night on our way to Galveston as part of our anniversary trip. Reviews were great, but our stay was not. (I review all hotel rooms I stay in, both good and bad. This is an honest review.)We checked in around 10 pm, went straight to our room, and there was a plate of half-eaten food on the counter. I called down to the front desk to see if someone else was staying in the room and was assured no one was. The desk man came up to the room, took the plate, and left. I jumped in the shower, only to find used soap and shampoo, along with a used washcloth. The room looked like it had been cleaned but this was just forgotten. When I pulled down the covers to the bed it was obvious that it had been slept in and someone re-made to bed to make it look unused. I went down to the desk and waited for 10 minutes while one employee (who I believe was the manager) was on his cell phone and kept telling me the other employee would be right back. He moved us to another room. The whole thing felt shady. I would not suggest staying there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r524369633-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>524369633</t>
+  </si>
+  <si>
+    <t>09/14/2017</t>
+  </si>
+  <si>
+    <t>A good hotel to stop at</t>
+  </si>
+  <si>
+    <t>We got to the hotel late so there was only one bed available due to a family reunion, baseball tournament, etc. We got to our room and it was clean, smelt nice, perfect temperature, and very spacious. The breakfast was very good for being free. They had a good variety of things to pick from. The only bad review I can give to this hotel was that our toilet did not flush properly. We had to flush several times before it would go down. We did let the front desk know about the issue so maybe that is taken care of now. So, if you are needing a place to stop I would highly recommend this hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>We got to the hotel late so there was only one bed available due to a family reunion, baseball tournament, etc. We got to our room and it was clean, smelt nice, perfect temperature, and very spacious. The breakfast was very good for being free. They had a good variety of things to pick from. The only bad review I can give to this hotel was that our toilet did not flush properly. We had to flush several times before it would go down. We did let the front desk know about the issue so maybe that is taken care of now. So, if you are needing a place to stop I would highly recommend this hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r470719085-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>470719085</t>
+  </si>
+  <si>
+    <t>03/27/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We will stay here every time we are in Texas city! </t>
+  </si>
+  <si>
+    <t>Great spot!! Very clean, friendly staff, nice beds and comfy too. Great location with LOTS of things accessible by taking the feeder road. The breakfast was nice too. Hot scrambled eggs, sausage patties, sausage gravy, biscuits, fruit, juice, pancake maker, etc... Really the best hotel breakfast! Great place to stay!</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r469460021-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>469460021</t>
+  </si>
+  <si>
+    <t>03/22/2017</t>
+  </si>
+  <si>
+    <t>Hotel before Cruise</t>
+  </si>
+  <si>
+    <t>This hotel has amazing staff. The night mgr. went out of his way to ensure our stay was comfortable. Their breakfast was really good pretty close to regular cafe type resturants. We were not impressed with the recommendation of late eatery, but survived. This hotel was very clean and quiet even though we knew there were young children close by our room. Parking was easy in and out and secure.</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r459438292-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>459438292</t>
+  </si>
+  <si>
+    <t>02/13/2017</t>
+  </si>
+  <si>
+    <t>Clean and quiet</t>
+  </si>
+  <si>
+    <t>Very clean. No odors. Very quiet. The staff was friendly, and even told us some restraunts to try. I recommend this hotel because it's very very clean. They give you plenty of towels. The floors are clean. The temperature was wonderful in the room. And we never had to worry about noise.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>eraschle, General Manager at Holiday Inn Express Hotel &amp; Suites Texas City, responded to this reviewResponded February 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 15, 2017</t>
+  </si>
+  <si>
+    <t>Very clean. No odors. Very quiet. The staff was friendly, and even told us some restraunts to try. I recommend this hotel because it's very very clean. They give you plenty of towels. The floors are clean. The temperature was wonderful in the room. And we never had to worry about noise.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r415759395-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>415759395</t>
+  </si>
+  <si>
+    <t>09/07/2016</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel over Labor Day weekend. The rooms were clean and the staff was very friendly. The breakfast was very good too. It's not all that far to Galveston Island. Highly recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>eraschle, Manager at Holiday Inn Express Hotel &amp; Suites Texas City, responded to this reviewResponded November 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 2, 2016</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel over Labor Day weekend. The rooms were clean and the staff was very friendly. The breakfast was very good too. It's not all that far to Galveston Island. Highly recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r408330873-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>408330873</t>
+  </si>
+  <si>
+    <t>08/21/2016</t>
+  </si>
+  <si>
+    <t>Nice hotel, but not without a few issues</t>
+  </si>
+  <si>
+    <t>We stayed in this hotel for 2 nights.  We were in room 210.  When we checked in, my husband was not asked about whether he'd prefer the extra 500 Priority Club points or a welcome gift.  This is something that was done at every IHG hotel we stayed in from Hamburg to Budapest to Albuquerque this summer.  He is a spire member and has always been asked this question.  We will see if the points are awarded because there was certainly no welcome gift.The room itself was an upgrade to a king suite.  The room itself was clean and equipped with a fridge, microwave and Keurig.  The bed was comfy.  The AC worked well.  There was a shower with no tub which I preferred.  The hair dryer in the room didn't work unless you kept one finger on the button of the holder.  This made it impossible to style hair as it was being dried.  Very annoying.On the second day, we realized the cleanup crew didn't refresh the Keurig k-cups so we had to wait until we left the hotel to go get coffee.  There was a breakfast but we didn't eat it.  My husband has too many of these free breakfasts each week and gets bored with them.  With a little effort, this place would be fine.  I was a but disappointed with this stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>eraschle, Manager at Holiday Inn Express Hotel &amp; Suites Texas City, responded to this reviewResponded August 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 24, 2016</t>
+  </si>
+  <si>
+    <t>We stayed in this hotel for 2 nights.  We were in room 210.  When we checked in, my husband was not asked about whether he'd prefer the extra 500 Priority Club points or a welcome gift.  This is something that was done at every IHG hotel we stayed in from Hamburg to Budapest to Albuquerque this summer.  He is a spire member and has always been asked this question.  We will see if the points are awarded because there was certainly no welcome gift.The room itself was an upgrade to a king suite.  The room itself was clean and equipped with a fridge, microwave and Keurig.  The bed was comfy.  The AC worked well.  There was a shower with no tub which I preferred.  The hair dryer in the room didn't work unless you kept one finger on the button of the holder.  This made it impossible to style hair as it was being dried.  Very annoying.On the second day, we realized the cleanup crew didn't refresh the Keurig k-cups so we had to wait until we left the hotel to go get coffee.  There was a breakfast but we didn't eat it.  My husband has too many of these free breakfasts each week and gets bored with them.  With a little effort, this place would be fine.  I was a but disappointed with this stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r394068780-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>394068780</t>
+  </si>
+  <si>
+    <t>07/18/2016</t>
+  </si>
+  <si>
+    <t>Great Large Tub-Less Shower</t>
+  </si>
+  <si>
+    <t>When writing this review, I wanted to point out the one amenity that stood out above all others and it was the shower. This is the first hotel that had a shower where a tub was not the base of the shower and I must admit; I loved it! Stepping up and out of a tub shower can be dangerous when the floor is slippery and I'm not one to take a bath in a hotel, therefore the missing tub was more of a gift rather than a curse for me. 
+The hotel has plenty of parking in the hotel's parking lot.
+The fitness center is on the first floor near the elevator. the pool is located outside of the area where breakfast is served. The laundry facility is on the first floor; sorry I did not check out the price (if any) to use the machines. The computer room has two computers, but they were not working at the time of my visit.
+Breakfast started early around 6AM and ended at 9:30. I was surprised that breakfast did not include the make-it-yourself waffles.
+Breakfast Menu:
+Yogurt
+Milk
+Cold Cereal
+Apples (wrapped in plastic)
+Bananas
+Oranges
+Instant Oatmeal Packets (hot water provided)
+Instant Grits (hot water provided)
+Biscuits
+Biscuit Sausage Gravy
+Scrambled Eggs
+Sausage (patties one day and links on another day - I assume both were pork)
+Sticky Buns
+Toast - English Muffin
+Coffee
+Juices (apple and other varieties)...When writing this review, I wanted to point out the one amenity that stood out above all others and it was the shower. This is the first hotel that had a shower where a tub was not the base of the shower and I must admit; I loved it! Stepping up and out of a tub shower can be dangerous when the floor is slippery and I'm not one to take a bath in a hotel, therefore the missing tub was more of a gift rather than a curse for me. The hotel has plenty of parking in the hotel's parking lot.The fitness center is on the first floor near the elevator. the pool is located outside of the area where breakfast is served. The laundry facility is on the first floor; sorry I did not check out the price (if any) to use the machines. The computer room has two computers, but they were not working at the time of my visit.Breakfast started early around 6AM and ended at 9:30. I was surprised that breakfast did not include the make-it-yourself waffles.Breakfast Menu:YogurtMilkCold CerealApples (wrapped in plastic)BananasOrangesInstant Oatmeal Packets (hot water provided)Instant Grits (hot water provided)BiscuitsBiscuit Sausage GravyScrambled EggsSausage (patties one day and links on another day - I assume both were pork)Sticky BunsToast - English MuffinCoffeeJuices (apple and other varieties)Stayed in RM 406 - Included a small refrigerator, Microwave, and Sink, Full sized ironing board provided, desk with chair and another separate chair to sitOverall the experience at the hotel was great. Staff was friendly and helpful printing boarding passes for me since computers in the business center were not working.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>eraschle, General Manager at Holiday Inn Express Hotel &amp; Suites Texas City, responded to this reviewResponded July 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2016</t>
+  </si>
+  <si>
+    <t>When writing this review, I wanted to point out the one amenity that stood out above all others and it was the shower. This is the first hotel that had a shower where a tub was not the base of the shower and I must admit; I loved it! Stepping up and out of a tub shower can be dangerous when the floor is slippery and I'm not one to take a bath in a hotel, therefore the missing tub was more of a gift rather than a curse for me. 
+The hotel has plenty of parking in the hotel's parking lot.
+The fitness center is on the first floor near the elevator. the pool is located outside of the area where breakfast is served. The laundry facility is on the first floor; sorry I did not check out the price (if any) to use the machines. The computer room has two computers, but they were not working at the time of my visit.
+Breakfast started early around 6AM and ended at 9:30. I was surprised that breakfast did not include the make-it-yourself waffles.
+Breakfast Menu:
+Yogurt
+Milk
+Cold Cereal
+Apples (wrapped in plastic)
+Bananas
+Oranges
+Instant Oatmeal Packets (hot water provided)
+Instant Grits (hot water provided)
+Biscuits
+Biscuit Sausage Gravy
+Scrambled Eggs
+Sausage (patties one day and links on another day - I assume both were pork)
+Sticky Buns
+Toast - English Muffin
+Coffee
+Juices (apple and other varieties)...When writing this review, I wanted to point out the one amenity that stood out above all others and it was the shower. This is the first hotel that had a shower where a tub was not the base of the shower and I must admit; I loved it! Stepping up and out of a tub shower can be dangerous when the floor is slippery and I'm not one to take a bath in a hotel, therefore the missing tub was more of a gift rather than a curse for me. The hotel has plenty of parking in the hotel's parking lot.The fitness center is on the first floor near the elevator. the pool is located outside of the area where breakfast is served. The laundry facility is on the first floor; sorry I did not check out the price (if any) to use the machines. The computer room has two computers, but they were not working at the time of my visit.Breakfast started early around 6AM and ended at 9:30. I was surprised that breakfast did not include the make-it-yourself waffles.Breakfast Menu:YogurtMilkCold CerealApples (wrapped in plastic)BananasOrangesInstant Oatmeal Packets (hot water provided)Instant Grits (hot water provided)BiscuitsBiscuit Sausage GravyScrambled EggsSausage (patties one day and links on another day - I assume both were pork)Sticky BunsToast - English MuffinCoffeeJuices (apple and other varieties)Stayed in RM 406 - Included a small refrigerator, Microwave, and Sink, Full sized ironing board provided, desk with chair and another separate chair to sitOverall the experience at the hotel was great. Staff was friendly and helpful printing boarding passes for me since computers in the business center were not working.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r380221440-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>380221440</t>
+  </si>
+  <si>
+    <t>06/06/2016</t>
+  </si>
+  <si>
+    <t>Great Holiday Inn</t>
+  </si>
+  <si>
+    <t>Stayed here a few nights last week. Place was very clean. Rooms were big, breakfast was delicious, and there was a Keurig in my room! Can't beat that! I didn't hang around at the hotel, so I don't have much else to offer. As holiday inns go, this one is definitely a winner.MoreShow less</t>
+  </si>
+  <si>
+    <t>eraschle, Manager at Holiday Inn Express Hotel &amp; Suites Texas City, responded to this reviewResponded June 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 18, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here a few nights last week. Place was very clean. Rooms were big, breakfast was delicious, and there was a Keurig in my room! Can't beat that! I didn't hang around at the hotel, so I don't have much else to offer. As holiday inns go, this one is definitely a winner.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r379620982-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>379620982</t>
+  </si>
+  <si>
+    <t>06/04/2016</t>
+  </si>
+  <si>
+    <t>Nice hotel</t>
+  </si>
+  <si>
+    <t>Stayed here the night before our cruise.  Rooms were clean and spacious. Continental breakfast had a lot of options and was refreshed frequently. Pool looked clean, but we did not use it. Overall great stay. Would book another night here. MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here the night before our cruise.  Rooms were clean and spacious. Continental breakfast had a lot of options and was refreshed frequently. Pool looked clean, but we did not use it. Overall great stay. Would book another night here. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r378277402-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>378277402</t>
+  </si>
+  <si>
+    <t>05/31/2016</t>
+  </si>
+  <si>
+    <t>Galveston vacation</t>
+  </si>
+  <si>
+    <t>Great place and service our stay was very pleasent. The room was really nice,big, and very clean. Breakfast was delicious. At a convenient distance from Galveston beach wich made it easy to go enjoy the beach and back to rest.  will book again :)MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Great place and service our stay was very pleasent. The room was really nice,big, and very clean. Breakfast was delicious. At a convenient distance from Galveston beach wich made it easy to go enjoy the beach and back to rest.  will book again :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r369636281-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>369636281</t>
+  </si>
+  <si>
+    <t>05/02/2016</t>
+  </si>
+  <si>
+    <t>Nice..</t>
+  </si>
+  <si>
+    <t>I travel to Texas City once  a month and usually stay at a different hotel - this month I decided to stay at this Holiday Inn - For the price which was almost $100 more than where I would normally stay I will say I will not return - this is based strictly on the lack of customer service. Rooms were pretty standard, could have used a little more attention to housekeepingMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>eraschle, Manager at Holiday Inn Express Hotel &amp; Suites Texas City, responded to this reviewResponded May 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 16, 2016</t>
+  </si>
+  <si>
+    <t>I travel to Texas City once  a month and usually stay at a different hotel - this month I decided to stay at this Holiday Inn - For the price which was almost $100 more than where I would normally stay I will say I will not return - this is based strictly on the lack of customer service. Rooms were pretty standard, could have used a little more attention to housekeepingMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r353950026-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>353950026</t>
+  </si>
+  <si>
+    <t>03/08/2016</t>
+  </si>
+  <si>
+    <t>Great hotel and great service</t>
+  </si>
+  <si>
+    <t>Was extremely happy with cleanliness and friendliness. Hotel looks like it is brand new. Many TV channels and microwave/fridge added to comfort. We all slept very well in comfortable beds and enjoyed our breakfast before going to the beach in Galveston.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>eraschle, Manager at Holiday Inn Express Hotel &amp; Suites Texas City, responded to this reviewResponded March 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 16, 2016</t>
+  </si>
+  <si>
+    <t>Was extremely happy with cleanliness and friendliness. Hotel looks like it is brand new. Many TV channels and microwave/fridge added to comfort. We all slept very well in comfortable beds and enjoyed our breakfast before going to the beach in Galveston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r334019240-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>334019240</t>
+  </si>
+  <si>
+    <t>12/20/2015</t>
+  </si>
+  <si>
+    <t>Great pre-cruise hotel!</t>
+  </si>
+  <si>
+    <t>This hotel was very comfortable and spotlessly clean.  The front desk ladies were very capable and friendly.  Our room was nice and clean and the air conditioning worked well.  The bathroom was well stocked and clean.  There is an Olive Garden close by.  We like to stay here prior to cruising out of Galveston.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>This hotel was very comfortable and spotlessly clean.  The front desk ladies were very capable and friendly.  Our room was nice and clean and the air conditioning worked well.  The bathroom was well stocked and clean.  There is an Olive Garden close by.  We like to stay here prior to cruising out of Galveston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r310939982-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>310939982</t>
+  </si>
+  <si>
+    <t>09/16/2015</t>
+  </si>
+  <si>
+    <t>Beautiful hotel</t>
+  </si>
+  <si>
+    <t>As an IHG member, we try to stay mostly with Holiday Inn. We were just as satisfied as always with this particular hotel. The rooms were very nice and well maintained. The staff was very friendly and accommodating.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>eraschle, Manager at Holiday Inn Express Hotel &amp; Suites Texas City, responded to this reviewResponded November 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 11, 2015</t>
+  </si>
+  <si>
+    <t>As an IHG member, we try to stay mostly with Holiday Inn. We were just as satisfied as always with this particular hotel. The rooms were very nice and well maintained. The staff was very friendly and accommodating.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r290338400-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>290338400</t>
+  </si>
+  <si>
+    <t>07/19/2015</t>
+  </si>
+  <si>
+    <t>Texas City Holiday Inn by Mr GG</t>
+  </si>
+  <si>
+    <t>I and my wife stayed there two nights, July 15 and 16.  Found out the hotel is 8 years old, but it does not look it.   Hotel is well maintained and clean.  Room was clean.  Staff did good job cleaning and maintaining the room and bathroom the morning of July 16.  Good variety of breakfast items.  The only two dings are 1. The room was next to the elevator/vending area and the noise, while not loud, was noticeable, and 2. The WiFi is weak.  I had trouble connecting my laptop and our phones.  We were in a second floor room.  Overall, though, we would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>eraschle, General Manager at Holiday Inn Express Hotel &amp; Suites Texas City, responded to this reviewResponded July 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 20, 2015</t>
+  </si>
+  <si>
+    <t>I and my wife stayed there two nights, July 15 and 16.  Found out the hotel is 8 years old, but it does not look it.   Hotel is well maintained and clean.  Room was clean.  Staff did good job cleaning and maintaining the room and bathroom the morning of July 16.  Good variety of breakfast items.  The only two dings are 1. The room was next to the elevator/vending area and the noise, while not loud, was noticeable, and 2. The WiFi is weak.  I had trouble connecting my laptop and our phones.  We were in a second floor room.  Overall, though, we would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r280956034-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>280956034</t>
+  </si>
+  <si>
+    <t>06/17/2015</t>
+  </si>
+  <si>
+    <t>Great Stay for a Family Wedding</t>
+  </si>
+  <si>
+    <t>My family of four had a wonderful time at a family wedding in Texas and our stay here was part of the reason. The rooms and pool were huge.  Everything was clean and it was very convenient to restaurants and to our venues for the wedding. The people were lovely. We would highly recommend to any traveler.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>eraschle, Manager at Holiday Inn Express Hotel &amp; Suites Texas City, responded to this reviewResponded June 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 22, 2015</t>
+  </si>
+  <si>
+    <t>My family of four had a wonderful time at a family wedding in Texas and our stay here was part of the reason. The rooms and pool were huge.  Everything was clean and it was very convenient to restaurants and to our venues for the wedding. The people were lovely. We would highly recommend to any traveler.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r237556832-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>237556832</t>
+  </si>
+  <si>
+    <t>11/02/2014</t>
+  </si>
+  <si>
+    <t>Was Charged for a Room I Never Occupied</t>
+  </si>
+  <si>
+    <t>Upon arrival and check-in (mid-afternoon on a Friday) and going to my assigned room, I found it filled with a very strong odor (as if someone had been cooking pork or fish). I requested and was quickly assigned a new room. I thought everything was now fine.
+HOWEVER, upon reaching the newly assigned room, I noticed that it had no bathtub. Because I have a medical condition (that requires me to soak a tendon that was surgically repaired a few years ago),I returned to the front desk to explain the problem. The desk clerk (Jacob) informed me that ONLY TWO ROOMS in the ENTIRE hotel have bathtubs, and that neither was available. 
+So for me, staying at this hotel was no longer an option. HOWEVER, the desk clerk said that if I chose to leave and stay elsewhere, I would still be charged for TWO NIGHTS because I had made my reservation in advance and it was "non-cancellable” (even though my luggage never left the luggage cart and even though I never stepped more than 3 feet into the room). I tried to explain that the issue had nothing to do with the advance reservation, and was based solely on his inability to provide me with a room that met my needs. It soon became apparent that my explanation was falling on deaf ears.
+I then asked to speak to the manager. The desk clerk said she (Tracy) had left...Upon arrival and check-in (mid-afternoon on a Friday) and going to my assigned room, I found it filled with a very strong odor (as if someone had been cooking pork or fish). I requested and was quickly assigned a new room. I thought everything was now fine.HOWEVER, upon reaching the newly assigned room, I noticed that it had no bathtub. Because I have a medical condition (that requires me to soak a tendon that was surgically repaired a few years ago),I returned to the front desk to explain the problem. The desk clerk (Jacob) informed me that ONLY TWO ROOMS in the ENTIRE hotel have bathtubs, and that neither was available. So for me, staying at this hotel was no longer an option. HOWEVER, the desk clerk said that if I chose to leave and stay elsewhere, I would still be charged for TWO NIGHTS because I had made my reservation in advance and it was "non-cancellable” (even though my luggage never left the luggage cart and even though I never stepped more than 3 feet into the room). I tried to explain that the issue had nothing to do with the advance reservation, and was based solely on his inability to provide me with a room that met my needs. It soon became apparent that my explanation was falling on deaf ears.I then asked to speak to the manager. The desk clerk said she (Tracy) had left for the day and he refused to call her, telling me that she does not accept calls after her working hours.I wrote a note to Tracy, left it with the desk clerk, handed in my room key and set out to find a hotel with bathtubs. Finding such a hotel was quite easy -- every hotel I called in the area is apparently furnished with tubs.I found another hotel (Holiday Inn Express) about 15 miles away with pleasant staff -- and bathtubs. When I explained why I was asking about tubs, these folks seemed to be as amazed at the story (two bathtubs in the entire hotel) as I was.On the following Monday I spoke by phone with manager (Tracy) when she returned to work. She confirmed that she never accepts calls from staff or from hotel guests after she leaves work. She told me she had the authority to refund my room charges, but refused to do so because it would "overrule the non-cancellation policy.” She could not seem to understand that my issue had nothing to do with the room reservation, and everything to do with a bona fide need for a common amenity/furnishing that is typically found in hotel rooms. She did understand that the Holiday Inn reservation website mentions nothing about rooms at this hotel not having bathtubs. None of this seemed to matter to Tracy.So I sent then an email to the property/franchise owner (Raschle), but never received a reply. After several days with no response from the franchise owner, I filed a report with my credit card company to dispute-the-charges.I would strongly recommend that people beware of this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>eraschle, Manager at Holiday Inn Express Hotel &amp; Suites Texas City, responded to this reviewResponded November 6, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 6, 2014</t>
+  </si>
+  <si>
+    <t>Upon arrival and check-in (mid-afternoon on a Friday) and going to my assigned room, I found it filled with a very strong odor (as if someone had been cooking pork or fish). I requested and was quickly assigned a new room. I thought everything was now fine.
+HOWEVER, upon reaching the newly assigned room, I noticed that it had no bathtub. Because I have a medical condition (that requires me to soak a tendon that was surgically repaired a few years ago),I returned to the front desk to explain the problem. The desk clerk (Jacob) informed me that ONLY TWO ROOMS in the ENTIRE hotel have bathtubs, and that neither was available. 
+So for me, staying at this hotel was no longer an option. HOWEVER, the desk clerk said that if I chose to leave and stay elsewhere, I would still be charged for TWO NIGHTS because I had made my reservation in advance and it was "non-cancellable” (even though my luggage never left the luggage cart and even though I never stepped more than 3 feet into the room). I tried to explain that the issue had nothing to do with the advance reservation, and was based solely on his inability to provide me with a room that met my needs. It soon became apparent that my explanation was falling on deaf ears.
+I then asked to speak to the manager. The desk clerk said she (Tracy) had left...Upon arrival and check-in (mid-afternoon on a Friday) and going to my assigned room, I found it filled with a very strong odor (as if someone had been cooking pork or fish). I requested and was quickly assigned a new room. I thought everything was now fine.HOWEVER, upon reaching the newly assigned room, I noticed that it had no bathtub. Because I have a medical condition (that requires me to soak a tendon that was surgically repaired a few years ago),I returned to the front desk to explain the problem. The desk clerk (Jacob) informed me that ONLY TWO ROOMS in the ENTIRE hotel have bathtubs, and that neither was available. So for me, staying at this hotel was no longer an option. HOWEVER, the desk clerk said that if I chose to leave and stay elsewhere, I would still be charged for TWO NIGHTS because I had made my reservation in advance and it was "non-cancellable” (even though my luggage never left the luggage cart and even though I never stepped more than 3 feet into the room). I tried to explain that the issue had nothing to do with the advance reservation, and was based solely on his inability to provide me with a room that met my needs. It soon became apparent that my explanation was falling on deaf ears.I then asked to speak to the manager. The desk clerk said she (Tracy) had left for the day and he refused to call her, telling me that she does not accept calls after her working hours.I wrote a note to Tracy, left it with the desk clerk, handed in my room key and set out to find a hotel with bathtubs. Finding such a hotel was quite easy -- every hotel I called in the area is apparently furnished with tubs.I found another hotel (Holiday Inn Express) about 15 miles away with pleasant staff -- and bathtubs. When I explained why I was asking about tubs, these folks seemed to be as amazed at the story (two bathtubs in the entire hotel) as I was.On the following Monday I spoke by phone with manager (Tracy) when she returned to work. She confirmed that she never accepts calls from staff or from hotel guests after she leaves work. She told me she had the authority to refund my room charges, but refused to do so because it would "overrule the non-cancellation policy.” She could not seem to understand that my issue had nothing to do with the room reservation, and everything to do with a bona fide need for a common amenity/furnishing that is typically found in hotel rooms. She did understand that the Holiday Inn reservation website mentions nothing about rooms at this hotel not having bathtubs. None of this seemed to matter to Tracy.So I sent then an email to the property/franchise owner (Raschle), but never received a reply. After several days with no response from the franchise owner, I filed a report with my credit card company to dispute-the-charges.I would strongly recommend that people beware of this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r232314749-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>232314749</t>
+  </si>
+  <si>
+    <t>10/02/2014</t>
+  </si>
+  <si>
+    <t>Good place for your money</t>
+  </si>
+  <si>
+    <t>Let's start off with this was my first stay at a Holiday Inn. I have worked with high end hotel brands in the past and my expectations and standards are pretty high for hotels. To say the least this was a great surprise and terrific value for my one night stay. When you walk in it smells so clean and the front desk staff is super friendly. Great location and easy to find. Close by a Walmart and this is a plus when traveling with kids. The room was a great size too, two standard beds and sofa. The bedding was very clean and so was the shower. I would say that the breakfast was great but they ran out of coffee very fast, and took a long time to refill it. I would warn you to check the towels because I found one that was not cleaned, makeup all over it, just folded back up and new towel on top....MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>eraschle, General Manager at Holiday Inn Express Hotel &amp; Suites Texas City, responded to this reviewResponded October 9, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 9, 2014</t>
+  </si>
+  <si>
+    <t>Let's start off with this was my first stay at a Holiday Inn. I have worked with high end hotel brands in the past and my expectations and standards are pretty high for hotels. To say the least this was a great surprise and terrific value for my one night stay. When you walk in it smells so clean and the front desk staff is super friendly. Great location and easy to find. Close by a Walmart and this is a plus when traveling with kids. The room was a great size too, two standard beds and sofa. The bedding was very clean and so was the shower. I would say that the breakfast was great but they ran out of coffee very fast, and took a long time to refill it. I would warn you to check the towels because I found one that was not cleaned, makeup all over it, just folded back up and new towel on top....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r218523764-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>218523764</t>
+  </si>
+  <si>
+    <t>07/30/2014</t>
+  </si>
+  <si>
+    <t>Very uncomfortable beds and unhelpful staff</t>
+  </si>
+  <si>
+    <t>I usually stay at Hilton properties but my wife, son, and myself stayed at the Holiday Inn Express in Texas City for a wedding this past weekend and it was a huge disappointment! I have stayed at several Holiday Inn Express locations before and they are generally pretty decent however my wife and I both had severe back pain after the first night and it was worse after the second night. The free wifi that we were supposed to have would not work in our room at all. The only place we could get wifi was on the ground floor!
+I usually do not have any problem with getting hotel staff to allow late checkout if needed but in this case we needed to stay a few hours after normal checkout before leaving for a family event but I could not even get the request out of my mouth before I was cut off with a curt "That is not possible! We are completely booked and we need you to be out at noon!" I understand that the hotel was full but they cannot possibly clean all of the rooms at the same time so what difference does it make? At Hilton hotels I am guaranteed late checkout due to my membership privileges no questions asked- ever! I am also a member of IHG rewards but no such consideration was given.
+We also had to ask for the hotel pool...I usually stay at Hilton properties but my wife, son, and myself stayed at the Holiday Inn Express in Texas City for a wedding this past weekend and it was a huge disappointment! I have stayed at several Holiday Inn Express locations before and they are generally pretty decent however my wife and I both had severe back pain after the first night and it was worse after the second night. The free wifi that we were supposed to have would not work in our room at all. The only place we could get wifi was on the ground floor!I usually do not have any problem with getting hotel staff to allow late checkout if needed but in this case we needed to stay a few hours after normal checkout before leaving for a family event but I could not even get the request out of my mouth before I was cut off with a curt "That is not possible! We are completely booked and we need you to be out at noon!" I understand that the hotel was full but they cannot possibly clean all of the rooms at the same time so what difference does it make? At Hilton hotels I am guaranteed late checkout due to my membership privileges no questions asked- ever! I am also a member of IHG rewards but no such consideration was given.We also had to ask for the hotel pool to be unlocked because the gate was still locked over 30 minutes after the pool was supposed to be open. The pool towels that we had to ask for at the front desk were inconsistent. One day we were given hand towels that were not even big enough to wrap around your body and were very thin, but the next day they were better.Another group of our family was also staying at the hotel and had specifically requested a "suite with a pull out sofa" because they had 2 teens with them. They have stayed at many Holiday Inn Express &amp; Suites and the suites have always had a hide-a-bed in the couch. Not this hotel! Because you cannot actually book a room at the hotel by phone, the national reservation operator did not know that this hotel did not have hide-a-beds in any rooms but booked the room for them anyway. Because the hotel was full, my in laws had to leave the hotel a day early to find a hotel that could accommodate them in a single room.I expected this hotel to be much better. It looks very new and has a lot of potential but the bed was terrible and the customer service is nowhere on the level that it needs to be for the prices charged. The Hilton hotel we stayed at the last night we were in town was far superior for just a few dollars more. Lesson learned!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>eraschle, Manager at Holiday Inn Express Hotel &amp; Suites Texas City, responded to this reviewResponded August 13, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 13, 2014</t>
+  </si>
+  <si>
+    <t>I usually stay at Hilton properties but my wife, son, and myself stayed at the Holiday Inn Express in Texas City for a wedding this past weekend and it was a huge disappointment! I have stayed at several Holiday Inn Express locations before and they are generally pretty decent however my wife and I both had severe back pain after the first night and it was worse after the second night. The free wifi that we were supposed to have would not work in our room at all. The only place we could get wifi was on the ground floor!
+I usually do not have any problem with getting hotel staff to allow late checkout if needed but in this case we needed to stay a few hours after normal checkout before leaving for a family event but I could not even get the request out of my mouth before I was cut off with a curt "That is not possible! We are completely booked and we need you to be out at noon!" I understand that the hotel was full but they cannot possibly clean all of the rooms at the same time so what difference does it make? At Hilton hotels I am guaranteed late checkout due to my membership privileges no questions asked- ever! I am also a member of IHG rewards but no such consideration was given.
+We also had to ask for the hotel pool...I usually stay at Hilton properties but my wife, son, and myself stayed at the Holiday Inn Express in Texas City for a wedding this past weekend and it was a huge disappointment! I have stayed at several Holiday Inn Express locations before and they are generally pretty decent however my wife and I both had severe back pain after the first night and it was worse after the second night. The free wifi that we were supposed to have would not work in our room at all. The only place we could get wifi was on the ground floor!I usually do not have any problem with getting hotel staff to allow late checkout if needed but in this case we needed to stay a few hours after normal checkout before leaving for a family event but I could not even get the request out of my mouth before I was cut off with a curt "That is not possible! We are completely booked and we need you to be out at noon!" I understand that the hotel was full but they cannot possibly clean all of the rooms at the same time so what difference does it make? At Hilton hotels I am guaranteed late checkout due to my membership privileges no questions asked- ever! I am also a member of IHG rewards but no such consideration was given.We also had to ask for the hotel pool to be unlocked because the gate was still locked over 30 minutes after the pool was supposed to be open. The pool towels that we had to ask for at the front desk were inconsistent. One day we were given hand towels that were not even big enough to wrap around your body and were very thin, but the next day they were better.Another group of our family was also staying at the hotel and had specifically requested a "suite with a pull out sofa" because they had 2 teens with them. They have stayed at many Holiday Inn Express &amp; Suites and the suites have always had a hide-a-bed in the couch. Not this hotel! Because you cannot actually book a room at the hotel by phone, the national reservation operator did not know that this hotel did not have hide-a-beds in any rooms but booked the room for them anyway. Because the hotel was full, my in laws had to leave the hotel a day early to find a hotel that could accommodate them in a single room.I expected this hotel to be much better. It looks very new and has a lot of potential but the bed was terrible and the customer service is nowhere on the level that it needs to be for the prices charged. The Hilton hotel we stayed at the last night we were in town was far superior for just a few dollars more. Lesson learned!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r216220214-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>216220214</t>
+  </si>
+  <si>
+    <t>07/19/2014</t>
+  </si>
+  <si>
+    <t>The front desk is rude!!!!!</t>
+  </si>
+  <si>
+    <t>If breakfast is served until 10am, there should be breakfast available. When I told the front desk that the pancakes were out, she wouldn't refill it. I tild her they were out 10 minutes ago, she yelled at me and said, "well did you come tell me they were out?" I am a guest, I didn't know I had to tell them to do their low paying job. She said it was too late and they already filled it 3 times and that was it. Mind you, this is a Saturday and a lot of people tried to get pancakes. My kids were crying and she had an attitude and yelled at me. I asked for the manager who was gone at 9:30am??? Seriously?? Horrible service. Who yells at their guests? So make sure you remind them to check the breakfast every 20 min. Good God.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Texas City, responded to this reviewResponded August 5, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 5, 2014</t>
+  </si>
+  <si>
+    <t>If breakfast is served until 10am, there should be breakfast available. When I told the front desk that the pancakes were out, she wouldn't refill it. I tild her they were out 10 minutes ago, she yelled at me and said, "well did you come tell me they were out?" I am a guest, I didn't know I had to tell them to do their low paying job. She said it was too late and they already filled it 3 times and that was it. Mind you, this is a Saturday and a lot of people tried to get pancakes. My kids were crying and she had an attitude and yelled at me. I asked for the manager who was gone at 9:30am??? Seriously?? Horrible service. Who yells at their guests? So make sure you remind them to check the breakfast every 20 min. Good God.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r212832093-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>212832093</t>
+  </si>
+  <si>
+    <t>06/30/2014</t>
+  </si>
+  <si>
+    <t>Clean Hotel with a Few Problems</t>
+  </si>
+  <si>
+    <t>This hotel is fairly new and is very clean.  The king leisure suite was large and nice.  The price we had to pay was WAY TOO HIGH for this quality hotel.However, the hotel has a humidity problem. You have to keep the rooms very cold to dehumidify and then when you take a hot shower the room gets very damp and the floor gets slippery. Also, there is not enough parking for a hotel this size.  The lot is laid out weird and there just aren't enough spaces when full. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>eraschle, General Manager at Holiday Inn Express Hotel &amp; Suites Texas City, responded to this reviewResponded July 3, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 3, 2014</t>
+  </si>
+  <si>
+    <t>This hotel is fairly new and is very clean.  The king leisure suite was large and nice.  The price we had to pay was WAY TOO HIGH for this quality hotel.However, the hotel has a humidity problem. You have to keep the rooms very cold to dehumidify and then when you take a hot shower the room gets very damp and the floor gets slippery. Also, there is not enough parking for a hotel this size.  The lot is laid out weird and there just aren't enough spaces when full. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r210948621-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>210948621</t>
+  </si>
+  <si>
+    <t>06/18/2014</t>
+  </si>
+  <si>
+    <t>Absolutely love this hotel!</t>
+  </si>
+  <si>
+    <t>This hotel is great, and my husband and I have stayed here twice now when we come to visit Galveston. Diana at the front desk is a dream, she is SO nice! I love how all of the staff always said hello to us no matter what time of the day it was. The breakfast buffet is delicious, the beds are super comfortable, and the place is clean, clean clean! During the week you can have the pool pretty much to yourself, which we loved. There is a Walmart across the highway that is really convenient if you forget any toiletries or need to pick up snacks, beer, etc. It only took us about 20 minutes to get into Galveston too, which I much prefer then spending a ton of $$$ to stay on the seawall, or anywhere in town for that matter. We will always come back to this hotel every year when we visit.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is great, and my husband and I have stayed here twice now when we come to visit Galveston. Diana at the front desk is a dream, she is SO nice! I love how all of the staff always said hello to us no matter what time of the day it was. The breakfast buffet is delicious, the beds are super comfortable, and the place is clean, clean clean! During the week you can have the pool pretty much to yourself, which we loved. There is a Walmart across the highway that is really convenient if you forget any toiletries or need to pick up snacks, beer, etc. It only took us about 20 minutes to get into Galveston too, which I much prefer then spending a ton of $$$ to stay on the seawall, or anywhere in town for that matter. We will always come back to this hotel every year when we visit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r210580931-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>210580931</t>
+  </si>
+  <si>
+    <t>06/16/2014</t>
+  </si>
+  <si>
+    <t>One of the best!</t>
+  </si>
+  <si>
+    <t>Very clean exterior &amp; interior. Beautiful modern room, Direct TV, and great mattress! Staff was very helpful &amp; polite. Well lit parking &amp; close to food. Clean pool area, and nice breakfast buffet in the morning.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r210316700-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>210316700</t>
+  </si>
+  <si>
+    <t>06/14/2014</t>
+  </si>
+  <si>
+    <t>Good Stay Near Beach for Less</t>
+  </si>
+  <si>
+    <t>Comfortable and clean hotel. Approximately 10 minutes to Galveston. Shopping and dining nearby. Nice Saltwater pool but no hot tub. Double safety latches on pool gate made it difficult for adults to enter and exit. Large shower stall, but no tub, which was fine for us. Fridge and microwave in room was convenient. Very disappointed in the wireless internet, which was so weak that we could only use it intermittently in the breakfast room or near the front desk. Seems the hotel needs a stronger wireless router. Otherwise, the hotel was a good choice and costed only half of what we would have paid had we stayed on Galveston Island. MoreShow less</t>
+  </si>
+  <si>
+    <t>Comfortable and clean hotel. Approximately 10 minutes to Galveston. Shopping and dining nearby. Nice Saltwater pool but no hot tub. Double safety latches on pool gate made it difficult for adults to enter and exit. Large shower stall, but no tub, which was fine for us. Fridge and microwave in room was convenient. Very disappointed in the wireless internet, which was so weak that we could only use it intermittently in the breakfast room or near the front desk. Seems the hotel needs a stronger wireless router. Otherwise, the hotel was a good choice and costed only half of what we would have paid had we stayed on Galveston Island. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r209343938-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>209343938</t>
+  </si>
+  <si>
+    <t>06/07/2014</t>
+  </si>
+  <si>
+    <t>Highlight of Texas City</t>
+  </si>
+  <si>
+    <t>Should you need to be close to events in areas south of Houston, this is the place to stay.  VERY clean and the staff goes above and beyond.  It is located away from high traffic areas, hustle and bustle.MoreShow less</t>
+  </si>
+  <si>
+    <t>eraschle, Manager at Holiday Inn Express Hotel &amp; Suites Texas City, responded to this reviewResponded June 9, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 9, 2014</t>
+  </si>
+  <si>
+    <t>Should you need to be close to events in areas south of Houston, this is the place to stay.  VERY clean and the staff goes above and beyond.  It is located away from high traffic areas, hustle and bustle.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r204226389-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>204226389</t>
+  </si>
+  <si>
+    <t>05/05/2014</t>
+  </si>
+  <si>
+    <t>great place</t>
+  </si>
+  <si>
+    <t>my sister and I spent two weeks in Texas City, and had a chance to stay in this hotel, and I am very impresed with the service and hotel. everything was so clean, and staff was so friendly, and service was perfect.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>eraschle, Manager at Holiday Inn Express Hotel &amp; Suites Texas City, responded to this reviewResponded June 5, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 5, 2014</t>
+  </si>
+  <si>
+    <t>my sister and I spent two weeks in Texas City, and had a chance to stay in this hotel, and I am very impresed with the service and hotel. everything was so clean, and staff was so friendly, and service was perfect.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r202834267-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>202834267</t>
+  </si>
+  <si>
+    <t>04/26/2014</t>
+  </si>
+  <si>
+    <t>Great Place For Business Traveller</t>
+  </si>
+  <si>
+    <t>Check in people were both very friendly and helpful and the check in process smooth. Rooms very clean, generous in size and has all the basic amenities such as fridge, coffee pot, etc. Wireless internet very speedy which is very important to the business traveller. Grounds are well-maintained, clean and have a nice appearance. This hotel is well-located off I-45, with plenty of places to eat right there, and even a WalMart nearby for snacks, water, etc for the room. I was able to partake of the breakfast only once but it was very good. One of the better breakfast's I have had at a HIE. I will probably be coming to Texas City for some projects once a month over the next year and this will be my place to stay. I suspect each stay will not disappoint. Would highly recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>eraschle, Manager at Holiday Inn Express Hotel &amp; Suites Texas City, responded to this reviewResponded April 27, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 27, 2014</t>
+  </si>
+  <si>
+    <t>Check in people were both very friendly and helpful and the check in process smooth. Rooms very clean, generous in size and has all the basic amenities such as fridge, coffee pot, etc. Wireless internet very speedy which is very important to the business traveller. Grounds are well-maintained, clean and have a nice appearance. This hotel is well-located off I-45, with plenty of places to eat right there, and even a WalMart nearby for snacks, water, etc for the room. I was able to partake of the breakfast only once but it was very good. One of the better breakfast's I have had at a HIE. I will probably be coming to Texas City for some projects once a month over the next year and this will be my place to stay. I suspect each stay will not disappoint. Would highly recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r200973668-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>200973668</t>
+  </si>
+  <si>
+    <t>04/13/2014</t>
+  </si>
+  <si>
+    <t>Clean rooms, friendly staff, and convenient location</t>
+  </si>
+  <si>
+    <t>This is a great place to stay the night before our cruise out of Galveston, Texas. It is easy on, easy off I45. There are 3 restaurants nearby as well as fast food on the other side of I45.The manager was particularly friendly, whether at the front desk or touring the breakfast area to greet guests and check on the breakfast bar. The water in Texas City is pretty dreadful, not just at this hotel; so I recommend bottled water.We had a room that was right next to the elevator, but we could not hear any noise in our room. I was worried that we might, but we didn't.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a great place to stay the night before our cruise out of Galveston, Texas. It is easy on, easy off I45. There are 3 restaurants nearby as well as fast food on the other side of I45.The manager was particularly friendly, whether at the front desk or touring the breakfast area to greet guests and check on the breakfast bar. The water in Texas City is pretty dreadful, not just at this hotel; so I recommend bottled water.We had a room that was right next to the elevator, but we could not hear any noise in our room. I was worried that we might, but we didn't.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r179151056-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>179151056</t>
+  </si>
+  <si>
+    <t>09/29/2013</t>
+  </si>
+  <si>
+    <t>Good stay</t>
+  </si>
+  <si>
+    <t>We had two rooms, both were well appointed and clean.  However, one room had a horrible musty smell and the other not as bad.  We reported the bathroom fans in both rooms not working.  The breakfast was nice and the kids liked the pool.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>eraschle, General Manager at Holiday Inn Express Hotel &amp; Suites Texas City, responded to this reviewResponded October 9, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 9, 2013</t>
+  </si>
+  <si>
+    <t>We had two rooms, both were well appointed and clean.  However, one room had a horrible musty smell and the other not as bad.  We reported the bathroom fans in both rooms not working.  The breakfast was nice and the kids liked the pool.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r178589507-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>178589507</t>
+  </si>
+  <si>
+    <t>09/25/2013</t>
+  </si>
+  <si>
+    <t>Very nice</t>
+  </si>
+  <si>
+    <t>Arrival greeting and service outstanding. Room clean with all the small things one may forgotten. Breakfast very good. The pool very nice shame it was shallow but I was not looking for an Olympic pool    Will I stay again   YesMoreShow less</t>
+  </si>
+  <si>
+    <t>eraschle, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Texas City, responded to this reviewResponded September 27, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 27, 2013</t>
+  </si>
+  <si>
+    <t>Arrival greeting and service outstanding. Room clean with all the small things one may forgotten. Breakfast very good. The pool very nice shame it was shallow but I was not looking for an Olympic pool    Will I stay again   YesMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r172367975-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>172367975</t>
+  </si>
+  <si>
+    <t>08/15/2013</t>
+  </si>
+  <si>
+    <t>Depends on your expectations</t>
+  </si>
+  <si>
+    <t>This is a very nice and well-kept hotel but there were some basic things that guests expect that went unattended over three full days. Pro's: Superb breakfast, entire hotel in and out very very clean, nice exterior grounds kept well and not trashy, pool area beautiful.  Well done. Cons: Ice machine not working entire three-day stay on floor and the soda machines largely unstocked. Unacceptable because this is mid-August in hot SE Texas. “Spartan” bare bathroom with white walls in our regular room; just not warm, almost like a hospital bathroom, almost clinical feeling.  The view outside the ultra-nice suite on 2nd floor is totally obstructed by the front entrance overhang. So, it all depends on your expectations. This is a very nice well-kept and clean hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>eraschle, Owner at Holiday Inn Express Hotel &amp; Suites Texas City, responded to this reviewResponded August 26, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 26, 2013</t>
+  </si>
+  <si>
+    <t>This is a very nice and well-kept hotel but there were some basic things that guests expect that went unattended over three full days. Pro's: Superb breakfast, entire hotel in and out very very clean, nice exterior grounds kept well and not trashy, pool area beautiful.  Well done. Cons: Ice machine not working entire three-day stay on floor and the soda machines largely unstocked. Unacceptable because this is mid-August in hot SE Texas. “Spartan” bare bathroom with white walls in our regular room; just not warm, almost like a hospital bathroom, almost clinical feeling.  The view outside the ultra-nice suite on 2nd floor is totally obstructed by the front entrance overhang. So, it all depends on your expectations. This is a very nice well-kept and clean hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r166854609-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>166854609</t>
+  </si>
+  <si>
+    <t>07/08/2013</t>
+  </si>
+  <si>
+    <t>Bed Bugs and Dirty</t>
+  </si>
+  <si>
+    <t>We stayed here on our way to Galveston to catch a cruise the next day. The room itself had a strange smell and was dusty. We slept ok but when we woke up the next morning we were covered in bites. We jumped in the shower and got out of there as fast as we could.Do yourself a favor and pay a bit more to stay in Galveston. This place is disgusting!MoreShow less</t>
+  </si>
+  <si>
+    <t>eraschle, Owner at Holiday Inn Express Hotel &amp; Suites Texas City, responded to this reviewResponded July 16, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 16, 2013</t>
+  </si>
+  <si>
+    <t>We stayed here on our way to Galveston to catch a cruise the next day. The room itself had a strange smell and was dusty. We slept ok but when we woke up the next morning we were covered in bites. We jumped in the shower and got out of there as fast as we could.Do yourself a favor and pay a bit more to stay in Galveston. This place is disgusting!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r165046694-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>165046694</t>
+  </si>
+  <si>
+    <t>06/24/2013</t>
+  </si>
+  <si>
+    <t>Great place to stay a little bit outside of Galveston</t>
+  </si>
+  <si>
+    <t>This hotel was great! It's about a 20-25 minute drive to Galveston, depending on what you want to do. It's really convenient that there is a Walmart across the highway, so if you forget anything or need snacks/drinks, etc. it's right there. The room was spacious and clean, and we couldn't hear anybody above us or down the hallway so it was nice and quiet. The breakfast is delicious; there are so many options of things to eat I can't even believe it. The pool was great as well, and it was actually salt water which I loved instead of the usual chlorine. Overall we loved our stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>eraschle, Manager at Holiday Inn Express Hotel &amp; Suites Texas City, responded to this reviewResponded June 26, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 26, 2013</t>
+  </si>
+  <si>
+    <t>This hotel was great! It's about a 20-25 minute drive to Galveston, depending on what you want to do. It's really convenient that there is a Walmart across the highway, so if you forget anything or need snacks/drinks, etc. it's right there. The room was spacious and clean, and we couldn't hear anybody above us or down the hallway so it was nice and quiet. The breakfast is delicious; there are so many options of things to eat I can't even believe it. The pool was great as well, and it was actually salt water which I loved instead of the usual chlorine. Overall we loved our stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r162900905-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>162900905</t>
+  </si>
+  <si>
+    <t>06/03/2013</t>
+  </si>
+  <si>
+    <t>Great hotel but beware of Nav directions</t>
+  </si>
+  <si>
+    <t>We stayed here the night before our Disney Cruise out of Galveston. Check-in was efficient with friendly clerk. Room was clean and breakfast was nice. But beware of navigation directions!  Our Nav took us to an empty lot on I-45 and the hotel is more North and not off I-45(although you can see I-45)  I called the clerk and he directed me. When I arrived, I questioned him and he stated it happens all the time. He said that when the hotel was rebuilt, they kept the address even though the physical location moved. Why they would do that makes no sense. Anyway, we are very happy and would definitely stay here again :-)MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>eraschle, General Manager at Holiday Inn Express Hotel &amp; Suites Texas City, responded to this reviewResponded June 5, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 5, 2013</t>
+  </si>
+  <si>
+    <t>We stayed here the night before our Disney Cruise out of Galveston. Check-in was efficient with friendly clerk. Room was clean and breakfast was nice. But beware of navigation directions!  Our Nav took us to an empty lot on I-45 and the hotel is more North and not off I-45(although you can see I-45)  I called the clerk and he directed me. When I arrived, I questioned him and he stated it happens all the time. He said that when the hotel was rebuilt, they kept the address even though the physical location moved. Why they would do that makes no sense. Anyway, we are very happy and would definitely stay here again :-)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r150304178-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>150304178</t>
+  </si>
+  <si>
+    <t>01/22/2013</t>
+  </si>
+  <si>
+    <t>Great Location in Texas City !</t>
+  </si>
+  <si>
+    <t>Great Location! Hotel is conveniently located with good access to I-45. About 15 minutes to Galveston .  Room was very clean and spacious. Front Desk Staff was very courteous. Check in and checkout went very smoothly. Breakfast was good. I would definitely stay there again!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>eraschle, Manager at Holiday Inn Express Hotel &amp; Suites Texas City, responded to this reviewResponded January 25, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 25, 2013</t>
+  </si>
+  <si>
+    <t>Great Location! Hotel is conveniently located with good access to I-45. About 15 minutes to Galveston .  Room was very clean and spacious. Front Desk Staff was very courteous. Check in and checkout went very smoothly. Breakfast was good. I would definitely stay there again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r147164847-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>147164847</t>
+  </si>
+  <si>
+    <t>12/10/2012</t>
+  </si>
+  <si>
+    <t>Nice and Clean</t>
+  </si>
+  <si>
+    <t>About 15 minutes or so to Galveston.  We stayed here before our cruise and drove to Galveston to hang out by the beach.  Room was clean and spacious.  Breakfast was very good.  I would definitely stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>eraschle, General Manager at Holiday Inn Express Hotel &amp; Suites Texas City, responded to this reviewResponded January 25, 2013</t>
+  </si>
+  <si>
+    <t>About 15 minutes or so to Galveston.  We stayed here before our cruise and drove to Galveston to hang out by the beach.  Room was clean and spacious.  Breakfast was very good.  I would definitely stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r146264300-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>146264300</t>
+  </si>
+  <si>
+    <t>11/26/2012</t>
+  </si>
+  <si>
+    <t>Nice hotel for this area</t>
+  </si>
+  <si>
+    <t>Good location of the air conditioning in the room I had. It kept the room cool, the fan was set to run continuously, so it didn't wake you up starting and stopping. It also did not blast the bed with cold air.  I don't like the wall AC/heating units, but this one was about as good as they get.The bed was comfortable, although the sheets were not as smooth as some. The rooms have only a shower in the bathrooms, but I didn't miss the tub. The show is nice since it was very large and had a very low edge that was easy to step over, but still kept the floor relativity dry. Good selection of channels on TV and internet worked well. Room have microwaves and bar fridges in them.There are few restaurants in the area, walking to them is a bit of a challenge since there are few sidewalks in this location. The hotel might get busier in the next while, since there is a Tanger outlet mall opening up a few miles down the road. There does not appear to be much shopping choice left in the Mall of the Mainland across the street.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>Good location of the air conditioning in the room I had. It kept the room cool, the fan was set to run continuously, so it didn't wake you up starting and stopping. It also did not blast the bed with cold air.  I don't like the wall AC/heating units, but this one was about as good as they get.The bed was comfortable, although the sheets were not as smooth as some. The rooms have only a shower in the bathrooms, but I didn't miss the tub. The show is nice since it was very large and had a very low edge that was easy to step over, but still kept the floor relativity dry. Good selection of channels on TV and internet worked well. Room have microwaves and bar fridges in them.There are few restaurants in the area, walking to them is a bit of a challenge since there are few sidewalks in this location. The hotel might get busier in the next while, since there is a Tanger outlet mall opening up a few miles down the road. There does not appear to be much shopping choice left in the Mall of the Mainland across the street.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r136086813-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>136086813</t>
+  </si>
+  <si>
+    <t>08/02/2012</t>
+  </si>
+  <si>
+    <t>This hotel is a very good place to stay in Texas City.</t>
+  </si>
+  <si>
+    <t>I just checked out after spending three night at the Texas City HIE and had a very pleasant stay.   I was a little worried given some of the negative reviews, but my stay was quite nice.   I had a suite on the second floor and it was comfortable and roomy.   It was nice to have a mini fridge and microwave in the room, although I only used the fridge for water.    The shower was one of the best hotel showers that I have experienced; as a previous reviewer noted it is the size of a tub, but a shower... I would like to have one of these at home.  The hotel was quiet and I slept well in my room.   The only issue was I would wake up from the cold during the night... well, actually that is actually a plus given the 100+ temperatures this week... I kept forgetting to turn it up at night, so really my fault.   The breakfast was standard HIE fare, but was well presented and fresh.  I especially enjoyed the fresh mini lemon poppy seed muffins.   I have tried several of the hotels in the area in Galveston, Kemah, and Texas City and this one is the best value.   I will be back next week!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>eraschle, General Manager at Holiday Inn Express Hotel &amp; Suites Texas City, responded to this reviewResponded September 3, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 3, 2012</t>
+  </si>
+  <si>
+    <t>I just checked out after spending three night at the Texas City HIE and had a very pleasant stay.   I was a little worried given some of the negative reviews, but my stay was quite nice.   I had a suite on the second floor and it was comfortable and roomy.   It was nice to have a mini fridge and microwave in the room, although I only used the fridge for water.    The shower was one of the best hotel showers that I have experienced; as a previous reviewer noted it is the size of a tub, but a shower... I would like to have one of these at home.  The hotel was quiet and I slept well in my room.   The only issue was I would wake up from the cold during the night... well, actually that is actually a plus given the 100+ temperatures this week... I kept forgetting to turn it up at night, so really my fault.   The breakfast was standard HIE fare, but was well presented and fresh.  I especially enjoyed the fresh mini lemon poppy seed muffins.   I have tried several of the hotels in the area in Galveston, Kemah, and Texas City and this one is the best value.   I will be back next week!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r131551919-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>131551919</t>
+  </si>
+  <si>
+    <t>06/08/2012</t>
+  </si>
+  <si>
+    <t>Great experience!</t>
+  </si>
+  <si>
+    <t>The overall experience was great.  The check in, room and breakfast were all very good.  The room, bedding and large shower were great!  This is a 100% smoke free hotel and this was much appreciated!!   THE HOTEL STILL LOOKS NEW!! The pool looked nice, even though we didn't use it.  The manager was very pleasant and efficient even though she was also filling in for breakfast staff that didn't show and did a great job of keeping up with both duties.  We stayed here before a cruise and have already made reservations for next year!  Yes, Galveston area prices are higher than most areas and they take advantage of the heavy tourist traffic.  However, at exit 15, this hotel is 35-40% lower than Holiday Inn and other chains located on the boardwalk in Galveston.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>eraschle, Manager at Holiday Inn Express Hotel &amp; Suites Texas City, responded to this reviewResponded September 3, 2012</t>
+  </si>
+  <si>
+    <t>The overall experience was great.  The check in, room and breakfast were all very good.  The room, bedding and large shower were great!  This is a 100% smoke free hotel and this was much appreciated!!   THE HOTEL STILL LOOKS NEW!! The pool looked nice, even though we didn't use it.  The manager was very pleasant and efficient even though she was also filling in for breakfast staff that didn't show and did a great job of keeping up with both duties.  We stayed here before a cruise and have already made reservations for next year!  Yes, Galveston area prices are higher than most areas and they take advantage of the heavy tourist traffic.  However, at exit 15, this hotel is 35-40% lower than Holiday Inn and other chains located on the boardwalk in Galveston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r131148988-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>131148988</t>
+  </si>
+  <si>
+    <t>06/02/2012</t>
+  </si>
+  <si>
+    <t>Nice and clean!</t>
+  </si>
+  <si>
+    <t>Only about 15 miles from Galveston. Just off I-10, but exit is kind of confusing. Wasn't much traffic in the hotel area. Hotel was clean and very nice. Check in was easy. The shower was as big as if there was a tub there, but there was no tub, just shower, very nice. Only complaint would be the bed was hard. No pillow top. But it was okay. Easy check out. Breakfast was okay for a hotel breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>Only about 15 miles from Galveston. Just off I-10, but exit is kind of confusing. Wasn't much traffic in the hotel area. Hotel was clean and very nice. Check in was easy. The shower was as big as if there was a tub there, but there was no tub, just shower, very nice. Only complaint would be the bed was hard. No pillow top. But it was okay. Easy check out. Breakfast was okay for a hotel breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r123187741-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>123187741</t>
+  </si>
+  <si>
+    <t>01/16/2012</t>
+  </si>
+  <si>
+    <t>Good choice for Texas City</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel in December to go to Moody Gardens in Galveston for the Christmas lights. It was a very nice HIE in a nice area, the staff was very accomodating and the room was immaculate. The breakfast was good and the only downside was the fact that they don't have tubs, only showers.  I would recommend this hotel and would stay there again.</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r120009832-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>120009832</t>
+  </si>
+  <si>
+    <t>11/01/2011</t>
+  </si>
+  <si>
+    <t>good choice in Texas City</t>
+  </si>
+  <si>
+    <t>Comfortable bed with firm mattress, room was very clean, good selection of channels on tv, strong water pressure in shower, safe in room, also a microwave. We would stay here again if we were in the area.</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r119936678-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>119936678</t>
+  </si>
+  <si>
+    <t>10/31/2011</t>
+  </si>
+  <si>
+    <t>Stay in Texas City</t>
+  </si>
+  <si>
+    <t>Booked online - nice new hotel - no tub, (which I prefer) but nice shower. I thought the bed was a little too firm - but still, large room, great TV, quiet, easy to find off the interstate.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r115104592-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>115104592</t>
+  </si>
+  <si>
+    <t>07/06/2011</t>
+  </si>
+  <si>
+    <t>Pleasant Surprise</t>
+  </si>
+  <si>
+    <t>The hotel was a very pleasant surprise.  It felt very new and everything was clean and in working order.  The rooms were a decent size and the bed linens were in great shape.  Each room had a working microwave, kitchen-type sink, and mini-fridge.  Surprisingly, the AC/Heater unit on the wall worked perfectly, keeping the room at a fairly constant temperature.   The internet service was free and fairly quick.  I had go get a password from the front desk, but once I did I had no issues with the exception of one night when the service went out (it was up the next morning).  I always had a strong signal from my room.
+The bathroom was fairly spacious, but not huge.  There was a good sized shower, but there was no bathtub.  Also, there was no exhaust fan, so we had some serious fog issues.
+There was plenty of parking.
+The outdoor pool (no indoor pool) was on the smallish side (about 40'x20'), but clean and not very crowded.  Open 9:00am to 10:00pm, most of the time it was totally void of people with the exception of my kids.  There is no lifeguard, but the deepest part is 5 feet.
+The breakfast was the normal Holiday Inn Express fare; omelets, hard boiled or scrambled eggs, sausage or bacon, biscuits-n-gravy, cinnamon buns, cereal, etc.  The dining area was very roomy and clean and the food was well stocked.  Keep in mind, that...The hotel was a very pleasant surprise.  It felt very new and everything was clean and in working order.  The rooms were a decent size and the bed linens were in great shape.  Each room had a working microwave, kitchen-type sink, and mini-fridge.  Surprisingly, the AC/Heater unit on the wall worked perfectly, keeping the room at a fairly constant temperature.   The internet service was free and fairly quick.  I had go get a password from the front desk, but once I did I had no issues with the exception of one night when the service went out (it was up the next morning).  I always had a strong signal from my room.The bathroom was fairly spacious, but not huge.  There was a good sized shower, but there was no bathtub.  Also, there was no exhaust fan, so we had some serious fog issues.There was plenty of parking.The outdoor pool (no indoor pool) was on the smallish side (about 40'x20'), but clean and not very crowded.  Open 9:00am to 10:00pm, most of the time it was totally void of people with the exception of my kids.  There is no lifeguard, but the deepest part is 5 feet.The breakfast was the normal Holiday Inn Express fare; omelets, hard boiled or scrambled eggs, sausage or bacon, biscuits-n-gravy, cinnamon buns, cereal, etc.  The dining area was very roomy and clean and the food was well stocked.  Keep in mind, that the hotel was not very busy when we were there.There were two side-by-side elevators for the 4 floors.  They were fairly quick and responsive.  No issues with them at all.The staff was extremely friendly and helpful.  The first clerk I met as I checked in was a bit preoccupied, but as I kicked up a conversation with her, she loosened up quite a bit.There was this weird lady who constantly walked around by herself in a blue nightgown and slippers. I don't think she was a guest but I could be wrong.  Didn't seem dangerous at all, but she did freak me out a bit.Nearby, there was a Wal*Mart, Jack-in-the-Box (my personal favorite), and a fairly large shopping mall with Macy's as its flagship store.My only complaints:1)  The hotel is hard to get to.  My GPS, loaded with the latest maps, didn't have its address listed.  Plus it is situated such that you have to traverse a one-way road to get to it.   Not really the hotel's fault I suppose.2) Being a H.I. rewards member, I was supposed to get a welcome gift (a cheesy bag containing a bottle of water, microwave popcorn, and a candy bar).  I didn't get one although I saw them sitting in the back.  Not a big deal. I could've asked for it if I really wanted one.3) No exhaust fan in the bathroomBottom line: For a "value" hotel, I was pleasantly surprised.  I feel that I definitely got my money's worth.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>The hotel was a very pleasant surprise.  It felt very new and everything was clean and in working order.  The rooms were a decent size and the bed linens were in great shape.  Each room had a working microwave, kitchen-type sink, and mini-fridge.  Surprisingly, the AC/Heater unit on the wall worked perfectly, keeping the room at a fairly constant temperature.   The internet service was free and fairly quick.  I had go get a password from the front desk, but once I did I had no issues with the exception of one night when the service went out (it was up the next morning).  I always had a strong signal from my room.
+The bathroom was fairly spacious, but not huge.  There was a good sized shower, but there was no bathtub.  Also, there was no exhaust fan, so we had some serious fog issues.
+There was plenty of parking.
+The outdoor pool (no indoor pool) was on the smallish side (about 40'x20'), but clean and not very crowded.  Open 9:00am to 10:00pm, most of the time it was totally void of people with the exception of my kids.  There is no lifeguard, but the deepest part is 5 feet.
+The breakfast was the normal Holiday Inn Express fare; omelets, hard boiled or scrambled eggs, sausage or bacon, biscuits-n-gravy, cinnamon buns, cereal, etc.  The dining area was very roomy and clean and the food was well stocked.  Keep in mind, that...The hotel was a very pleasant surprise.  It felt very new and everything was clean and in working order.  The rooms were a decent size and the bed linens were in great shape.  Each room had a working microwave, kitchen-type sink, and mini-fridge.  Surprisingly, the AC/Heater unit on the wall worked perfectly, keeping the room at a fairly constant temperature.   The internet service was free and fairly quick.  I had go get a password from the front desk, but once I did I had no issues with the exception of one night when the service went out (it was up the next morning).  I always had a strong signal from my room.The bathroom was fairly spacious, but not huge.  There was a good sized shower, but there was no bathtub.  Also, there was no exhaust fan, so we had some serious fog issues.There was plenty of parking.The outdoor pool (no indoor pool) was on the smallish side (about 40'x20'), but clean and not very crowded.  Open 9:00am to 10:00pm, most of the time it was totally void of people with the exception of my kids.  There is no lifeguard, but the deepest part is 5 feet.The breakfast was the normal Holiday Inn Express fare; omelets, hard boiled or scrambled eggs, sausage or bacon, biscuits-n-gravy, cinnamon buns, cereal, etc.  The dining area was very roomy and clean and the food was well stocked.  Keep in mind, that the hotel was not very busy when we were there.There were two side-by-side elevators for the 4 floors.  They were fairly quick and responsive.  No issues with them at all.The staff was extremely friendly and helpful.  The first clerk I met as I checked in was a bit preoccupied, but as I kicked up a conversation with her, she loosened up quite a bit.There was this weird lady who constantly walked around by herself in a blue nightgown and slippers. I don't think she was a guest but I could be wrong.  Didn't seem dangerous at all, but she did freak me out a bit.Nearby, there was a Wal*Mart, Jack-in-the-Box (my personal favorite), and a fairly large shopping mall with Macy's as its flagship store.My only complaints:1)  The hotel is hard to get to.  My GPS, loaded with the latest maps, didn't have its address listed.  Plus it is situated such that you have to traverse a one-way road to get to it.   Not really the hotel's fault I suppose.2) Being a H.I. rewards member, I was supposed to get a welcome gift (a cheesy bag containing a bottle of water, microwave popcorn, and a candy bar).  I didn't get one although I saw them sitting in the back.  Not a big deal. I could've asked for it if I really wanted one.3) No exhaust fan in the bathroomBottom line: For a "value" hotel, I was pleasantly surprised.  I feel that I definitely got my money's worth.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r71193168-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>71193168</t>
+  </si>
+  <si>
+    <t>07/16/2010</t>
+  </si>
+  <si>
+    <t>Nice, clean hotel</t>
+  </si>
+  <si>
+    <t>This hotel was very clean and nicely decorated.  Rooms were spacious and loved the shower.  Only problem was the bed was very uncomfortable.  Even my husband copmplained so I spoke to Tracy at front desk and she offered to move us down the hall to another room and even upgraded to a larger room.  Second night was much better and slept well.  One issue was the millions of mosquitos!!  We literally had to run from our car to hotel because we were covered in them.  Guess that is why no one in area was outside and pool was always empty?  Otherwise I would hightly recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>eraschle, Public Relations Manager at Holiday Inn Express Hotel &amp; Suites Texas City, responded to this reviewResponded September 17, 2010</t>
+  </si>
+  <si>
+    <t>Responded September 17, 2010</t>
+  </si>
+  <si>
+    <t>This hotel was very clean and nicely decorated.  Rooms were spacious and loved the shower.  Only problem was the bed was very uncomfortable.  Even my husband copmplained so I spoke to Tracy at front desk and she offered to move us down the hall to another room and even upgraded to a larger room.  Second night was much better and slept well.  One issue was the millions of mosquitos!!  We literally had to run from our car to hotel because we were covered in them.  Guess that is why no one in area was outside and pool was always empty?  Otherwise I would hightly recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r59255980-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>59255980</t>
+  </si>
+  <si>
+    <t>03/22/2010</t>
+  </si>
+  <si>
+    <t>Nice, clean place to stay.</t>
+  </si>
+  <si>
+    <t>My husband &amp; I enjoyed our over nite stay.  The rooms were clean.  The breakfast was very good &amp; the manager, Ty, were very helpfull.  We will stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2010</t>
+  </si>
+  <si>
+    <t>eraschle, Director of Sales at Holiday Inn Express Hotel &amp; Suites Texas City, responded to this reviewResponded September 17, 2010</t>
+  </si>
+  <si>
+    <t>My husband &amp; I enjoyed our over nite stay.  The rooms were clean.  The breakfast was very good &amp; the manager, Ty, were very helpfull.  We will stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r25531916-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>25531916</t>
+  </si>
+  <si>
+    <t>03/03/2009</t>
+  </si>
+  <si>
+    <t>Only wished I could have stayed longer</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for a pre-cruise night!  We had never stayed here before so we had no prior knowledge of what we were getting when we booked. Upon our arrival we met Tracy at the front desk, She was a sweetheart. She took care of our every need. She also advised us that we had been upgraded to a suite.  The suite was fantastic, clean, very comfortable "smart style" bedding, large 6 ft open shower with all the bathroom amenities you could need.  HD TV with cable.  The next morning we went down to our free breakfast in their very nice dining room. Our choices were boiled &amp; scrambled eggs, bacon, bisquits &amp; gravy, cold and hot cereals, toast, bagels, juices, milk, pastries, fruit, cinnamon rolls and I'm sure I missed other items. All the food was good. We did not use the fitness room but it had two treadmills, recumbant bike &amp; etc. The pool was closed this time of year but it looked very nice.  They also had WiFi in the rooms plus a business center that had computers that you could use and very nice touch.  Eveything was very modern and updated. Things were clean &amp; neat.  I wish we could have stayed here for more time but the cruise ship was not leaving without me so off we went!  I will be back to this hotel in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2009</t>
+  </si>
+  <si>
+    <t>eraschle, Managing Director at Holiday Inn Express Hotel &amp; Suites Texas City, responded to this reviewResponded June 18, 2009</t>
+  </si>
+  <si>
+    <t>Responded June 18, 2009</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for a pre-cruise night!  We had never stayed here before so we had no prior knowledge of what we were getting when we booked. Upon our arrival we met Tracy at the front desk, She was a sweetheart. She took care of our every need. She also advised us that we had been upgraded to a suite.  The suite was fantastic, clean, very comfortable "smart style" bedding, large 6 ft open shower with all the bathroom amenities you could need.  HD TV with cable.  The next morning we went down to our free breakfast in their very nice dining room. Our choices were boiled &amp; scrambled eggs, bacon, bisquits &amp; gravy, cold and hot cereals, toast, bagels, juices, milk, pastries, fruit, cinnamon rolls and I'm sure I missed other items. All the food was good. We did not use the fitness room but it had two treadmills, recumbant bike &amp; etc. The pool was closed this time of year but it looked very nice.  They also had WiFi in the rooms plus a business center that had computers that you could use and very nice touch.  Eveything was very modern and updated. Things were clean &amp; neat.  I wish we could have stayed here for more time but the cruise ship was not leaving without me so off we went!  I will be back to this hotel in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r18208791-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>18208791</t>
+  </si>
+  <si>
+    <t>07/24/2008</t>
+  </si>
+  <si>
+    <t>Brand new, very nice.</t>
+  </si>
+  <si>
+    <t>Brand new HI Express. Very nice and clean. Staff was friendly and helpful. We were allowed to check in early which was nice. Would definately stay in again.</t>
+  </si>
+  <si>
+    <t>June 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r16740470-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>16740470</t>
+  </si>
+  <si>
+    <t>06/06/2008</t>
+  </si>
+  <si>
+    <t>Great hotel with excellent service</t>
+  </si>
+  <si>
+    <t>Everyone was very friendly and helpful.</t>
+  </si>
+  <si>
+    <t>April 2008</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1922,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1954,3816 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>4</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>2</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>71</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8" t="s">
+        <v>88</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>89</v>
+      </c>
+      <c r="O8" t="s">
+        <v>90</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" t="s">
+        <v>96</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>97</v>
+      </c>
+      <c r="O9" t="s">
+        <v>98</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>2</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>99</v>
+      </c>
+      <c r="X9" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" t="s">
+        <v>105</v>
+      </c>
+      <c r="L10" t="s">
+        <v>106</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L11" t="s">
+        <v>112</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>113</v>
+      </c>
+      <c r="O11" t="s">
+        <v>114</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>116</v>
+      </c>
+      <c r="J12" t="s">
+        <v>117</v>
+      </c>
+      <c r="K12" t="s">
+        <v>118</v>
+      </c>
+      <c r="L12" t="s">
+        <v>119</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>120</v>
+      </c>
+      <c r="O12" t="s">
+        <v>114</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>121</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>122</v>
+      </c>
+      <c r="J13" t="s">
+        <v>123</v>
+      </c>
+      <c r="K13" t="s">
+        <v>124</v>
+      </c>
+      <c r="L13" t="s">
+        <v>125</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>126</v>
+      </c>
+      <c r="O13" t="s">
+        <v>98</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>127</v>
+      </c>
+      <c r="X13" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>131</v>
+      </c>
+      <c r="J14" t="s">
+        <v>132</v>
+      </c>
+      <c r="K14" t="s">
+        <v>133</v>
+      </c>
+      <c r="L14" t="s">
+        <v>134</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>135</v>
+      </c>
+      <c r="O14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>136</v>
+      </c>
+      <c r="X14" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>139</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>140</v>
+      </c>
+      <c r="J15" t="s">
+        <v>141</v>
+      </c>
+      <c r="K15" t="s">
+        <v>142</v>
+      </c>
+      <c r="L15" t="s">
+        <v>143</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>144</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>145</v>
+      </c>
+      <c r="X15" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>148</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>149</v>
+      </c>
+      <c r="J16" t="s">
+        <v>150</v>
+      </c>
+      <c r="K16" t="s">
+        <v>151</v>
+      </c>
+      <c r="L16" t="s">
+        <v>152</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>153</v>
+      </c>
+      <c r="O16" t="s">
+        <v>98</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>154</v>
+      </c>
+      <c r="X16" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>157</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>158</v>
+      </c>
+      <c r="J17" t="s">
+        <v>159</v>
+      </c>
+      <c r="K17" t="s">
+        <v>160</v>
+      </c>
+      <c r="L17" t="s">
+        <v>161</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>126</v>
+      </c>
+      <c r="O17" t="s">
+        <v>90</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>162</v>
+      </c>
+      <c r="X17" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>165</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>166</v>
+      </c>
+      <c r="J18" t="s">
+        <v>167</v>
+      </c>
+      <c r="K18" t="s">
+        <v>168</v>
+      </c>
+      <c r="L18" t="s">
+        <v>169</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>126</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>162</v>
+      </c>
+      <c r="X18" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>171</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>172</v>
+      </c>
+      <c r="J19" t="s">
+        <v>173</v>
+      </c>
+      <c r="K19" t="s">
+        <v>174</v>
+      </c>
+      <c r="L19" t="s">
+        <v>175</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>176</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>162</v>
+      </c>
+      <c r="X19" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>178</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>179</v>
+      </c>
+      <c r="J20" t="s">
+        <v>180</v>
+      </c>
+      <c r="K20" t="s">
+        <v>181</v>
+      </c>
+      <c r="L20" t="s">
+        <v>182</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>183</v>
+      </c>
+      <c r="O20" t="s">
+        <v>90</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>2</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>184</v>
+      </c>
+      <c r="X20" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>187</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>188</v>
+      </c>
+      <c r="J21" t="s">
+        <v>189</v>
+      </c>
+      <c r="K21" t="s">
+        <v>190</v>
+      </c>
+      <c r="L21" t="s">
+        <v>191</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>192</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>193</v>
+      </c>
+      <c r="X21" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>196</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>197</v>
+      </c>
+      <c r="J22" t="s">
+        <v>198</v>
+      </c>
+      <c r="K22" t="s">
+        <v>199</v>
+      </c>
+      <c r="L22" t="s">
+        <v>200</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>201</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>193</v>
+      </c>
+      <c r="X22" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>203</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>204</v>
+      </c>
+      <c r="J23" t="s">
+        <v>205</v>
+      </c>
+      <c r="K23" t="s">
+        <v>206</v>
+      </c>
+      <c r="L23" t="s">
+        <v>207</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>208</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>209</v>
+      </c>
+      <c r="X23" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>212</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>213</v>
+      </c>
+      <c r="J24" t="s">
+        <v>214</v>
+      </c>
+      <c r="K24" t="s">
+        <v>215</v>
+      </c>
+      <c r="L24" t="s">
+        <v>216</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>217</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>218</v>
+      </c>
+      <c r="X24" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>221</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>222</v>
+      </c>
+      <c r="J25" t="s">
+        <v>223</v>
+      </c>
+      <c r="K25" t="s">
+        <v>224</v>
+      </c>
+      <c r="L25" t="s">
+        <v>225</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>226</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>227</v>
+      </c>
+      <c r="X25" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>230</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>231</v>
+      </c>
+      <c r="J26" t="s">
+        <v>232</v>
+      </c>
+      <c r="K26" t="s">
+        <v>233</v>
+      </c>
+      <c r="L26" t="s">
+        <v>234</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>235</v>
+      </c>
+      <c r="O26" t="s">
+        <v>90</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>236</v>
+      </c>
+      <c r="X26" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>239</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>240</v>
+      </c>
+      <c r="J27" t="s">
+        <v>241</v>
+      </c>
+      <c r="K27" t="s">
+        <v>242</v>
+      </c>
+      <c r="L27" t="s">
+        <v>243</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>244</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>245</v>
+      </c>
+      <c r="X27" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>248</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>249</v>
+      </c>
+      <c r="J28" t="s">
+        <v>250</v>
+      </c>
+      <c r="K28" t="s">
+        <v>251</v>
+      </c>
+      <c r="L28" t="s">
+        <v>252</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="s">
+        <v>253</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>2</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>254</v>
+      </c>
+      <c r="X28" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>257</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>258</v>
+      </c>
+      <c r="J29" t="s">
+        <v>259</v>
+      </c>
+      <c r="K29" t="s">
+        <v>260</v>
+      </c>
+      <c r="L29" t="s">
+        <v>261</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s"/>
+      <c r="O29" t="s"/>
+      <c r="P29" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>262</v>
+      </c>
+      <c r="X29" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>265</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>266</v>
+      </c>
+      <c r="J30" t="s">
+        <v>267</v>
+      </c>
+      <c r="K30" t="s">
+        <v>268</v>
+      </c>
+      <c r="L30" t="s">
+        <v>269</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>270</v>
+      </c>
+      <c r="O30" t="s">
+        <v>98</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>271</v>
+      </c>
+      <c r="X30" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>274</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>275</v>
+      </c>
+      <c r="J31" t="s">
+        <v>276</v>
+      </c>
+      <c r="K31" t="s">
+        <v>277</v>
+      </c>
+      <c r="L31" t="s">
+        <v>278</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>270</v>
+      </c>
+      <c r="O31" t="s">
+        <v>98</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>254</v>
+      </c>
+      <c r="X31" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>280</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>281</v>
+      </c>
+      <c r="J32" t="s">
+        <v>282</v>
+      </c>
+      <c r="K32" t="s">
+        <v>283</v>
+      </c>
+      <c r="L32" t="s">
+        <v>284</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>270</v>
+      </c>
+      <c r="O32" t="s">
+        <v>90</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>285</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>286</v>
+      </c>
+      <c r="J33" t="s">
+        <v>287</v>
+      </c>
+      <c r="K33" t="s">
+        <v>288</v>
+      </c>
+      <c r="L33" t="s">
+        <v>289</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>270</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>291</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>292</v>
+      </c>
+      <c r="J34" t="s">
+        <v>293</v>
+      </c>
+      <c r="K34" t="s">
+        <v>294</v>
+      </c>
+      <c r="L34" t="s">
+        <v>295</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>270</v>
+      </c>
+      <c r="O34" t="s">
+        <v>114</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>296</v>
+      </c>
+      <c r="X34" t="s">
+        <v>297</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>299</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>300</v>
+      </c>
+      <c r="J35" t="s">
+        <v>301</v>
+      </c>
+      <c r="K35" t="s">
+        <v>302</v>
+      </c>
+      <c r="L35" t="s">
+        <v>303</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>304</v>
+      </c>
+      <c r="O35" t="s">
+        <v>114</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>305</v>
+      </c>
+      <c r="X35" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>308</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>309</v>
+      </c>
+      <c r="J36" t="s">
+        <v>310</v>
+      </c>
+      <c r="K36" t="s">
+        <v>311</v>
+      </c>
+      <c r="L36" t="s">
+        <v>312</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>313</v>
+      </c>
+      <c r="O36" t="s">
+        <v>90</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>314</v>
+      </c>
+      <c r="X36" t="s">
+        <v>315</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>317</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>318</v>
+      </c>
+      <c r="J37" t="s">
+        <v>319</v>
+      </c>
+      <c r="K37" t="s">
+        <v>320</v>
+      </c>
+      <c r="L37" t="s">
+        <v>321</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>313</v>
+      </c>
+      <c r="O37" t="s">
+        <v>114</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>314</v>
+      </c>
+      <c r="X37" t="s">
+        <v>315</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>323</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>324</v>
+      </c>
+      <c r="J38" t="s">
+        <v>325</v>
+      </c>
+      <c r="K38" t="s">
+        <v>326</v>
+      </c>
+      <c r="L38" t="s">
+        <v>327</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>328</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>329</v>
+      </c>
+      <c r="X38" t="s">
+        <v>330</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>332</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>333</v>
+      </c>
+      <c r="J39" t="s">
+        <v>334</v>
+      </c>
+      <c r="K39" t="s">
+        <v>335</v>
+      </c>
+      <c r="L39" t="s">
+        <v>336</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>328</v>
+      </c>
+      <c r="O39" t="s">
+        <v>114</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>337</v>
+      </c>
+      <c r="X39" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>340</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>341</v>
+      </c>
+      <c r="J40" t="s">
+        <v>342</v>
+      </c>
+      <c r="K40" t="s">
+        <v>343</v>
+      </c>
+      <c r="L40" t="s">
+        <v>344</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>345</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>346</v>
+      </c>
+      <c r="X40" t="s">
+        <v>347</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>349</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>350</v>
+      </c>
+      <c r="J41" t="s">
+        <v>351</v>
+      </c>
+      <c r="K41" t="s">
+        <v>352</v>
+      </c>
+      <c r="L41" t="s">
+        <v>353</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s"/>
+      <c r="O41" t="s"/>
+      <c r="P41" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>1</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>354</v>
+      </c>
+      <c r="X41" t="s">
+        <v>355</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>357</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>358</v>
+      </c>
+      <c r="J42" t="s">
+        <v>359</v>
+      </c>
+      <c r="K42" t="s">
+        <v>360</v>
+      </c>
+      <c r="L42" t="s">
+        <v>361</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>362</v>
+      </c>
+      <c r="O42" t="s">
+        <v>98</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>363</v>
+      </c>
+      <c r="X42" t="s">
+        <v>364</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>366</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>367</v>
+      </c>
+      <c r="J43" t="s">
+        <v>368</v>
+      </c>
+      <c r="K43" t="s">
+        <v>369</v>
+      </c>
+      <c r="L43" t="s">
+        <v>370</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>371</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>372</v>
+      </c>
+      <c r="X43" t="s">
+        <v>373</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>375</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>376</v>
+      </c>
+      <c r="J44" t="s">
+        <v>377</v>
+      </c>
+      <c r="K44" t="s">
+        <v>378</v>
+      </c>
+      <c r="L44" t="s">
+        <v>379</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>380</v>
+      </c>
+      <c r="O44" t="s">
+        <v>90</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>381</v>
+      </c>
+      <c r="X44" t="s">
+        <v>382</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>384</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>385</v>
+      </c>
+      <c r="J45" t="s">
+        <v>386</v>
+      </c>
+      <c r="K45" t="s">
+        <v>387</v>
+      </c>
+      <c r="L45" t="s">
+        <v>388</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>389</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>390</v>
+      </c>
+      <c r="X45" t="s">
+        <v>382</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>392</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>393</v>
+      </c>
+      <c r="J46" t="s">
+        <v>394</v>
+      </c>
+      <c r="K46" t="s">
+        <v>395</v>
+      </c>
+      <c r="L46" t="s">
+        <v>396</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>397</v>
+      </c>
+      <c r="O46" t="s">
+        <v>90</v>
+      </c>
+      <c r="P46" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>3</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>381</v>
+      </c>
+      <c r="X46" t="s">
+        <v>382</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>399</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>400</v>
+      </c>
+      <c r="J47" t="s">
+        <v>401</v>
+      </c>
+      <c r="K47" t="s">
+        <v>402</v>
+      </c>
+      <c r="L47" t="s">
+        <v>403</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>404</v>
+      </c>
+      <c r="O47" t="s">
+        <v>90</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>405</v>
+      </c>
+      <c r="X47" t="s">
+        <v>406</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>408</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>409</v>
+      </c>
+      <c r="J48" t="s">
+        <v>410</v>
+      </c>
+      <c r="K48" t="s">
+        <v>411</v>
+      </c>
+      <c r="L48" t="s">
+        <v>412</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>413</v>
+      </c>
+      <c r="O48" t="s">
+        <v>98</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>414</v>
+      </c>
+      <c r="X48" t="s">
+        <v>406</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>416</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>417</v>
+      </c>
+      <c r="J49" t="s">
+        <v>418</v>
+      </c>
+      <c r="K49" t="s">
+        <v>419</v>
+      </c>
+      <c r="L49" t="s">
+        <v>420</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>421</v>
+      </c>
+      <c r="O49" t="s">
+        <v>98</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>414</v>
+      </c>
+      <c r="X49" t="s">
+        <v>406</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>423</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>424</v>
+      </c>
+      <c r="J50" t="s">
+        <v>425</v>
+      </c>
+      <c r="K50" t="s">
+        <v>426</v>
+      </c>
+      <c r="L50" t="s">
+        <v>427</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>428</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>429</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>430</v>
+      </c>
+      <c r="J51" t="s">
+        <v>431</v>
+      </c>
+      <c r="K51" t="s">
+        <v>432</v>
+      </c>
+      <c r="L51" t="s">
+        <v>433</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>434</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>435</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>436</v>
+      </c>
+      <c r="J52" t="s">
+        <v>437</v>
+      </c>
+      <c r="K52" t="s">
+        <v>438</v>
+      </c>
+      <c r="L52" t="s">
+        <v>439</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>434</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>440</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>441</v>
+      </c>
+      <c r="J53" t="s">
+        <v>442</v>
+      </c>
+      <c r="K53" t="s">
+        <v>443</v>
+      </c>
+      <c r="L53" t="s">
+        <v>444</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>445</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>447</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>448</v>
+      </c>
+      <c r="J54" t="s">
+        <v>449</v>
+      </c>
+      <c r="K54" t="s">
+        <v>450</v>
+      </c>
+      <c r="L54" t="s">
+        <v>451</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>452</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>453</v>
+      </c>
+      <c r="X54" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>456</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>457</v>
+      </c>
+      <c r="J55" t="s">
+        <v>458</v>
+      </c>
+      <c r="K55" t="s">
+        <v>459</v>
+      </c>
+      <c r="L55" t="s">
+        <v>460</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>461</v>
+      </c>
+      <c r="O55" t="s">
+        <v>98</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>3</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>462</v>
+      </c>
+      <c r="X55" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>464</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>465</v>
+      </c>
+      <c r="J56" t="s">
+        <v>466</v>
+      </c>
+      <c r="K56" t="s">
+        <v>467</v>
+      </c>
+      <c r="L56" t="s">
+        <v>468</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>469</v>
+      </c>
+      <c r="O56" t="s">
+        <v>98</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>470</v>
+      </c>
+      <c r="X56" t="s">
+        <v>471</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>473</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>474</v>
+      </c>
+      <c r="J57" t="s">
+        <v>475</v>
+      </c>
+      <c r="K57" t="s">
+        <v>476</v>
+      </c>
+      <c r="L57" t="s">
+        <v>477</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>478</v>
+      </c>
+      <c r="O57" t="s">
+        <v>90</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>479</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>480</v>
+      </c>
+      <c r="J58" t="s">
+        <v>481</v>
+      </c>
+      <c r="K58" t="s">
+        <v>482</v>
+      </c>
+      <c r="L58" t="s">
+        <v>483</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>484</v>
+      </c>
+      <c r="O58" t="s">
+        <v>98</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>483</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_341.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_341.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="758">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,57 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/10/2018</t>
+    <t>09/07/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r603525900-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>56761</t>
+  </si>
+  <si>
+    <t>676925</t>
+  </si>
+  <si>
+    <t>603525900</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>Mold</t>
+  </si>
+  <si>
+    <t>Our bathroom had mold above the shower &amp; toilet also stains on the carpet. I was unaware of the renovation going on. We were lucky to check in early. Friendly staff and good breakfast. Not a lot of good restaurants near by.</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r603453207-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>603453207</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>First off the hotel is being renovated. I'd say it's about 95% completed. My room was one of the renovated ones and was very nice. I did have a couple of issues and the manager handled them to my satisfaction. I almost feel sorry for the staff for what they've been through during all of this but in the end it'll be worth it. Yes, I would stay there again. You're about 30 minutes from the beaches in Galveston and when you realize Motel6 in Galveston wanted $100 a night this was a no brainer!</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r599925527-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
   </si>
   <si>
-    <t>56761</t>
-  </si>
-  <si>
-    <t>676925</t>
-  </si>
-  <si>
     <t>599925527</t>
   </si>
   <si>
@@ -174,9 +213,6 @@
     <t>First of all, there was a major renovation in progress, which is understandable, but it felt completely lacking in any kind of safety and security with the multitude of construction workers throughout the facility.  The entire lobby area was a mess, areas, were cordoned off, workers were all over the place,  and I was shocked at the price I'd paid for a completely different experience than I'd ever had at a Holiday Inn.  I think if the breakfast had been good, that might have been at least a little helpful with redeeming the situation.  Unfortunately, that was not the case.  There was absolutely no fruit available.  Choice was extremely limited.  We were there 15 minutes, waiting for the empty coffee pot to be refilled.  It never was.  There was no juice in the juice machine.  And, there was a pancake griddle in the breakfast area that was never turned on, and no batter was provided.  Extremely disappointed with this Holiday Inn Express.MoreShow less</t>
   </si>
   <si>
-    <t>July 2018</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
@@ -216,6 +252,42 @@
     <t>It's a Holiday Inn.  The are pretty much all the same.  They were in the process of renovating which is always a good sign.  I wasn't happy that I was assigned the first floor but then again I booked it the week before.  Nevertheless the experience was very pleasant.  Clean room with 2 very comfortable beds and we loved how cold it was!!!! We stayed two nights.  We didn't get to get in the pool or exercise room but they looked nice.  I loved that they had yoga mats, free weights AND a scale.  They do the breakfast from 6:30-9:30.  Lots of things to choose from. Of course it isn't restaurant style but you got boiled, peeled eggs, yogurt, many cereals, sausage, bacon, biscuits, gravy, eggs, variety of drinks, pancakes and my son's favorite cinnamon rolls.  I forgot my blow dryer so had to use the one in the room.  The coils immediately got red and I smelled something burning so i quickly unplugged and reported it.  They brought me a new one in a box.  Everyone working there, maids included were always polite.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r595950012-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>595950012</t>
+  </si>
+  <si>
+    <t>07/13/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prom weekend </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed here with my daughter and her friends on prom night! Very nice, pleasant stay! It’s conveniently located close to Galveston or Kemah! And the breakfast was excellent! We will be back very soon! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r591555186-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>591555186</t>
+  </si>
+  <si>
+    <t>06/28/2018</t>
+  </si>
+  <si>
+    <t>Good location, great breakfast</t>
+  </si>
+  <si>
+    <t>The staff at this location was very helpful and attentive. Upon check in, my card was declined a multitude of times for an unknown reason. I then changed to a different card and for all the trouble, the front desk staff discounted my rate. The breakfast host was amazing. She was very attentive to our needs and interacted with my kids. She kept the area very clean and well stocked. We used the pool and had no issues. This location was under renovation but it didnt really inhibit our stay. The only issue was when both elevators were down but this was only for a short time and after about an hour, one was accessible again which helped greatly as we were on the 3rd floor and had a toddler. there was no noise as far as construction goes, or if there was, it was during our day trips out. The parking lot was a little crowded with all the trucks and dumpsters but it was still manageable. The only issues we had were the check in process as stated above and two other issues. One was when we finished with our towels, we hung them to dry so we could use them the following day, but housekeeping took them and did not replace with clean towels. We had to go down to the desk to get more. On the last night of our stay, something happened and we were...The staff at this location was very helpful and attentive. Upon check in, my card was declined a multitude of times for an unknown reason. I then changed to a different card and for all the trouble, the front desk staff discounted my rate. The breakfast host was amazing. She was very attentive to our needs and interacted with my kids. She kept the area very clean and well stocked. We used the pool and had no issues. This location was under renovation but it didnt really inhibit our stay. The only issue was when both elevators were down but this was only for a short time and after about an hour, one was accessible again which helped greatly as we were on the 3rd floor and had a toddler. there was no noise as far as construction goes, or if there was, it was during our day trips out. The parking lot was a little crowded with all the trucks and dumpsters but it was still manageable. The only issues we had were the check in process as stated above and two other issues. One was when we finished with our towels, we hung them to dry so we could use them the following day, but housekeeping took them and did not replace with clean towels. We had to go down to the desk to get more. On the last night of our stay, something happened and we were checked out early and another family was assigned our room. We were "not in the system" so the front desk thought our room was empty. Had I not had the deadbolt on, the other guest would have entered my room. This was not safe for me, and my 3 children and I didnt feel comfortable in the room unless the dead bolt was on the rest of our stay which was thankfully just one night. Also, the rooms have no bathtubs. I was unaware of this upon reserving and upon check in. I have a toddler and he could not shower in the shower as the showerhead was very high for adults, so I had to bathe him in the very small bathroom sinkMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>The staff at this location was very helpful and attentive. Upon check in, my card was declined a multitude of times for an unknown reason. I then changed to a different card and for all the trouble, the front desk staff discounted my rate. The breakfast host was amazing. She was very attentive to our needs and interacted with my kids. She kept the area very clean and well stocked. We used the pool and had no issues. This location was under renovation but it didnt really inhibit our stay. The only issue was when both elevators were down but this was only for a short time and after about an hour, one was accessible again which helped greatly as we were on the 3rd floor and had a toddler. there was no noise as far as construction goes, or if there was, it was during our day trips out. The parking lot was a little crowded with all the trucks and dumpsters but it was still manageable. The only issues we had were the check in process as stated above and two other issues. One was when we finished with our towels, we hung them to dry so we could use them the following day, but housekeeping took them and did not replace with clean towels. We had to go down to the desk to get more. On the last night of our stay, something happened and we were...The staff at this location was very helpful and attentive. Upon check in, my card was declined a multitude of times for an unknown reason. I then changed to a different card and for all the trouble, the front desk staff discounted my rate. The breakfast host was amazing. She was very attentive to our needs and interacted with my kids. She kept the area very clean and well stocked. We used the pool and had no issues. This location was under renovation but it didnt really inhibit our stay. The only issue was when both elevators were down but this was only for a short time and after about an hour, one was accessible again which helped greatly as we were on the 3rd floor and had a toddler. there was no noise as far as construction goes, or if there was, it was during our day trips out. The parking lot was a little crowded with all the trucks and dumpsters but it was still manageable. The only issues we had were the check in process as stated above and two other issues. One was when we finished with our towels, we hung them to dry so we could use them the following day, but housekeeping took them and did not replace with clean towels. We had to go down to the desk to get more. On the last night of our stay, something happened and we were checked out early and another family was assigned our room. We were "not in the system" so the front desk thought our room was empty. Had I not had the deadbolt on, the other guest would have entered my room. This was not safe for me, and my 3 children and I didnt feel comfortable in the room unless the dead bolt was on the rest of our stay which was thankfully just one night. Also, the rooms have no bathtubs. I was unaware of this upon reserving and upon check in. I have a toddler and he could not shower in the shower as the showerhead was very high for adults, so I had to bathe him in the very small bathroom sinkMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r590987138-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -231,9 +303,6 @@
     <t>I understand construction goes on, however, It was COMPLETELY under-construction. I have stayed in hotels when they have been renovating, but we would have booked elsewhere if we had know what an inconvenience this was going to be. Everything but our room was torn apart and being worked on. Elevator was very sketchy, doors would hand up and not close. Very scary and seemed to be unsafe. We had no towels in our bathroom at all, when we called the front desk, they told us they had it wrote down that we didn't have towels, and would bring some up. Not sure about why they included the extra information of them already knowing we didn't have towels.1st thing my family did was go swimming, Went to ask for towels.....front desk looked at me like she really didn't want to give them to me, as she paused, then asked me how many I wanted. She left and came back with 3 (when I asked for 5, yes, I have a large family), and said that is all that she had. Not sure what the other 2 families swimming in the pool are going to dry off with, but they didn't have towels as well. We have stayed at several Holiday Inn's and never really had a bad experience with them, but this was beyond, especially when we got the bill of nearly $200.00 for one night. When we booked it showed...I understand construction goes on, however, It was COMPLETELY under-construction. I have stayed in hotels when they have been renovating, but we would have booked elsewhere if we had know what an inconvenience this was going to be. Everything but our room was torn apart and being worked on. Elevator was very sketchy, doors would hand up and not close. Very scary and seemed to be unsafe. We had no towels in our bathroom at all, when we called the front desk, they told us they had it wrote down that we didn't have towels, and would bring some up. Not sure about why they included the extra information of them already knowing we didn't have towels.1st thing my family did was go swimming, Went to ask for towels.....front desk looked at me like she really didn't want to give them to me, as she paused, then asked me how many I wanted. She left and came back with 3 (when I asked for 5, yes, I have a large family), and said that is all that she had. Not sure what the other 2 families swimming in the pool are going to dry off with, but they didn't have towels as well. We have stayed at several Holiday Inn's and never really had a bad experience with them, but this was beyond, especially when we got the bill of nearly $200.00 for one night. When we booked it showed $128.00. This was part of our vacation as traveling thru, and had previously been staying in a Hampton for $125.00 a night that was 45min away, and we were instantly regretting not staying there another night.MoreShow less</t>
   </si>
   <si>
-    <t>June 2018</t>
-  </si>
-  <si>
     <t>I understand construction goes on, however, It was COMPLETELY under-construction. I have stayed in hotels when they have been renovating, but we would have booked elsewhere if we had know what an inconvenience this was going to be. Everything but our room was torn apart and being worked on. Elevator was very sketchy, doors would hand up and not close. Very scary and seemed to be unsafe. We had no towels in our bathroom at all, when we called the front desk, they told us they had it wrote down that we didn't have towels, and would bring some up. Not sure about why they included the extra information of them already knowing we didn't have towels.1st thing my family did was go swimming, Went to ask for towels.....front desk looked at me like she really didn't want to give them to me, as she paused, then asked me how many I wanted. She left and came back with 3 (when I asked for 5, yes, I have a large family), and said that is all that she had. Not sure what the other 2 families swimming in the pool are going to dry off with, but they didn't have towels as well. We have stayed at several Holiday Inn's and never really had a bad experience with them, but this was beyond, especially when we got the bill of nearly $200.00 for one night. When we booked it showed...I understand construction goes on, however, It was COMPLETELY under-construction. I have stayed in hotels when they have been renovating, but we would have booked elsewhere if we had know what an inconvenience this was going to be. Everything but our room was torn apart and being worked on. Elevator was very sketchy, doors would hand up and not close. Very scary and seemed to be unsafe. We had no towels in our bathroom at all, when we called the front desk, they told us they had it wrote down that we didn't have towels, and would bring some up. Not sure about why they included the extra information of them already knowing we didn't have towels.1st thing my family did was go swimming, Went to ask for towels.....front desk looked at me like she really didn't want to give them to me, as she paused, then asked me how many I wanted. She left and came back with 3 (when I asked for 5, yes, I have a large family), and said that is all that she had. Not sure what the other 2 families swimming in the pool are going to dry off with, but they didn't have towels as well. We have stayed at several Holiday Inn's and never really had a bad experience with them, but this was beyond, especially when we got the bill of nearly $200.00 for one night. When we booked it showed $128.00. This was part of our vacation as traveling thru, and had previously been staying in a Hampton for $125.00 a night that was 45min away, and we were instantly regretting not staying there another night.More</t>
   </si>
   <si>
@@ -270,6 +339,57 @@
     <t xml:space="preserve">This is a typical HI Express. Nice clean and comfortable facility. Check in was quick, breakfast typical, and overall a good experience. They are updating but it didn’t get in the way. I would stay here again. </t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r568072191-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>568072191</t>
+  </si>
+  <si>
+    <t>03/22/2018</t>
+  </si>
+  <si>
+    <t>Nice room but...</t>
+  </si>
+  <si>
+    <t>We had a nice suite that was clean but, for some reason the bathroom had a drainage next to the toilet and a couple of roaches was living in it.  I'm sure because it was clogged up, when I poured soapy water in it to try to rid of them, the water came back up with food and what not.  Anyway, I would of given a higher rating if it wasn't for the uninvited guest.  The only other thing I did not like was the location, only one in and out and it's on the frontage road heading north,  but we were going south to Galveston so that was kind of a pain.  The only reason we stayed here was because it was spring break and Galveston hotels hiked their rates to ridiculous prices.  We weren't on vacation so I didn't want to pay it.  One other thing, I thought the Keurig coffee was a nice touch, I wish all hotels would have that.  Change your coffee vendor though, it was weak.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Texas City, responded to this reviewResponded April 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 5, 2018</t>
+  </si>
+  <si>
+    <t>We had a nice suite that was clean but, for some reason the bathroom had a drainage next to the toilet and a couple of roaches was living in it.  I'm sure because it was clogged up, when I poured soapy water in it to try to rid of them, the water came back up with food and what not.  Anyway, I would of given a higher rating if it wasn't for the uninvited guest.  The only other thing I did not like was the location, only one in and out and it's on the frontage road heading north,  but we were going south to Galveston so that was kind of a pain.  The only reason we stayed here was because it was spring break and Galveston hotels hiked their rates to ridiculous prices.  We weren't on vacation so I didn't want to pay it.  One other thing, I thought the Keurig coffee was a nice touch, I wish all hotels would have that.  Change your coffee vendor though, it was weak.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r562615450-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>562615450</t>
+  </si>
+  <si>
+    <t>02/24/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overnight stay in a filthy hotel </t>
+  </si>
+  <si>
+    <t>My family and I came in on an overnight stay to what seemed like a very up kept clean Holiday Inn Express by the looks of the lobby. Very clean and well decorated, but don’t let that fool you. Once we checked in and went into our room the smell was ridiculous, the bathroom looked like the last time it was cleaned was 4 guests ago and It wasn’t just our room we had 4 other rooms rented and each smelled and looked the same. The elevator door stayed open, I’m guessing the weed odor was the reason. The carpet in my room had a big spot that looked like crusted up sour milk or possible vomit. Sadly I have a 2 year old who wasn’t aloud off the bed because of how filthy the floor was. The air didn’t work in our room, and the sheets felt like they were 100 years old. Literally had so much wear you could tell they hadn’t been changed. This hotel was filthy and the staff wasn’t friendly, the next morning I had 3 different housekeepers come to my door before checkout time and each one I politely said we will be leaving in just a few minutes and two out of the 3 had the worst attitudes, one asked us not to walk on the floor she just mopped, but that was actually the way to exit the building? I will not...My family and I came in on an overnight stay to what seemed like a very up kept clean Holiday Inn Express by the looks of the lobby. Very clean and well decorated, but don’t let that fool you. Once we checked in and went into our room the smell was ridiculous, the bathroom looked like the last time it was cleaned was 4 guests ago and It wasn’t just our room we had 4 other rooms rented and each smelled and looked the same. The elevator door stayed open, I’m guessing the weed odor was the reason. The carpet in my room had a big spot that looked like crusted up sour milk or possible vomit. Sadly I have a 2 year old who wasn’t aloud off the bed because of how filthy the floor was. The air didn’t work in our room, and the sheets felt like they were 100 years old. Literally had so much wear you could tell they hadn’t been changed. This hotel was filthy and the staff wasn’t friendly, the next morning I had 3 different housekeepers come to my door before checkout time and each one I politely said we will be leaving in just a few minutes and two out of the 3 had the worst attitudes, one asked us not to walk on the floor she just mopped, but that was actually the way to exit the building? I will not be returning to this hotel. I’m not a complaining person I usually go with the flow but this was absolutely uncalled for when your paying close to $200. I didn’t complain to management because from the attitudes we received upon arrival, I knew nothing was going to be done. Sadly I wish I would of read the reviews, I don’t like staying in filth with a baby. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Texas City, responded to this reviewResponded March 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 11, 2018</t>
+  </si>
+  <si>
+    <t>My family and I came in on an overnight stay to what seemed like a very up kept clean Holiday Inn Express by the looks of the lobby. Very clean and well decorated, but don’t let that fool you. Once we checked in and went into our room the smell was ridiculous, the bathroom looked like the last time it was cleaned was 4 guests ago and It wasn’t just our room we had 4 other rooms rented and each smelled and looked the same. The elevator door stayed open, I’m guessing the weed odor was the reason. The carpet in my room had a big spot that looked like crusted up sour milk or possible vomit. Sadly I have a 2 year old who wasn’t aloud off the bed because of how filthy the floor was. The air didn’t work in our room, and the sheets felt like they were 100 years old. Literally had so much wear you could tell they hadn’t been changed. This hotel was filthy and the staff wasn’t friendly, the next morning I had 3 different housekeepers come to my door before checkout time and each one I politely said we will be leaving in just a few minutes and two out of the 3 had the worst attitudes, one asked us not to walk on the floor she just mopped, but that was actually the way to exit the building? I will not...My family and I came in on an overnight stay to what seemed like a very up kept clean Holiday Inn Express by the looks of the lobby. Very clean and well decorated, but don’t let that fool you. Once we checked in and went into our room the smell was ridiculous, the bathroom looked like the last time it was cleaned was 4 guests ago and It wasn’t just our room we had 4 other rooms rented and each smelled and looked the same. The elevator door stayed open, I’m guessing the weed odor was the reason. The carpet in my room had a big spot that looked like crusted up sour milk or possible vomit. Sadly I have a 2 year old who wasn’t aloud off the bed because of how filthy the floor was. The air didn’t work in our room, and the sheets felt like they were 100 years old. Literally had so much wear you could tell they hadn’t been changed. This hotel was filthy and the staff wasn’t friendly, the next morning I had 3 different housekeepers come to my door before checkout time and each one I politely said we will be leaving in just a few minutes and two out of the 3 had the worst attitudes, one asked us not to walk on the floor she just mopped, but that was actually the way to exit the building? I will not be returning to this hotel. I’m not a complaining person I usually go with the flow but this was absolutely uncalled for when your paying close to $200. I didn’t complain to management because from the attitudes we received upon arrival, I knew nothing was going to be done. Sadly I wish I would of read the reviews, I don’t like staying in filth with a baby. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r558192629-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -285,9 +405,6 @@
     <t>This is an older property and in places it's aging gracefully but it's clean, comfortable and cared for. Beds were comfortable, bathroom was clean, toilet worked, desk chair proper size for desk. TV picture little dim but responsive controls. Best thing for me was heavy wooden hall doors so one didn't hear the loud metallic clanging all night long as people came and went. Well, that was the second best thing. First best was checking in with a teen group and the desk manager was quick, friendly and efficient. I got the kids to their rooms in under ten minutes. Believe me, that is not the norm. Safe parking lot. Easy on/off highway. Tasty breakfast. Very reasonably priced. We'll stay here next time we're competing in the area.MoreShow less</t>
   </si>
   <si>
-    <t>February 2018</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
@@ -342,6 +459,51 @@
     <t>We got to the hotel late so there was only one bed available due to a family reunion, baseball tournament, etc. We got to our room and it was clean, smelt nice, perfect temperature, and very spacious. The breakfast was very good for being free. They had a good variety of things to pick from. The only bad review I can give to this hotel was that our toilet did not flush properly. We had to flush several times before it would go down. We did let the front desk know about the issue so maybe that is taken care of now. So, if you are needing a place to stop I would highly recommend this hotel. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r502135490-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>502135490</t>
+  </si>
+  <si>
+    <t>07/15/2017</t>
+  </si>
+  <si>
+    <t>Great Location Between NASA and Galveston</t>
+  </si>
+  <si>
+    <t>This affordable and comfortable Holliday Inn Express is a very good choice for families. Cheaper than Galveston Island if you don't need a view of the ocean and not far from NASA. Clean and good breakfast. A/C worked great in the hot Texas heat. I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Coco2_go, Front Office Manager at Holiday Inn Express Hotel &amp; Suites Texas City, responded to this reviewResponded July 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2017</t>
+  </si>
+  <si>
+    <t>This affordable and comfortable Holliday Inn Express is a very good choice for families. Cheaper than Galveston Island if you don't need a view of the ocean and not far from NASA. Clean and good breakfast. A/C worked great in the hot Texas heat. I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r476621069-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>476621069</t>
+  </si>
+  <si>
+    <t>04/17/2017</t>
+  </si>
+  <si>
+    <t>nice hotel</t>
+  </si>
+  <si>
+    <t>We stayed here the night before our cruise left Galveston. It was a nice hotel, very clean, comfortable, &amp; I felt safe staying here with my family. Only negative to this hotel is the location doesn't have a lot of nice dining or shopping in the approximate vicinity. The positive to the location is that Galveston is only a 20 min drive. We will stay here from now on when we go on cruises!</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r470719085-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -360,9 +522,6 @@
     <t>March 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r469460021-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -408,6 +567,51 @@
     <t>Very clean. No odors. Very quiet. The staff was friendly, and even told us some restraunts to try. I recommend this hotel because it's very very clean. They give you plenty of towels. The floors are clean. The temperature was wonderful in the room. And we never had to worry about noise.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r441227063-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>441227063</t>
+  </si>
+  <si>
+    <t>11/30/2016</t>
+  </si>
+  <si>
+    <t>"Clean, friendly staff, accomdating"</t>
+  </si>
+  <si>
+    <t>My staff was a few night getaway over the Thanksgiving Holiday. I found staff to go over and beyond our needs, as well as friendly, polite and very helpful. Hotel was good location on 45 with quick access to Galveston Island, for a great dinner and fun attractions.  Also, across the street at the greyhound Park was a fantastic "magical light exhibit" w/a stage , rides, and beautiful lantern/dinosaur display.  Great trip, would def go back to see Tracy and great staff!!</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r430994999-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>430994999</t>
+  </si>
+  <si>
+    <t>10/23/2016</t>
+  </si>
+  <si>
+    <t>Good little hotel</t>
+  </si>
+  <si>
+    <t>My husband,  father &amp; myself stayed 10/20/16.  The lobby &amp; grounds are fairly clean. I was not pleased with the choices of beds: king or two doubles.  My husband is over 6ft and it's not comfortable to share a double with him. The bed itself was a lot firmer than I prefer. The bathroom was spacious and we really liked the large shower only, although the water pressure was a little low. I did find several long hairs around the toilet on the bathroom floor which The room also has a small fridge,  safe,  ironing board, blow dryer and was well decorated. The keurig coffee maker was provided with 3 pods.  I personally won't use these due to my germ-a-phobia about them but my husband used it and said it made good coffee. My dad went down to the free breakfast and was very satisfied with both the quality &amp; selections. We would stay here again but would like to see different bed size selections as we can't really afford 2 rooms and can't have my dad in a room alone anyways. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>eraschle, Manager at Holiday Inn Express Hotel &amp; Suites Texas City, responded to this reviewResponded November 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 2, 2016</t>
+  </si>
+  <si>
+    <t>My husband,  father &amp; myself stayed 10/20/16.  The lobby &amp; grounds are fairly clean. I was not pleased with the choices of beds: king or two doubles.  My husband is over 6ft and it's not comfortable to share a double with him. The bed itself was a lot firmer than I prefer. The bathroom was spacious and we really liked the large shower only, although the water pressure was a little low. I did find several long hairs around the toilet on the bathroom floor which The room also has a small fridge,  safe,  ironing board, blow dryer and was well decorated. The keurig coffee maker was provided with 3 pods.  I personally won't use these due to my germ-a-phobia about them but my husband used it and said it made good coffee. My dad went down to the free breakfast and was very satisfied with both the quality &amp; selections. We would stay here again but would like to see different bed size selections as we can't really afford 2 rooms and can't have my dad in a room alone anyways. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r415759395-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -424,12 +628,6 @@
   </si>
   <si>
     <t>September 2016</t>
-  </si>
-  <si>
-    <t>eraschle, Manager at Holiday Inn Express Hotel &amp; Suites Texas City, responded to this reviewResponded November 2, 2016</t>
-  </si>
-  <si>
-    <t>Responded November 2, 2016</t>
   </si>
   <si>
     <t>We stayed at this hotel over Labor Day weekend. The rooms were clean and the staff was very friendly. The breakfast was very good too. It's not all that far to Galveston Island. Highly recommend this hotel.More</t>
@@ -529,6 +727,51 @@
 Juices (apple and other varieties)...When writing this review, I wanted to point out the one amenity that stood out above all others and it was the shower. This is the first hotel that had a shower where a tub was not the base of the shower and I must admit; I loved it! Stepping up and out of a tub shower can be dangerous when the floor is slippery and I'm not one to take a bath in a hotel, therefore the missing tub was more of a gift rather than a curse for me. The hotel has plenty of parking in the hotel's parking lot.The fitness center is on the first floor near the elevator. the pool is located outside of the area where breakfast is served. The laundry facility is on the first floor; sorry I did not check out the price (if any) to use the machines. The computer room has two computers, but they were not working at the time of my visit.Breakfast started early around 6AM and ended at 9:30. I was surprised that breakfast did not include the make-it-yourself waffles.Breakfast Menu:YogurtMilkCold CerealApples (wrapped in plastic)BananasOrangesInstant Oatmeal Packets (hot water provided)Instant Grits (hot water provided)BiscuitsBiscuit Sausage GravyScrambled EggsSausage (patties one day and links on another day - I assume both were pork)Sticky BunsToast - English MuffinCoffeeJuices (apple and other varieties)Stayed in RM 406 - Included a small refrigerator, Microwave, and Sink, Full sized ironing board provided, desk with chair and another separate chair to sitOverall the experience at the hotel was great. Staff was friendly and helpful printing boarding passes for me since computers in the business center were not working.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r387494332-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>387494332</t>
+  </si>
+  <si>
+    <t>06/29/2016</t>
+  </si>
+  <si>
+    <t>Good Pre-Cruise Hotel</t>
+  </si>
+  <si>
+    <t>If you do not want to pay the high prices on Galveston Island, this is an excellent place to stay and only 20 minutes from the cruise port.  Good breakfast, friendly stall and good location.  I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>eraschle, Owner at Holiday Inn Express Hotel &amp; Suites Texas City, responded to this reviewResponded June 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 30, 2016</t>
+  </si>
+  <si>
+    <t>If you do not want to pay the high prices on Galveston Island, this is an excellent place to stay and only 20 minutes from the cruise port.  Good breakfast, friendly stall and good location.  I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r385850085-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>385850085</t>
+  </si>
+  <si>
+    <t>06/25/2016</t>
+  </si>
+  <si>
+    <t>Great Place to Stay</t>
+  </si>
+  <si>
+    <t>We recently spent 3 nights at the Holiday Inn Express Hotel &amp; Suites Texas City. At check-in I met Tracy, a hotel manager, who could not have been more welcoming and helpful. The entire hotel was attractive, and our room was clean and spacious. There was not a single employee we met at the hotel that did not say hello with a smile. We will definitely stay here again. In fact, we already have a reservation!MoreShow less</t>
+  </si>
+  <si>
+    <t>We recently spent 3 nights at the Holiday Inn Express Hotel &amp; Suites Texas City. At check-in I met Tracy, a hotel manager, who could not have been more welcoming and helpful. The entire hotel was attractive, and our room was clean and spacious. There was not a single employee we met at the hotel that did not say hello with a smile. We will definitely stay here again. In fact, we already have a reservation!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r380221440-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -586,12 +829,45 @@
     <t>Great place and service our stay was very pleasent. The room was really nice,big, and very clean. Breakfast was delicious. At a convenient distance from Galveston beach wich made it easy to go enjoy the beach and back to rest.  will book again :)MoreShow less</t>
   </si>
   <si>
-    <t>May 2016</t>
-  </si>
-  <si>
     <t>Great place and service our stay was very pleasent. The room was really nice,big, and very clean. Breakfast was delicious. At a convenient distance from Galveston beach wich made it easy to go enjoy the beach and back to rest.  will book again :)More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r377714204-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>377714204</t>
+  </si>
+  <si>
+    <t>05/29/2016</t>
+  </si>
+  <si>
+    <t>Very Modern and Spacious Hotel</t>
+  </si>
+  <si>
+    <t>We attended a graduation in the area and this hotel was very convenient to where we needed to be. The room was spacious, clean, and had a fridge and microwave and coffee maker.  The room was quiet and the bed was very comfortable. There were plenty of breakfast selections downstairs.  We will definitely stay here again if we need to be in this area.MoreShow less</t>
+  </si>
+  <si>
+    <t>We attended a graduation in the area and this hotel was very convenient to where we needed to be. The room was spacious, clean, and had a fridge and microwave and coffee maker.  The room was quiet and the bed was very comfortable. There were plenty of breakfast selections downstairs.  We will definitely stay here again if we need to be in this area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r375276616-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>375276616</t>
+  </si>
+  <si>
+    <t>05/21/2016</t>
+  </si>
+  <si>
+    <t>Good location for your Galveston cruise</t>
+  </si>
+  <si>
+    <t>We always stay at Holiday Inn express. The quality is consistent.  This hotel is very nice and clean.  The staff is friendly.  Our room was very nice and comfortable.  The breakfast area was well stocked and yummy. Love their cinnamon rolls :)We also visited the Johnson space center and this hotel is convenient to that as well.  We would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>We always stay at Holiday Inn express. The quality is consistent.  This hotel is very nice and clean.  The staff is friendly.  Our room was very nice and comfortable.  The breakfast area was well stocked and yummy. Love their cinnamon rolls :)We also visited the Johnson space center and this hotel is convenient to that as well.  We would definitely stay here again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r369636281-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -667,6 +943,54 @@
     <t>This hotel was very comfortable and spotlessly clean.  The front desk ladies were very capable and friendly.  Our room was nice and clean and the air conditioning worked well.  The bathroom was well stocked and clean.  There is an Olive Garden close by.  We like to stay here prior to cruising out of Galveston.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r326285131-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>326285131</t>
+  </si>
+  <si>
+    <t>11/12/2015</t>
+  </si>
+  <si>
+    <t>Great stay!!!</t>
+  </si>
+  <si>
+    <t>This is my 80+ night in a hotel so far this year and this is a fabulous property.   The staff was professional and courteous; room was great.   Appreciate that this is a no smoking hotel, which doesn't appear to be the case with others in the area.   No complaints whatsoever.   Highly recommend and I'll definitely stay here again if in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>This is my 80+ night in a hotel so far this year and this is a fabulous property.   The staff was professional and courteous; room was great.   Appreciate that this is a no smoking hotel, which doesn't appear to be the case with others in the area.   No complaints whatsoever.   Highly recommend and I'll definitely stay here again if in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r311351908-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>311351908</t>
+  </si>
+  <si>
+    <t>09/17/2015</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>The room was a good size and updated.  We were provided full extra linens for the pull out sofa bed.  The hot breakfast was awesome! There was a lot to choose from and the staff kept the area clean and well stocked. Convenience store across the street and lots of fast food close by.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>eraschle, Manager at Holiday Inn Express Hotel &amp; Suites Texas City, responded to this reviewResponded November 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 11, 2015</t>
+  </si>
+  <si>
+    <t>The room was a good size and updated.  We were provided full extra linens for the pull out sofa bed.  The hot breakfast was awesome! There was a lot to choose from and the staff kept the area clean and well stocked. Convenience store across the street and lots of fast food close by.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r310939982-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -685,12 +1009,6 @@
     <t>March 2015</t>
   </si>
   <si>
-    <t>eraschle, Manager at Holiday Inn Express Hotel &amp; Suites Texas City, responded to this reviewResponded November 11, 2015</t>
-  </si>
-  <si>
-    <t>Responded November 11, 2015</t>
-  </si>
-  <si>
     <t>As an IHG member, we try to stay mostly with Holiday Inn. We were just as satisfied as always with this particular hotel. The rooms were very nice and well maintained. The staff was very friendly and accommodating.More</t>
   </si>
   <si>
@@ -746,6 +1064,60 @@
   </si>
   <si>
     <t>My family of four had a wonderful time at a family wedding in Texas and our stay here was part of the reason. The rooms and pool were huge.  Everything was clean and it was very convenient to restaurants and to our venues for the wedding. The people were lovely. We would highly recommend to any traveler.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r277733726-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>277733726</t>
+  </si>
+  <si>
+    <t>06/03/2015</t>
+  </si>
+  <si>
+    <t>Great Experience</t>
+  </si>
+  <si>
+    <t>My significant other and I planned on going to the beach and decided to stay at this location. Great location, not far from the beach. Great restaurants near by. Upon arrival they upgraded us to a suite. We really enjoyed ourselves.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>eraschle, General Manager at Holiday Inn Express Hotel &amp; Suites Texas City, responded to this reviewResponded June 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 6, 2015</t>
+  </si>
+  <si>
+    <t>My significant other and I planned on going to the beach and decided to stay at this location. Great location, not far from the beach. Great restaurants near by. Upon arrival they upgraded us to a suite. We really enjoyed ourselves.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r238939103-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>238939103</t>
+  </si>
+  <si>
+    <t>11/09/2014</t>
+  </si>
+  <si>
+    <t>Business trip, close to Galveston, not too close to the highway</t>
+  </si>
+  <si>
+    <t>I was travelling for business and this hotel has a great location. It is off I-45 and it is easy to find. I wanted a safe location, specially for me, a woman traveling solo.The hotel looks brand new and the king size room that I had, was enormous, including the bathroom.The room has a closet with room to keep your suitcases and hang your clothes. Next to it, there is a microwave with a coffee machine, a sink and a mini-fridge.The bathroom was a standing shower with great water pressure and it was huge, even the sink and the vanities.On the bedroom, you have also a desk if you need to do some work. Best of all, both wi-fi and breakfast were free. My room was above the entrance of the lobby, so I could see the highway, but didn't find it noisy. At night I slept really good. The only thing was turning up the heater, it smelled burned so I turned it off. Other than that no complaints.The breakfast had a spread of hot and cold items: pastries, bagels, cereal, oatmeal, eggs, sausages and pancakes. Also, coffee and juice. It was pretty nice and the food was warm and I saw an employee kept checking on it and refilling.I saw the pool by the window and it look really clean and the area around it was clean and tidy as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>eraschle, Manager at Holiday Inn Express Hotel &amp; Suites Texas City, responded to this reviewResponded November 23, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 23, 2014</t>
+  </si>
+  <si>
+    <t>I was travelling for business and this hotel has a great location. It is off I-45 and it is easy to find. I wanted a safe location, specially for me, a woman traveling solo.The hotel looks brand new and the king size room that I had, was enormous, including the bathroom.The room has a closet with room to keep your suitcases and hang your clothes. Next to it, there is a microwave with a coffee machine, a sink and a mini-fridge.The bathroom was a standing shower with great water pressure and it was huge, even the sink and the vanities.On the bedroom, you have also a desk if you need to do some work. Best of all, both wi-fi and breakfast were free. My room was above the entrance of the lobby, so I could see the highway, but didn't find it noisy. At night I slept really good. The only thing was turning up the heater, it smelled burned so I turned it off. Other than that no complaints.The breakfast had a spread of hot and cold items: pastries, bagels, cereal, oatmeal, eggs, sausages and pancakes. Also, coffee and juice. It was pretty nice and the food was warm and I saw an employee kept checking on it and refilling.I saw the pool by the window and it look really clean and the area around it was clean and tidy as well.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r237556832-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
@@ -766,9 +1138,6 @@
 I then asked to speak to the manager. The desk clerk said she (Tracy) had left...Upon arrival and check-in (mid-afternoon on a Friday) and going to my assigned room, I found it filled with a very strong odor (as if someone had been cooking pork or fish). I requested and was quickly assigned a new room. I thought everything was now fine.HOWEVER, upon reaching the newly assigned room, I noticed that it had no bathtub. Because I have a medical condition (that requires me to soak a tendon that was surgically repaired a few years ago),I returned to the front desk to explain the problem. The desk clerk (Jacob) informed me that ONLY TWO ROOMS in the ENTIRE hotel have bathtubs, and that neither was available. So for me, staying at this hotel was no longer an option. HOWEVER, the desk clerk said that if I chose to leave and stay elsewhere, I would still be charged for TWO NIGHTS because I had made my reservation in advance and it was "non-cancellable” (even though my luggage never left the luggage cart and even though I never stepped more than 3 feet into the room). I tried to explain that the issue had nothing to do with the advance reservation, and was based solely on his inability to provide me with a room that met my needs. It soon became apparent that my explanation was falling on deaf ears.I then asked to speak to the manager. The desk clerk said she (Tracy) had left for the day and he refused to call her, telling me that she does not accept calls after her working hours.I wrote a note to Tracy, left it with the desk clerk, handed in my room key and set out to find a hotel with bathtubs. Finding such a hotel was quite easy -- every hotel I called in the area is apparently furnished with tubs.I found another hotel (Holiday Inn Express) about 15 miles away with pleasant staff -- and bathtubs. When I explained why I was asking about tubs, these folks seemed to be as amazed at the story (two bathtubs in the entire hotel) as I was.On the following Monday I spoke by phone with manager (Tracy) when she returned to work. She confirmed that she never accepts calls from staff or from hotel guests after she leaves work. She told me she had the authority to refund my room charges, but refused to do so because it would "overrule the non-cancellation policy.” She could not seem to understand that my issue had nothing to do with the room reservation, and everything to do with a bona fide need for a common amenity/furnishing that is typically found in hotel rooms. She did understand that the Holiday Inn reservation website mentions nothing about rooms at this hotel not having bathtubs. None of this seemed to matter to Tracy.So I sent then an email to the property/franchise owner (Raschle), but never received a reply. After several days with no response from the franchise owner, I filed a report with my credit card company to dispute-the-charges.I would strongly recommend that people beware of this hotel.MoreShow less</t>
   </si>
   <si>
-    <t>October 2014</t>
-  </si>
-  <si>
     <t>eraschle, Manager at Holiday Inn Express Hotel &amp; Suites Texas City, responded to this reviewResponded November 6, 2014</t>
   </si>
   <si>
@@ -839,6 +1208,45 @@
 We also had to ask for the hotel pool...I usually stay at Hilton properties but my wife, son, and myself stayed at the Holiday Inn Express in Texas City for a wedding this past weekend and it was a huge disappointment! I have stayed at several Holiday Inn Express locations before and they are generally pretty decent however my wife and I both had severe back pain after the first night and it was worse after the second night. The free wifi that we were supposed to have would not work in our room at all. The only place we could get wifi was on the ground floor!I usually do not have any problem with getting hotel staff to allow late checkout if needed but in this case we needed to stay a few hours after normal checkout before leaving for a family event but I could not even get the request out of my mouth before I was cut off with a curt "That is not possible! We are completely booked and we need you to be out at noon!" I understand that the hotel was full but they cannot possibly clean all of the rooms at the same time so what difference does it make? At Hilton hotels I am guaranteed late checkout due to my membership privileges no questions asked- ever! I am also a member of IHG rewards but no such consideration was given.We also had to ask for the hotel pool to be unlocked because the gate was still locked over 30 minutes after the pool was supposed to be open. The pool towels that we had to ask for at the front desk were inconsistent. One day we were given hand towels that were not even big enough to wrap around your body and were very thin, but the next day they were better.Another group of our family was also staying at the hotel and had specifically requested a "suite with a pull out sofa" because they had 2 teens with them. They have stayed at many Holiday Inn Express &amp; Suites and the suites have always had a hide-a-bed in the couch. Not this hotel! Because you cannot actually book a room at the hotel by phone, the national reservation operator did not know that this hotel did not have hide-a-beds in any rooms but booked the room for them anyway. Because the hotel was full, my in laws had to leave the hotel a day early to find a hotel that could accommodate them in a single room.I expected this hotel to be much better. It looks very new and has a lot of potential but the bed was terrible and the customer service is nowhere on the level that it needs to be for the prices charged. The Hilton hotel we stayed at the last night we were in town was far superior for just a few dollars more. Lesson learned!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r218096820-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>218096820</t>
+  </si>
+  <si>
+    <t>07/28/2014</t>
+  </si>
+  <si>
+    <t>Nice Trip</t>
+  </si>
+  <si>
+    <t>We were looking for a hotel for our trip to Galveston and this hotel was only 15 minutes away.  The hotel and staff were both very nice.  Plenty of parking and we got to the hotel really late.  The check in was very easy.  They had everything printed and ready with the key programmed when we arrived.  Less than five minute check in process.  The room was clean and nice.  There was a microwave and fridge in the room.  The bed was firm, but comfortable.  Air conditioner worked well in our room.  There was only a shower in the bathroom, no tub, which was fine for me.  Free breakfast was very good.  Check out was also easy.We saw a nice fitness center and pool.  The hotel had vending machines and they also sold a few items at the front desk.There was a Jack In The Box, fast food place across the parking lot.  There was a mall across the street.  There were several other food options at the exit a few minutes away.I would recommend this hotel and would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>We were looking for a hotel for our trip to Galveston and this hotel was only 15 minutes away.  The hotel and staff were both very nice.  Plenty of parking and we got to the hotel really late.  The check in was very easy.  They had everything printed and ready with the key programmed when we arrived.  Less than five minute check in process.  The room was clean and nice.  There was a microwave and fridge in the room.  The bed was firm, but comfortable.  Air conditioner worked well in our room.  There was only a shower in the bathroom, no tub, which was fine for me.  Free breakfast was very good.  Check out was also easy.We saw a nice fitness center and pool.  The hotel had vending machines and they also sold a few items at the front desk.There was a Jack In The Box, fast food place across the parking lot.  There was a mall across the street.  There were several other food options at the exit a few minutes away.I would recommend this hotel and would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r217958833-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>217958833</t>
+  </si>
+  <si>
+    <t>Over priced</t>
+  </si>
+  <si>
+    <t>no major complaints. Room was just average, shower only no tub. Breakfast was good, breakfast area is small most families had to move tables around to accommodate them. Address of hotel does pick up on GPS.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Texas City, responded to this reviewResponded August 12, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 12, 2014</t>
+  </si>
+  <si>
+    <t>no major complaints. Room was just average, shower only no tub. Breakfast was good, breakfast area is small most families had to move tables around to accommodate them. Address of hotel does pick up on GPS.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r216220214-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -908,15 +1316,51 @@
     <t>This hotel is great, and my husband and I have stayed here twice now when we come to visit Galveston. Diana at the front desk is a dream, she is SO nice! I love how all of the staff always said hello to us no matter what time of the day it was. The breakfast buffet is delicious, the beds are super comfortable, and the place is clean, clean clean! During the week you can have the pool pretty much to yourself, which we loved. There is a Walmart across the highway that is really convenient if you forget any toiletries or need to pick up snacks, beer, etc. It only took us about 20 minutes to get into Galveston too, which I much prefer then spending a ton of $$$ to stay on the seawall, or anywhere in town for that matter. We will always come back to this hotel every year when we visit.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r210712489-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>210712489</t>
+  </si>
+  <si>
+    <t>06/17/2014</t>
+  </si>
+  <si>
+    <t>not good like it use to be</t>
+  </si>
+  <si>
+    <t>I've stayed at this hotel for the last 8 years  and go on a lot of cruises but this last time I was very displeased and won't stay there again the beds are full size. I'm a priorty club member with no priority the one in webber is much better queen size beds and a lower cost as well as near a lot of shops and restaruants go to the one in webber tx. not texas cityMoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Texas City, responded to this reviewResponded July 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 4, 2014</t>
+  </si>
+  <si>
+    <t>I've stayed at this hotel for the last 8 years  and go on a lot of cruises but this last time I was very displeased and won't stay there again the beds are full size. I'm a priorty club member with no priority the one in webber is much better queen size beds and a lower cost as well as near a lot of shops and restaruants go to the one in webber tx. not texas cityMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r210642820-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>210642820</t>
+  </si>
+  <si>
+    <t>06/16/2014</t>
+  </si>
+  <si>
+    <t>wonderfull bed and overall experience !</t>
+  </si>
+  <si>
+    <t>We have a suite, for a great price/value. The bed was wonderful, comfy, soft but firm enough to subtend my husband heavy weight without me bouncing every time he turned. The pillow were like little clouds of softness, we asked for 2 more and they were delivered in no time. The room was spacious, spotless clean. The staff were nice and police.Great experience, I wish I have the same bed and bedding at home !</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r210580931-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
   </si>
   <si>
     <t>210580931</t>
   </si>
   <si>
-    <t>06/16/2014</t>
-  </si>
-  <si>
     <t>One of the best!</t>
   </si>
   <si>
@@ -965,6 +1409,48 @@
     <t>Should you need to be close to events in areas south of Houston, this is the place to stay.  VERY clean and the staff goes above and beyond.  It is located away from high traffic areas, hustle and bustle.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r209332582-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>209332582</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>We have stayed at this hotel many times in the past few years before going on our cruises and in the beginning we loved this place but lately we feel that that the quality has declined. We stayed just last weekend and one thing we really used to like is they would let us check in around 1 because we were priority members and also gave us bottled water for free. This time they told us we could not check in until 4 which we though well fine we will sit and wait and after about 30 min someone else came in and asked if they could check in they said they could and as soon as they left we confronted them and they gave us a sorry attempt at an excuse also the water was only for priority members at their newer hotels also they always put us on the top floor and have only full size beds we were so disappointed we canceled our reservation for the second night and stayed elsewhere. If you want a great Holiday Inn Express Hotel try the one that is in Weber Tx it is brand new, has queen size beds and they are near the mall and lots of great stores and Starbucks.MoreShow less</t>
+  </si>
+  <si>
+    <t>We have stayed at this hotel many times in the past few years before going on our cruises and in the beginning we loved this place but lately we feel that that the quality has declined. We stayed just last weekend and one thing we really used to like is they would let us check in around 1 because we were priority members and also gave us bottled water for free. This time they told us we could not check in until 4 which we though well fine we will sit and wait and after about 30 min someone else came in and asked if they could check in they said they could and as soon as they left we confronted them and they gave us a sorry attempt at an excuse also the water was only for priority members at their newer hotels also they always put us on the top floor and have only full size beds we were so disappointed we canceled our reservation for the second night and stayed elsewhere. If you want a great Holiday Inn Express Hotel try the one that is in Weber Tx it is brand new, has queen size beds and they are near the mall and lots of great stores and Starbucks.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r208733092-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>208733092</t>
+  </si>
+  <si>
+    <t>06/03/2014</t>
+  </si>
+  <si>
+    <t>Safe, Clean, Friendly hotel</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here for two nights before our cruise took off out of Galveston, TX. Loved this hotel, and we will be staying here again when we are in the area. The staff was incredibly friendly, even shared their stapler with us for our luggage tags! The room was clean, and comfortable. Breakfast was really good, and had a nice variety. We enjoyed the work out facilities as well, even did a load of laundry ! Texas City it's self was really nice to, we hit up some shopping at the outlit, and some local BBQ that wasn't far from the hotel. Great hotel, def recommend it !MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>eraschle, Manager at Holiday Inn Express Hotel &amp; Suites Texas City, responded to this reviewResponded June 5, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 5, 2014</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here for two nights before our cruise took off out of Galveston, TX. Loved this hotel, and we will be staying here again when we are in the area. The staff was incredibly friendly, even shared their stapler with us for our luggage tags! The room was clean, and comfortable. Breakfast was really good, and had a nice variety. We enjoyed the work out facilities as well, even did a load of laundry ! Texas City it's self was really nice to, we hit up some shopping at the outlit, and some local BBQ that wasn't far from the hotel. Great hotel, def recommend it !More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r204226389-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -983,12 +1469,6 @@
     <t>January 2014</t>
   </si>
   <si>
-    <t>eraschle, Manager at Holiday Inn Express Hotel &amp; Suites Texas City, responded to this reviewResponded June 5, 2014</t>
-  </si>
-  <si>
-    <t>Responded June 5, 2014</t>
-  </si>
-  <si>
     <t>my sister and I spent two weeks in Texas City, and had a chance to stay in this hotel, and I am very impresed with the service and hotel. everything was so clean, and staff was so friendly, and service was perfect.More</t>
   </si>
   <si>
@@ -1037,6 +1517,54 @@
     <t>This is a great place to stay the night before our cruise out of Galveston, Texas. It is easy on, easy off I45. There are 3 restaurants nearby as well as fast food on the other side of I45.The manager was particularly friendly, whether at the front desk or touring the breakfast area to greet guests and check on the breakfast bar. The water in Texas City is pretty dreadful, not just at this hotel; so I recommend bottled water.We had a room that was right next to the elevator, but we could not hear any noise in our room. I was worried that we might, but we didn't.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r199965330-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>199965330</t>
+  </si>
+  <si>
+    <t>04/05/2014</t>
+  </si>
+  <si>
+    <t>Great Stay!</t>
+  </si>
+  <si>
+    <t>Clean room and friendly staff.  You can's ask for more and it helps when you need a rest from traveling.  The hotel is close to many restaurants and things to do.  We would stay here again.  No complaints.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>eraschle, Manager at Holiday Inn Express Hotel &amp; Suites Texas City, responded to this reviewResponded April 7, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 7, 2014</t>
+  </si>
+  <si>
+    <t>Clean room and friendly staff.  You can's ask for more and it helps when you need a rest from traveling.  The hotel is close to many restaurants and things to do.  We would stay here again.  No complaints.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r198392804-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>198392804</t>
+  </si>
+  <si>
+    <t>03/23/2014</t>
+  </si>
+  <si>
+    <t>Best in Texas City</t>
+  </si>
+  <si>
+    <t>We stayed at another hotel in Texas City for 3 nights because it had a pool &amp; great reviews. Then we stayed here the last night before the cruise because it had laundry facilities. Because it was late February, the unheated pool of the other hotel was not used. I wish we had stayed here for the entire 4 days before the cruise. The staff was absolutely wonderful. As soon as we entered this hotel, we knew we had hit the jackpot. The wifi &amp; breakfast was also excellent. They had some empty suites so they upgraded us and we hadn't even asked for an upgrade. Texas City is so close to so many great attractions. Galveston area has plenty to do. We even drove to Beaumont for a day trip &amp; thoroughly enjoyed our day. There is also a movie theatre that is in a mall close to the hotel which is so inexpensive that we were shocked. Oh yes....for all you shoppers....there is an Outlet Mall just a few minutes away. What a great location!MoreShow less</t>
+  </si>
+  <si>
+    <t>eraschle, General Manager at Holiday Inn Express Hotel &amp; Suites Texas City, responded to this reviewResponded April 7, 2014</t>
+  </si>
+  <si>
+    <t>We stayed at another hotel in Texas City for 3 nights because it had a pool &amp; great reviews. Then we stayed here the last night before the cruise because it had laundry facilities. Because it was late February, the unheated pool of the other hotel was not used. I wish we had stayed here for the entire 4 days before the cruise. The staff was absolutely wonderful. As soon as we entered this hotel, we knew we had hit the jackpot. The wifi &amp; breakfast was also excellent. They had some empty suites so they upgraded us and we hadn't even asked for an upgrade. Texas City is so close to so many great attractions. Galveston area has plenty to do. We even drove to Beaumont for a day trip &amp; thoroughly enjoyed our day. There is also a movie theatre that is in a mall close to the hotel which is so inexpensive that we were shocked. Oh yes....for all you shoppers....there is an Outlet Mall just a few minutes away. What a great location!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r179151056-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -1115,6 +1643,57 @@
     <t>This is a very nice and well-kept hotel but there were some basic things that guests expect that went unattended over three full days. Pro's: Superb breakfast, entire hotel in and out very very clean, nice exterior grounds kept well and not trashy, pool area beautiful.  Well done. Cons: Ice machine not working entire three-day stay on floor and the soda machines largely unstocked. Unacceptable because this is mid-August in hot SE Texas. “Spartan” bare bathroom with white walls in our regular room; just not warm, almost like a hospital bathroom, almost clinical feeling.  The view outside the ultra-nice suite on 2nd floor is totally obstructed by the front entrance overhang. So, it all depends on your expectations. This is a very nice well-kept and clean hotel.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r171758861-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>171758861</t>
+  </si>
+  <si>
+    <t>08/11/2013</t>
+  </si>
+  <si>
+    <t>Great stay!</t>
+  </si>
+  <si>
+    <t>We stayed here, for my step daughters' graduation.  The hotel is very nice and clean. The staff was friendly and professional. We were close to everything. We would definately stay here again!  I would recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>eraschle, Owner at Holiday Inn Express Hotel &amp; Suites Texas City, responded to this reviewResponded August 13, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 13, 2013</t>
+  </si>
+  <si>
+    <t>We stayed here, for my step daughters' graduation.  The hotel is very nice and clean. The staff was friendly and professional. We were close to everything. We would definately stay here again!  I would recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r171115575-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>171115575</t>
+  </si>
+  <si>
+    <t>08/06/2013</t>
+  </si>
+  <si>
+    <t>"I stayed in a Holiday Inn Express last night"</t>
+  </si>
+  <si>
+    <t>We stayed here on our weekend to Galveston.  We arrived a bit early and was still able to check in.  The room was clean, spacious and all around nice.  It was well worth the money.  They had 2 kinds of pillows on the bed marked soft and firm.  The pool was always nice and clean also.  The free breakfast was far more than we had expected.  Everytime we walked by the staff, they were checking on us and asking how our day was.  My wife and I were pleasantly surprised.  I would stay here next time we go to Galveston as well.  Well worth the savings compared to the ones on the beach.MoreShow less</t>
+  </si>
+  <si>
+    <t>eraschle, Owner at Holiday Inn Express Hotel &amp; Suites Texas City, responded to this reviewResponded August 11, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 11, 2013</t>
+  </si>
+  <si>
+    <t>We stayed here on our weekend to Galveston.  We arrived a bit early and was still able to check in.  The room was clean, spacious and all around nice.  It was well worth the money.  They had 2 kinds of pillows on the bed marked soft and firm.  The pool was always nice and clean also.  The free breakfast was far more than we had expected.  Everytime we walked by the staff, they were checking on us and asking how our day was.  My wife and I were pleasantly surprised.  I would stay here next time we go to Galveston as well.  Well worth the savings compared to the ones on the beach.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r166854609-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -1154,9 +1733,6 @@
     <t>This hotel was great! It's about a 20-25 minute drive to Galveston, depending on what you want to do. It's really convenient that there is a Walmart across the highway, so if you forget anything or need snacks/drinks, etc. it's right there. The room was spacious and clean, and we couldn't hear anybody above us or down the hallway so it was nice and quiet. The breakfast is delicious; there are so many options of things to eat I can't even believe it. The pool was great as well, and it was actually salt water which I loved instead of the usual chlorine. Overall we loved our stay!MoreShow less</t>
   </si>
   <si>
-    <t>June 2013</t>
-  </si>
-  <si>
     <t>eraschle, Manager at Holiday Inn Express Hotel &amp; Suites Texas City, responded to this reviewResponded June 26, 2013</t>
   </si>
   <si>
@@ -1193,6 +1769,60 @@
     <t>We stayed here the night before our Disney Cruise out of Galveston. Check-in was efficient with friendly clerk. Room was clean and breakfast was nice. But beware of navigation directions!  Our Nav took us to an empty lot on I-45 and the hotel is more North and not off I-45(although you can see I-45)  I called the clerk and he directed me. When I arrived, I questioned him and he stated it happens all the time. He said that when the hotel was rebuilt, they kept the address even though the physical location moved. Why they would do that makes no sense. Anyway, we are very happy and would definitely stay here again :-)More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r155289411-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>155289411</t>
+  </si>
+  <si>
+    <t>03/21/2013</t>
+  </si>
+  <si>
+    <t>Extended Familiy</t>
+  </si>
+  <si>
+    <t>I went down to Mardi Gras in Galveston, Texas and we stayed at this location.  The night staff did everything to make our check in easy. Then I woke up to Tracy and her staff! WOW! The staff made me and my family feel like we were a part of their family.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>eraschle, General Manager at Holiday Inn Express Hotel &amp; Suites Texas City, responded to this reviewResponded March 22, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 22, 2013</t>
+  </si>
+  <si>
+    <t>I went down to Mardi Gras in Galveston, Texas and we stayed at this location.  The night staff did everything to make our check in easy. Then I woke up to Tracy and her staff! WOW! The staff made me and my family feel like we were a part of their family.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r154402826-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>154402826</t>
+  </si>
+  <si>
+    <t>03/12/2013</t>
+  </si>
+  <si>
+    <t>Bait and Switch!</t>
+  </si>
+  <si>
+    <t>I paid for two double rooms.  I took five people on a brief vacation to Galveston.  We show up and they have NO DOUBLE ROOMS!  They didn't have them when we booked but they sold them anyway.  They "upgraded" us to single rooms.  This really irritated me but I was going to let it go until the morning when I could speak to the manager.  This is clearly bait and switch because I have reservations for doubles not singles.  We go eat after a long drive to get here and when we get back we are making up these crappy beds for the teenagers to sleep on when we realize there are no blankets with the bedding.  My wife calls down for blankets and is told they don't have any.  The guy tells her he can't give her what they don't have.  So I've made reservations, paid, and they have accepted both the reservation and the money but it's my problem that they don't have what they sold us?  It was clear from our interaction with staff that they were irritated with us.  We somehow caused this I suppose.  They moved things around for the second night and we managed to get double rooms.  We even had proper bed clothes for each person we brought.  You would think you would get comped the night they didn't have the proper rooms.  Nope.  You would think that we would get free rooms...I paid for two double rooms.  I took five people on a brief vacation to Galveston.  We show up and they have NO DOUBLE ROOMS!  They didn't have them when we booked but they sold them anyway.  They "upgraded" us to single rooms.  This really irritated me but I was going to let it go until the morning when I could speak to the manager.  This is clearly bait and switch because I have reservations for doubles not singles.  We go eat after a long drive to get here and when we get back we are making up these crappy beds for the teenagers to sleep on when we realize there are no blankets with the bedding.  My wife calls down for blankets and is told they don't have any.  The guy tells her he can't give her what they don't have.  So I've made reservations, paid, and they have accepted both the reservation and the money but it's my problem that they don't have what they sold us?  It was clear from our interaction with staff that they were irritated with us.  We somehow caused this I suppose.  They moved things around for the second night and we managed to get double rooms.  We even had proper bed clothes for each person we brought.  You would think you would get comped the night they didn't have the proper rooms.  Nope.  You would think that we would get free rooms for another time since they screwed this up if they couldn't credit the rooms due to third party booking.  Nope.  As a matter of fact, I got the distinct impression that it is their practice to accept money through travel sites until every room is book no matter if the customer wanted a double or single.  They'll just "upgrade" you.  DO NOT BOOK this hotel if you need more than one bed in a room unless you CALL FIRST because they will sell you something they don't have and it's your problem when you arrive.  There will be no refund, no apology, and you may not even get bedding for your vinyl mattress.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>eraschle, Owner at Holiday Inn Express Hotel &amp; Suites Texas City, responded to this reviewResponded March 13, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 13, 2013</t>
+  </si>
+  <si>
+    <t>I paid for two double rooms.  I took five people on a brief vacation to Galveston.  We show up and they have NO DOUBLE ROOMS!  They didn't have them when we booked but they sold them anyway.  They "upgraded" us to single rooms.  This really irritated me but I was going to let it go until the morning when I could speak to the manager.  This is clearly bait and switch because I have reservations for doubles not singles.  We go eat after a long drive to get here and when we get back we are making up these crappy beds for the teenagers to sleep on when we realize there are no blankets with the bedding.  My wife calls down for blankets and is told they don't have any.  The guy tells her he can't give her what they don't have.  So I've made reservations, paid, and they have accepted both the reservation and the money but it's my problem that they don't have what they sold us?  It was clear from our interaction with staff that they were irritated with us.  We somehow caused this I suppose.  They moved things around for the second night and we managed to get double rooms.  We even had proper bed clothes for each person we brought.  You would think you would get comped the night they didn't have the proper rooms.  Nope.  You would think that we would get free rooms...I paid for two double rooms.  I took five people on a brief vacation to Galveston.  We show up and they have NO DOUBLE ROOMS!  They didn't have them when we booked but they sold them anyway.  They "upgraded" us to single rooms.  This really irritated me but I was going to let it go until the morning when I could speak to the manager.  This is clearly bait and switch because I have reservations for doubles not singles.  We go eat after a long drive to get here and when we get back we are making up these crappy beds for the teenagers to sleep on when we realize there are no blankets with the bedding.  My wife calls down for blankets and is told they don't have any.  The guy tells her he can't give her what they don't have.  So I've made reservations, paid, and they have accepted both the reservation and the money but it's my problem that they don't have what they sold us?  It was clear from our interaction with staff that they were irritated with us.  We somehow caused this I suppose.  They moved things around for the second night and we managed to get double rooms.  We even had proper bed clothes for each person we brought.  You would think you would get comped the night they didn't have the proper rooms.  Nope.  You would think that we would get free rooms for another time since they screwed this up if they couldn't credit the rooms due to third party booking.  Nope.  As a matter of fact, I got the distinct impression that it is their practice to accept money through travel sites until every room is book no matter if the customer wanted a double or single.  They'll just "upgrade" you.  DO NOT BOOK this hotel if you need more than one bed in a room unless you CALL FIRST because they will sell you something they don't have and it's your problem when you arrive.  There will be no refund, no apology, and you may not even get bedding for your vinyl mattress.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r150304178-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -1265,6 +1895,54 @@
     <t>Good location of the air conditioning in the room I had. It kept the room cool, the fan was set to run continuously, so it didn't wake you up starting and stopping. It also did not blast the bed with cold air.  I don't like the wall AC/heating units, but this one was about as good as they get.The bed was comfortable, although the sheets were not as smooth as some. The rooms have only a shower in the bathrooms, but I didn't miss the tub. The show is nice since it was very large and had a very low edge that was easy to step over, but still kept the floor relativity dry. Good selection of channels on TV and internet worked well. Room have microwaves and bar fridges in them.There are few restaurants in the area, walking to them is a bit of a challenge since there are few sidewalks in this location. The hotel might get busier in the next while, since there is a Tanger outlet mall opening up a few miles down the road. There does not appear to be much shopping choice left in the Mall of the Mainland across the street.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r144696732-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>144696732</t>
+  </si>
+  <si>
+    <t>11/05/2012</t>
+  </si>
+  <si>
+    <t>Very nice Hotel</t>
+  </si>
+  <si>
+    <t>I stayed here for a single night recently while on a business in Texas City. The hotel is conveniently located with good access to I-45. Check-in and checkout went very smoothly and the staff person was friendly and efficient.  I stayed in a single king room that was very large, nicely decorated, and quiet. The room was equipped with a microwave and small refrigerator which I really like.  The hotel and furnishings looked fairly new and the room was clean. A decent continental breakfast was included that included hot and cold items. The hotel is not very close to many restaurants but there are lots of places several miles north.  An outlet mall is also a few miles north if you like to shop.  The hotel has a decent business center, exercise room, and indoor pool.  Overall, a very nice hotel at a decent price.  I will definitely consider staying here again while in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>eraschle, General Manager at Holiday Inn Express Hotel &amp; Suites Texas City, responded to this reviewResponded November 16, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 16, 2012</t>
+  </si>
+  <si>
+    <t>I stayed here for a single night recently while on a business in Texas City. The hotel is conveniently located with good access to I-45. Check-in and checkout went very smoothly and the staff person was friendly and efficient.  I stayed in a single king room that was very large, nicely decorated, and quiet. The room was equipped with a microwave and small refrigerator which I really like.  The hotel and furnishings looked fairly new and the room was clean. A decent continental breakfast was included that included hot and cold items. The hotel is not very close to many restaurants but there are lots of places several miles north.  An outlet mall is also a few miles north if you like to shop.  The hotel has a decent business center, exercise room, and indoor pool.  Overall, a very nice hotel at a decent price.  I will definitely consider staying here again while in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r143876736-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>143876736</t>
+  </si>
+  <si>
+    <t>10/27/2012</t>
+  </si>
+  <si>
+    <t>Nice Place, Not real fancy, but not a no frills place either</t>
+  </si>
+  <si>
+    <t>I stayed her for a couple of nights. The room was very clean, the free breakfast was not bad at all. The staff went above and beyond in my opinion.They just opened an outlet mall right down the highway that looks real nice. I would stay here again without hesitation.MoreShow less</t>
+  </si>
+  <si>
+    <t>eraschle, Manager at Holiday Inn Express Hotel &amp; Suites Texas City, responded to this reviewResponded October 31, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 31, 2012</t>
+  </si>
+  <si>
+    <t>I stayed her for a couple of nights. The room was very clean, the free breakfast was not bad at all. The staff went above and beyond in my opinion.They just opened an outlet mall right down the highway that looks real nice. I would stay here again without hesitation.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r136086813-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -1337,6 +2015,39 @@
     <t>Only about 15 miles from Galveston. Just off I-10, but exit is kind of confusing. Wasn't much traffic in the hotel area. Hotel was clean and very nice. Check in was easy. The shower was as big as if there was a tub there, but there was no tub, just shower, very nice. Only complaint would be the bed was hard. No pillow top. But it was okay. Easy check out. Breakfast was okay for a hotel breakfast.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r131055811-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>131055811</t>
+  </si>
+  <si>
+    <t>05/31/2012</t>
+  </si>
+  <si>
+    <t>HORRIBLE!!!</t>
+  </si>
+  <si>
+    <t>The appearance of the hotel on the outside was nice enough...however the rest was a different story.  The breakfast was mediocre at best.  The beds were like sleeping on a brick wall.  The rooms had an odd smell about them.  There were no extra towels to be had.  The internet didn't work....I could have gotten all of this for half the price at the discount hotel across the street.  Not to mention the fact that I am a priority club member and they didn't offer my usual member's package upon arrival.  Certainly one of the worst Holiday Inn's I've ever stayed at!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r124676805-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>124676805</t>
+  </si>
+  <si>
+    <t>02/16/2012</t>
+  </si>
+  <si>
+    <t>Good stay before cruising</t>
+  </si>
+  <si>
+    <t>Very nice and clean and not but 15 to 20 minutes from cruise port in Galveston. Galveston jacks the prices up on weekend do to cruisers. Very close to Walmart for last minute needs.</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r123187741-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -1386,6 +2097,42 @@
   </si>
   <si>
     <t>Booked online - nice new hotel - no tub, (which I prefer) but nice shower. I thought the bed was a little too firm - but still, large room, great TV, quiet, easy to find off the interstate.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r116042778-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>116042778</t>
+  </si>
+  <si>
+    <t>07/30/2011</t>
+  </si>
+  <si>
+    <t>Exactly what we expect in a HIE</t>
+  </si>
+  <si>
+    <t>My husband and I travel quite a bit with his work so we try to be consistent with our hotels. I can definitely say this lives up to our expectations of a HIE. Good service, clean room and a hot breakfast. I will say that the beds were not quite as comfortable as some others and the pillows left something to be desired. However, the pool is huge and a good place to hang.  There is a big mall just 10 miles north with lots of chain restaurants. Galveston is only a 15 minute drive south. We would stay here again, just bring our own pillows next time.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r115637051-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>115637051</t>
+  </si>
+  <si>
+    <t>07/21/2011</t>
+  </si>
+  <si>
+    <t>Just Outside Galveston - Nice big rooms</t>
+  </si>
+  <si>
+    <t>We like to stay at Holiday Inn's and all the ones in Galveston were full due to 4th of July. So, we decided to make the drive to the beach from this hotel in Texas City. It's a nice 20-30 minute drive to the beach. The room was huge. Nice mini-kitchen great for my kids food. The breakfast was a hit. They have this pancake machine that automatically cooks your pancake when you press a button - then plops it onto a plate for you off a little conveyor belt. They had a baby crib available and my baby loved it. The bed was an amazing sleep. My kids liked the pool. It was clean and had a nice little covered area for parents to sit and watch kids swim. The front desk seemed a little stretched for coverage. They often were working 1 at a time and there was sometimes a line. The hotel was full and I was surprised they just had one worker there. One time, when we went down for towels, there was a sign "Be right back" at the counter.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>We like to stay at Holiday Inn's and all the ones in Galveston were full due to 4th of July. So, we decided to make the drive to the beach from this hotel in Texas City. It's a nice 20-30 minute drive to the beach. The room was huge. Nice mini-kitchen great for my kids food. The breakfast was a hit. They have this pancake machine that automatically cooks your pancake when you press a button - then plops it onto a plate for you off a little conveyor belt. They had a baby crib available and my baby loved it. The bed was an amazing sleep. My kids liked the pool. It was clean and had a nice little covered area for parents to sit and watch kids swim. The front desk seemed a little stretched for coverage. They often were working 1 at a time and there was sometimes a line. The hotel was full and I was surprised they just had one worker there. One time, when we went down for towels, there was a sign "Be right back" at the counter.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r115104592-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
@@ -1468,6 +2215,60 @@
     <t>My husband &amp; I enjoyed our over nite stay.  The rooms were clean.  The breakfast was very good &amp; the manager, Ty, were very helpfull.  We will stay here again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r38887470-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>38887470</t>
+  </si>
+  <si>
+    <t>08/26/2009</t>
+  </si>
+  <si>
+    <t>Horrible</t>
+  </si>
+  <si>
+    <t>They chargred 100 dollars a night so I could listen to them hammer outside my window starting at 8:00 every morning.  We weren't told when we made the reservation  that they were working on the hotel.  When we asked to leave that evening after my husband returned from work we were told we would be charged for that night if we stayed or not.  Thats policy he said.  Well I think it should be policy for you to have a quiet stay. Guest should be told when making reservations.  They should at least lower their rates while they are doing these repairs.  Horrible, dont stay here!!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2009</t>
+  </si>
+  <si>
+    <t>eraschle, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Texas City, responded to this reviewResponded August 26, 2010</t>
+  </si>
+  <si>
+    <t>Responded August 26, 2010</t>
+  </si>
+  <si>
+    <t>They chargred 100 dollars a night so I could listen to them hammer outside my window starting at 8:00 every morning.  We weren't told when we made the reservation  that they were working on the hotel.  When we asked to leave that evening after my husband returned from work we were told we would be charged for that night if we stayed or not.  Thats policy he said.  Well I think it should be policy for you to have a quiet stay. Guest should be told when making reservations.  They should at least lower their rates while they are doing these repairs.  Horrible, dont stay here!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r36231616-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>36231616</t>
+  </si>
+  <si>
+    <t>07/30/2009</t>
+  </si>
+  <si>
+    <t>Basic but improving...</t>
+  </si>
+  <si>
+    <t>Went to visit family and needed something basic that was convenient.Pros- Rooms were clean and well maintained, breakfast decent and the pool while small did come in handy.Cons- Doing work on the exterior (finally fixing hurricane damage), room safe was already locked and no one was able to open it and short staffed (1 person on the desk and that was it).If you do stay here, I highly recommend eating at Gringo's (Tex-Mex) which is 3 minutes away.  Good food, service and price.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2009</t>
+  </si>
+  <si>
+    <t>eraschle, Managing Director at Holiday Inn Express Hotel &amp; Suites Texas City, responded to this reviewResponded August 1, 2009</t>
+  </si>
+  <si>
+    <t>Responded August 1, 2009</t>
+  </si>
+  <si>
+    <t>Went to visit family and needed something basic that was convenient.Pros- Rooms were clean and well maintained, breakfast decent and the pool while small did come in handy.Cons- Doing work on the exterior (finally fixing hurricane damage), room safe was already locked and no one was able to open it and short staffed (1 person on the desk and that was it).If you do stay here, I highly recommend eating at Gringo's (Tex-Mex) which is 3 minutes away.  Good food, service and price.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r25531916-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -1529,6 +2330,24 @@
   </si>
   <si>
     <t>April 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d676925-r14561193-Holiday_Inn_Express_Hotel_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>14561193</t>
+  </si>
+  <si>
+    <t>03/26/2008</t>
+  </si>
+  <si>
+    <t>Loved your motel</t>
+  </si>
+  <si>
+    <t>The hotel facilities were excellent!  Very clean and new;  the towels white and thick, The breakfast great!  The receptionist , Sarah Hamilton, who greeted us was extremely helpful and knowledgeable about the motel and the Texas City area. I cannot stress how kind she was to us.Only one complaint about our stay:  the motel manager, Tracy Jackson, was discourteous and with a bad attitude toward travellers without prior reservations.</t>
+  </si>
+  <si>
+    <t>March 2008</t>
   </si>
 </sst>
 </file>
@@ -2063,7 +2882,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -2071,25 +2890,19 @@
       <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="P2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>3</v>
-      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>2</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -2105,34 +2918,34 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
         <v>55</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" t="s">
         <v>56</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>57</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>58</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>59</v>
-      </c>
-      <c r="M3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O3" t="s">
-        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2146,7 +2959,7 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
@@ -2183,25 +2996,25 @@
         <v>64</v>
       </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N4" t="s">
         <v>52</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q4" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
       <c r="R4" t="s"/>
-      <c r="S4" t="n">
-        <v>4</v>
-      </c>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -2209,7 +3022,7 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
@@ -2225,7 +3038,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -2234,45 +3047,39 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
-      <c r="S5" t="n">
-        <v>2</v>
-      </c>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>2</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
@@ -2288,48 +3095,54 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
         <v>73</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>74</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>75</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>76</v>
       </c>
-      <c r="L6" t="s">
-        <v>77</v>
-      </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
-      </c>
-      <c r="P6" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
-      <c r="S6" t="s"/>
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
@@ -2345,35 +3158,31 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
         <v>79</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>80</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>81</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>82</v>
       </c>
-      <c r="L7" t="s">
-        <v>83</v>
-      </c>
       <c r="M7" t="n">
-        <v>4</v>
-      </c>
-      <c r="N7" t="s">
-        <v>71</v>
-      </c>
-      <c r="O7" t="s">
-        <v>53</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
@@ -2386,7 +3195,7 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8">
@@ -2402,52 +3211,48 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
         <v>84</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>85</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>86</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>87</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
         <v>88</v>
       </c>
-      <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>89</v>
-      </c>
       <c r="O8" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
-      <c r="R8" t="n">
-        <v>5</v>
-      </c>
+      <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>5</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9">
@@ -2463,43 +3268,43 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" t="s">
         <v>92</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="K9" t="s">
         <v>93</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L9" t="s">
         <v>94</v>
-      </c>
-      <c r="K9" t="s">
-        <v>95</v>
-      </c>
-      <c r="L9" t="s">
-        <v>96</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="O9" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="n">
         <v>3</v>
       </c>
-      <c r="R9" t="n">
-        <v>4</v>
-      </c>
-      <c r="S9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>2</v>
+      </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
         <v>2</v>
@@ -2507,14 +3312,10 @@
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s">
-        <v>99</v>
-      </c>
-      <c r="X9" t="s">
-        <v>100</v>
-      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10">
@@ -2530,7 +3331,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -2539,22 +3340,26 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="J10" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="K10" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="L10" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
-      <c r="N10" t="s"/>
-      <c r="O10" t="s"/>
+      <c r="N10" t="s">
+        <v>88</v>
+      </c>
+      <c r="O10" t="s">
+        <v>65</v>
+      </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
@@ -2567,7 +3372,7 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11">
@@ -2583,7 +3388,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -2592,25 +3397,25 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="J11" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="K11" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="L11" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="O11" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2624,7 +3429,7 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12">
@@ -2640,7 +3445,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2649,43 +3454,39 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="J12" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="K12" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="L12" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="M12" t="n">
-        <v>5</v>
-      </c>
-      <c r="N12" t="s">
-        <v>120</v>
-      </c>
-      <c r="O12" t="s">
-        <v>114</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
-      <c r="S12" t="n">
-        <v>5</v>
-      </c>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>5</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s"/>
-      <c r="X12" t="s"/>
+      <c r="W12" t="s">
+        <v>112</v>
+      </c>
+      <c r="X12" t="s">
+        <v>113</v>
+      </c>
       <c r="Y12" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13">
@@ -2701,7 +3502,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2710,25 +3511,25 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="J13" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="K13" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="L13" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="O13" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2740,13 +3541,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="X13" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="Y13" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14">
@@ -2762,7 +3563,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2771,43 +3572,43 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="J14" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="K14" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="L14" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="O14" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
-      <c r="R14" t="s"/>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s">
-        <v>136</v>
-      </c>
-      <c r="X14" t="s">
-        <v>137</v>
-      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15">
@@ -2823,7 +3624,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2832,43 +3633,49 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="J15" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="K15" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="L15" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>136</v>
+      </c>
+      <c r="O15" t="s">
+        <v>137</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
         <v>3</v>
       </c>
-      <c r="N15" t="s">
-        <v>144</v>
-      </c>
-      <c r="O15" t="s">
-        <v>53</v>
-      </c>
-      <c r="P15" t="s"/>
-      <c r="Q15" t="s"/>
-      <c r="R15" t="s"/>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>2</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="X15" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="Y15" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16">
@@ -2884,7 +3691,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2893,49 +3700,35 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="J16" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="K16" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L16" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
-      </c>
-      <c r="N16" t="s">
-        <v>153</v>
-      </c>
-      <c r="O16" t="s">
-        <v>98</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
       <c r="P16" t="s"/>
-      <c r="Q16" t="n">
-        <v>4</v>
-      </c>
-      <c r="R16" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>5</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s">
-        <v>154</v>
-      </c>
-      <c r="X16" t="s">
-        <v>155</v>
-      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17">
@@ -2951,7 +3744,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2960,43 +3753,47 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="J17" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="K17" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="L17" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="O17" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="P17" t="s"/>
-      <c r="Q17" t="s"/>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
       <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="X17" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="Y17" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18">
@@ -3012,7 +3809,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -3021,43 +3818,45 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="J18" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="K18" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="L18" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="P18" t="s"/>
-      <c r="Q18" t="s"/>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
       <c r="R18" t="s"/>
-      <c r="S18" t="s"/>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
       <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s">
-        <v>162</v>
-      </c>
-      <c r="X18" t="s">
-        <v>163</v>
-      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19">
@@ -3073,7 +3872,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -3082,22 +3881,22 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="J19" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="K19" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="L19" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="O19" t="s">
         <v>53</v>
@@ -3111,14 +3910,10 @@
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s">
-        <v>162</v>
-      </c>
-      <c r="X19" t="s">
-        <v>163</v>
-      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20">
@@ -3134,7 +3929,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -3143,47 +3938,43 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="J20" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="K20" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="L20" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="O20" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
-      <c r="R20" t="n">
-        <v>4</v>
-      </c>
-      <c r="S20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s">
-        <v>184</v>
-      </c>
-      <c r="X20" t="s">
-        <v>185</v>
-      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21">
@@ -3199,7 +3990,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -3208,47 +3999,43 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="J21" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="K21" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="L21" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
-      </c>
-      <c r="P21" t="n">
-        <v>5</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>5</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="X21" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="Y21" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22">
@@ -3264,7 +4051,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -3273,32 +4060,34 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="J22" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="K22" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="L22" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
-      </c>
-      <c r="P22" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q22" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
       <c r="R22" t="s"/>
-      <c r="S22" t="s"/>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
         <v>5</v>
@@ -3306,14 +4095,10 @@
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s">
-        <v>193</v>
-      </c>
-      <c r="X22" t="s">
-        <v>194</v>
-      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23">
@@ -3329,7 +4114,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -3338,47 +4123,43 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="J23" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="K23" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="L23" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="M23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="P23" t="s"/>
-      <c r="Q23" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>5</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="X23" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="Y23" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24">
@@ -3394,7 +4175,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -3403,47 +4184,43 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="J24" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="K24" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="L24" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>137</v>
       </c>
       <c r="P24" t="s"/>
-      <c r="Q24" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q24" t="s"/>
       <c r="R24" t="s"/>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>5</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="X24" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="Y24" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25">
@@ -3459,7 +4236,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3468,49 +4245,43 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="J25" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="K25" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="L25" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="M25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="P25" t="s"/>
-      <c r="Q25" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q25" t="s"/>
       <c r="R25" t="s"/>
-      <c r="S25" t="n">
-        <v>5</v>
-      </c>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>4</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="X25" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="Y25" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26">
@@ -3526,7 +4297,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3535,49 +4306,49 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="J26" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="K26" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="L26" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="O26" t="s">
-        <v>90</v>
-      </c>
-      <c r="P26" t="n">
-        <v>1</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="P26" t="s"/>
       <c r="Q26" t="n">
-        <v>1</v>
-      </c>
-      <c r="R26" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="X26" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="Y26" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27">
@@ -3593,7 +4364,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3602,47 +4373,47 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="J27" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="K27" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="L27" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="M27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
-      </c>
-      <c r="P27" t="n">
-        <v>4</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
       <c r="R27" t="s"/>
-      <c r="S27" t="s"/>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="X27" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="Y27" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28">
@@ -3658,7 +4429,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3667,49 +4438,47 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="J28" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="K28" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="L28" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="M28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>253</v>
+        <v>179</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
-      </c>
-      <c r="P28" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q28" t="s"/>
+        <v>137</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
       <c r="R28" t="s"/>
-      <c r="S28" t="n">
-        <v>4</v>
-      </c>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="X28" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="Y28" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29">
@@ -3725,7 +4494,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3734,49 +4503,43 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="J29" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="K29" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="L29" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="s"/>
-      <c r="O29" t="s"/>
-      <c r="P29" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>3</v>
-      </c>
-      <c r="R29" t="n">
-        <v>3</v>
-      </c>
-      <c r="S29" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>179</v>
+      </c>
+      <c r="O29" t="s">
+        <v>129</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>1</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="X29" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="Y29" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30">
@@ -3792,7 +4555,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3801,25 +4564,25 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="J30" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="K30" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="L30" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="M30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>270</v>
+        <v>179</v>
       </c>
       <c r="O30" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -3831,13 +4594,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>271</v>
+        <v>243</v>
       </c>
       <c r="X30" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="Y30" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
     </row>
     <row r="31">
@@ -3853,7 +4616,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3862,53 +4625,43 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="J31" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="K31" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="L31" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>270</v>
+        <v>228</v>
       </c>
       <c r="O31" t="s">
-        <v>98</v>
-      </c>
-      <c r="P31" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>4</v>
-      </c>
-      <c r="R31" t="n">
-        <v>4</v>
-      </c>
-      <c r="S31" t="n">
-        <v>5</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="n">
-        <v>5</v>
-      </c>
+      <c r="U31" t="s"/>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="X31" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="Y31" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32">
@@ -3924,7 +4677,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3933,49 +4686,49 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="J32" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="K32" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="L32" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>270</v>
+        <v>228</v>
       </c>
       <c r="O32" t="s">
-        <v>90</v>
-      </c>
-      <c r="P32" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>5</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
       <c r="R32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S32" t="n">
         <v>5</v>
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s"/>
-      <c r="X32" t="s"/>
+      <c r="W32" t="s">
+        <v>243</v>
+      </c>
+      <c r="X32" t="s">
+        <v>244</v>
+      </c>
       <c r="Y32" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
     </row>
     <row r="33">
@@ -3991,7 +4744,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -4000,39 +4753,49 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="J33" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="K33" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="L33" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="M33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>270</v>
+        <v>228</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
-      </c>
-      <c r="P33" t="s"/>
+        <v>137</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
       <c r="Q33" t="s"/>
       <c r="R33" t="s"/>
-      <c r="S33" t="s"/>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
       <c r="T33" t="s"/>
-      <c r="U33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
+      <c r="W33" t="s">
+        <v>243</v>
+      </c>
+      <c r="X33" t="s">
+        <v>244</v>
+      </c>
       <c r="Y33" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
     </row>
     <row r="34">
@@ -4048,7 +4811,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -4057,53 +4820,47 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="J34" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="K34" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
       <c r="L34" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="O34" t="s">
-        <v>114</v>
-      </c>
-      <c r="P34" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>5</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
       <c r="R34" t="n">
         <v>4</v>
       </c>
-      <c r="S34" t="n">
-        <v>5</v>
-      </c>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="X34" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="Y34" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
     </row>
     <row r="35">
@@ -4119,7 +4876,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -4128,38 +4885,32 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="J35" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="K35" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="L35" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="O35" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
       </c>
-      <c r="Q35" t="n">
-        <v>5</v>
-      </c>
-      <c r="R35" t="n">
-        <v>5</v>
-      </c>
-      <c r="S35" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
         <v>5</v>
@@ -4168,13 +4919,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="X35" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="Y35" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
     </row>
     <row r="36">
@@ -4190,7 +4941,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -4199,38 +4950,32 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="J36" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="K36" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="L36" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="O36" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
       </c>
-      <c r="Q36" t="n">
-        <v>5</v>
-      </c>
-      <c r="R36" t="n">
-        <v>5</v>
-      </c>
-      <c r="S36" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
         <v>5</v>
@@ -4239,13 +4984,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>314</v>
+        <v>285</v>
       </c>
       <c r="X36" t="s">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="Y36" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
     </row>
     <row r="37">
@@ -4261,7 +5006,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -4270,53 +5015,49 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="J37" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
       <c r="K37" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="L37" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="M37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="O37" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="P37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q37" t="n">
-        <v>4</v>
-      </c>
-      <c r="R37" t="n">
-        <v>4</v>
-      </c>
-      <c r="S37" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>314</v>
+        <v>285</v>
       </c>
       <c r="X37" t="s">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="Y37" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
     </row>
     <row r="38">
@@ -4332,7 +5073,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -4341,53 +5082,49 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="J38" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="K38" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
       <c r="L38" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="M38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="P38" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q38" t="s"/>
       <c r="R38" t="n">
-        <v>4</v>
-      </c>
-      <c r="S38" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="X38" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="Y38" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
     </row>
     <row r="39">
@@ -4403,7 +5140,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4412,38 +5149,32 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="J39" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="K39" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="L39" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="M39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="O39" t="s">
-        <v>114</v>
-      </c>
-      <c r="P39" t="n">
-        <v>5</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="P39" t="s"/>
       <c r="Q39" t="n">
-        <v>4</v>
-      </c>
-      <c r="R39" t="n">
-        <v>3</v>
-      </c>
-      <c r="S39" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
         <v>5</v>
@@ -4452,13 +5183,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>337</v>
+        <v>308</v>
       </c>
       <c r="X39" t="s">
-        <v>338</v>
+        <v>309</v>
       </c>
       <c r="Y39" t="s">
-        <v>339</v>
+        <v>317</v>
       </c>
     </row>
     <row r="40">
@@ -4474,7 +5205,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4483,53 +5214,47 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
       <c r="J40" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="K40" t="s">
-        <v>343</v>
+        <v>321</v>
       </c>
       <c r="L40" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="M40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
-      </c>
-      <c r="P40" t="n">
-        <v>3</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="P40" t="s"/>
       <c r="Q40" t="n">
-        <v>4</v>
-      </c>
-      <c r="R40" t="n">
-        <v>5</v>
-      </c>
-      <c r="S40" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>346</v>
+        <v>324</v>
       </c>
       <c r="X40" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="Y40" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
     </row>
     <row r="41">
@@ -4545,7 +5270,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>349</v>
+        <v>327</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4554,49 +5279,49 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>350</v>
+        <v>328</v>
       </c>
       <c r="J41" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c r="K41" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="L41" t="s">
-        <v>353</v>
+        <v>331</v>
       </c>
       <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="s"/>
-      <c r="O41" t="s"/>
-      <c r="P41" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>332</v>
+      </c>
+      <c r="O41" t="s">
+        <v>65</v>
+      </c>
+      <c r="P41" t="s"/>
       <c r="Q41" t="n">
-        <v>1</v>
-      </c>
-      <c r="R41" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R41" t="s"/>
       <c r="S41" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
       <c r="X41" t="s">
-        <v>355</v>
+        <v>334</v>
       </c>
       <c r="Y41" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
     </row>
     <row r="42">
@@ -4612,7 +5337,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4621,38 +5346,32 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="J42" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
       <c r="K42" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="L42" t="s">
-        <v>361</v>
+        <v>340</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="O42" t="s">
-        <v>98</v>
-      </c>
-      <c r="P42" t="n">
-        <v>5</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="P42" t="s"/>
       <c r="Q42" t="n">
-        <v>4</v>
-      </c>
-      <c r="R42" t="n">
-        <v>4</v>
-      </c>
-      <c r="S42" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
         <v>5</v>
@@ -4661,13 +5380,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="X42" t="s">
-        <v>364</v>
+        <v>343</v>
       </c>
       <c r="Y42" t="s">
-        <v>365</v>
+        <v>344</v>
       </c>
     </row>
     <row r="43">
@@ -4683,7 +5402,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>366</v>
+        <v>345</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4692,43 +5411,49 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="J43" t="s">
-        <v>368</v>
+        <v>347</v>
       </c>
       <c r="K43" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="L43" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="M43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
-      <c r="R43" t="s"/>
-      <c r="S43" t="s"/>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
       <c r="T43" t="s"/>
-      <c r="U43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="X43" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="Y43" t="s">
-        <v>374</v>
+        <v>353</v>
       </c>
     </row>
     <row r="44">
@@ -4744,7 +5469,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>375</v>
+        <v>354</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4753,53 +5478,49 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="J44" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="K44" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="L44" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="M44" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="O44" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="P44" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q44" t="n">
-        <v>5</v>
-      </c>
-      <c r="R44" t="n">
-        <v>5</v>
-      </c>
-      <c r="S44" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>381</v>
+        <v>359</v>
       </c>
       <c r="X44" t="s">
-        <v>382</v>
+        <v>360</v>
       </c>
       <c r="Y44" t="s">
-        <v>383</v>
+        <v>361</v>
       </c>
     </row>
     <row r="45">
@@ -4815,7 +5536,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>384</v>
+        <v>362</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4824,53 +5545,47 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
       <c r="J45" t="s">
-        <v>386</v>
+        <v>364</v>
       </c>
       <c r="K45" t="s">
-        <v>387</v>
+        <v>365</v>
       </c>
       <c r="L45" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="M45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>389</v>
+        <v>367</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="P45" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>5</v>
-      </c>
-      <c r="R45" t="n">
-        <v>4</v>
-      </c>
-      <c r="S45" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>390</v>
+        <v>368</v>
       </c>
       <c r="X45" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="Y45" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
     </row>
     <row r="46">
@@ -4886,7 +5601,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -4895,53 +5610,49 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
       <c r="J46" t="s">
-        <v>394</v>
+        <v>373</v>
       </c>
       <c r="K46" t="s">
-        <v>395</v>
+        <v>374</v>
       </c>
       <c r="L46" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
       <c r="M46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N46" t="s">
-        <v>397</v>
+        <v>376</v>
       </c>
       <c r="O46" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="P46" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>4</v>
-      </c>
-      <c r="R46" t="n">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
       <c r="S46" t="n">
         <v>4</v>
       </c>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="X46" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="Y46" t="s">
-        <v>398</v>
+        <v>379</v>
       </c>
     </row>
     <row r="47">
@@ -4957,7 +5668,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>399</v>
+        <v>380</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -4966,38 +5677,34 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>400</v>
+        <v>381</v>
       </c>
       <c r="J47" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
       <c r="K47" t="s">
-        <v>402</v>
+        <v>383</v>
       </c>
       <c r="L47" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>404</v>
+        <v>376</v>
       </c>
       <c r="O47" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="P47" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q47" t="s"/>
       <c r="R47" t="n">
         <v>5</v>
       </c>
-      <c r="S47" t="n">
-        <v>5</v>
-      </c>
+      <c r="S47" t="s"/>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
         <v>5</v>
@@ -5006,13 +5713,13 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>405</v>
+        <v>377</v>
       </c>
       <c r="X47" t="s">
-        <v>406</v>
+        <v>378</v>
       </c>
       <c r="Y47" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
     </row>
     <row r="48">
@@ -5028,7 +5735,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>408</v>
+        <v>386</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -5037,37 +5744,33 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="J48" t="s">
-        <v>410</v>
+        <v>382</v>
       </c>
       <c r="K48" t="s">
-        <v>411</v>
+        <v>388</v>
       </c>
       <c r="L48" t="s">
-        <v>412</v>
+        <v>389</v>
       </c>
       <c r="M48" t="n">
-        <v>5</v>
-      </c>
-      <c r="N48" t="s">
-        <v>413</v>
-      </c>
-      <c r="O48" t="s">
-        <v>98</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N48" t="s"/>
+      <c r="O48" t="s"/>
       <c r="P48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
@@ -5077,13 +5780,13 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>414</v>
+        <v>390</v>
       </c>
       <c r="X48" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="Y48" t="s">
-        <v>415</v>
+        <v>392</v>
       </c>
     </row>
     <row r="49">
@@ -5099,7 +5802,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>416</v>
+        <v>393</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -5108,53 +5811,49 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>417</v>
+        <v>394</v>
       </c>
       <c r="J49" t="s">
-        <v>418</v>
+        <v>395</v>
       </c>
       <c r="K49" t="s">
-        <v>419</v>
+        <v>396</v>
       </c>
       <c r="L49" t="s">
-        <v>420</v>
+        <v>397</v>
       </c>
       <c r="M49" t="n">
-        <v>4</v>
-      </c>
-      <c r="N49" t="s">
-        <v>421</v>
-      </c>
-      <c r="O49" t="s">
-        <v>98</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N49" t="s"/>
+      <c r="O49" t="s"/>
       <c r="P49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="X49" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="Y49" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
     </row>
     <row r="50">
@@ -5170,7 +5869,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>423</v>
+        <v>401</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -5179,49 +5878,43 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>424</v>
+        <v>402</v>
       </c>
       <c r="J50" t="s">
-        <v>425</v>
+        <v>403</v>
       </c>
       <c r="K50" t="s">
-        <v>426</v>
+        <v>404</v>
       </c>
       <c r="L50" t="s">
-        <v>427</v>
+        <v>405</v>
       </c>
       <c r="M50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N50" t="s">
-        <v>428</v>
+        <v>406</v>
       </c>
       <c r="O50" t="s">
-        <v>53</v>
-      </c>
-      <c r="P50" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>4</v>
-      </c>
-      <c r="R50" t="n">
-        <v>4</v>
-      </c>
-      <c r="S50" t="n">
-        <v>5</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
       <c r="T50" t="s"/>
-      <c r="U50" t="n">
-        <v>5</v>
-      </c>
+      <c r="U50" t="s"/>
       <c r="V50" t="n">
         <v>0</v>
       </c>
-      <c r="W50" t="s"/>
-      <c r="X50" t="s"/>
+      <c r="W50" t="s">
+        <v>407</v>
+      </c>
+      <c r="X50" t="s">
+        <v>408</v>
+      </c>
       <c r="Y50" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
     </row>
     <row r="51">
@@ -5237,7 +5930,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>429</v>
+        <v>410</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -5246,49 +5939,53 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>430</v>
+        <v>411</v>
       </c>
       <c r="J51" t="s">
-        <v>431</v>
+        <v>412</v>
       </c>
       <c r="K51" t="s">
-        <v>432</v>
+        <v>413</v>
       </c>
       <c r="L51" t="s">
-        <v>433</v>
+        <v>414</v>
       </c>
       <c r="M51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>434</v>
+        <v>406</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>137</v>
       </c>
       <c r="P51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q51" t="n">
         <v>4</v>
       </c>
       <c r="R51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S51" t="n">
         <v>5</v>
       </c>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
       </c>
-      <c r="W51" t="s"/>
-      <c r="X51" t="s"/>
+      <c r="W51" t="s">
+        <v>377</v>
+      </c>
+      <c r="X51" t="s">
+        <v>378</v>
+      </c>
       <c r="Y51" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
     </row>
     <row r="52">
@@ -5304,7 +6001,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>435</v>
+        <v>416</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -5313,49 +6010,53 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>436</v>
+        <v>417</v>
       </c>
       <c r="J52" t="s">
-        <v>437</v>
+        <v>418</v>
       </c>
       <c r="K52" t="s">
-        <v>438</v>
+        <v>419</v>
       </c>
       <c r="L52" t="s">
-        <v>439</v>
+        <v>420</v>
       </c>
       <c r="M52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N52" t="s">
-        <v>434</v>
+        <v>406</v>
       </c>
       <c r="O52" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="P52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
       </c>
-      <c r="W52" t="s"/>
-      <c r="X52" t="s"/>
+      <c r="W52" t="s">
+        <v>421</v>
+      </c>
+      <c r="X52" t="s">
+        <v>422</v>
+      </c>
       <c r="Y52" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
     </row>
     <row r="53">
@@ -5371,7 +6072,7 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="G53" t="s">
         <v>46</v>
@@ -5380,37 +6081,41 @@
         <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="J53" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="K53" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="L53" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="M53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>445</v>
+        <v>406</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>137</v>
       </c>
       <c r="P53" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q53" t="s"/>
-      <c r="R53" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
       <c r="S53" t="n">
         <v>5</v>
       </c>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
@@ -5418,7 +6123,7 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
     </row>
     <row r="54">
@@ -5434,7 +6139,7 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="G54" t="s">
         <v>46</v>
@@ -5443,34 +6148,34 @@
         <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
       <c r="J54" t="s">
-        <v>449</v>
+        <v>426</v>
       </c>
       <c r="K54" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="L54" t="s">
-        <v>451</v>
+        <v>432</v>
       </c>
       <c r="M54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>452</v>
+        <v>406</v>
       </c>
       <c r="O54" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="P54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q54" t="n">
         <v>5</v>
       </c>
       <c r="R54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S54" t="n">
         <v>5</v>
@@ -5482,14 +6187,10 @@
       <c r="V54" t="n">
         <v>0</v>
       </c>
-      <c r="W54" t="s">
-        <v>453</v>
-      </c>
-      <c r="X54" t="s">
-        <v>454</v>
-      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>455</v>
+        <v>432</v>
       </c>
     </row>
     <row r="55">
@@ -5505,7 +6206,7 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>456</v>
+        <v>433</v>
       </c>
       <c r="G55" t="s">
         <v>46</v>
@@ -5514,53 +6215,39 @@
         <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>457</v>
+        <v>434</v>
       </c>
       <c r="J55" t="s">
-        <v>458</v>
+        <v>435</v>
       </c>
       <c r="K55" t="s">
-        <v>459</v>
+        <v>436</v>
       </c>
       <c r="L55" t="s">
-        <v>460</v>
+        <v>437</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>461</v>
+        <v>406</v>
       </c>
       <c r="O55" t="s">
-        <v>98</v>
-      </c>
-      <c r="P55" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>4</v>
-      </c>
-      <c r="R55" t="n">
-        <v>3</v>
-      </c>
-      <c r="S55" t="n">
-        <v>5</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
       <c r="T55" t="s"/>
-      <c r="U55" t="n">
-        <v>5</v>
-      </c>
+      <c r="U55" t="s"/>
       <c r="V55" t="n">
         <v>0</v>
       </c>
-      <c r="W55" t="s">
-        <v>462</v>
-      </c>
-      <c r="X55" t="s">
-        <v>454</v>
-      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>463</v>
+        <v>438</v>
       </c>
     </row>
     <row r="56">
@@ -5576,7 +6263,7 @@
         <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>464</v>
+        <v>439</v>
       </c>
       <c r="G56" t="s">
         <v>46</v>
@@ -5585,34 +6272,34 @@
         <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>465</v>
+        <v>440</v>
       </c>
       <c r="J56" t="s">
-        <v>466</v>
+        <v>441</v>
       </c>
       <c r="K56" t="s">
-        <v>467</v>
+        <v>442</v>
       </c>
       <c r="L56" t="s">
-        <v>468</v>
+        <v>443</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>469</v>
+        <v>406</v>
       </c>
       <c r="O56" t="s">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="P56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q56" t="n">
         <v>5</v>
       </c>
       <c r="R56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S56" t="n">
         <v>5</v>
@@ -5625,13 +6312,13 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>470</v>
+        <v>444</v>
       </c>
       <c r="X56" t="s">
-        <v>471</v>
+        <v>445</v>
       </c>
       <c r="Y56" t="s">
-        <v>472</v>
+        <v>446</v>
       </c>
     </row>
     <row r="57">
@@ -5647,7 +6334,7 @@
         <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>473</v>
+        <v>447</v>
       </c>
       <c r="G57" t="s">
         <v>46</v>
@@ -5656,47 +6343,53 @@
         <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>474</v>
+        <v>448</v>
       </c>
       <c r="J57" t="s">
-        <v>475</v>
+        <v>441</v>
       </c>
       <c r="K57" t="s">
-        <v>476</v>
+        <v>449</v>
       </c>
       <c r="L57" t="s">
-        <v>477</v>
+        <v>450</v>
       </c>
       <c r="M57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N57" t="s">
-        <v>478</v>
+        <v>406</v>
       </c>
       <c r="O57" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="P57" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q57" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>2</v>
+      </c>
       <c r="R57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T57" t="s"/>
       <c r="U57" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V57" t="n">
         <v>0</v>
       </c>
-      <c r="W57" t="s"/>
-      <c r="X57" t="s"/>
+      <c r="W57" t="s">
+        <v>444</v>
+      </c>
+      <c r="X57" t="s">
+        <v>445</v>
+      </c>
       <c r="Y57" t="s">
-        <v>477</v>
+        <v>451</v>
       </c>
     </row>
     <row r="58">
@@ -5712,7 +6405,7 @@
         <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>479</v>
+        <v>452</v>
       </c>
       <c r="G58" t="s">
         <v>46</v>
@@ -5721,37 +6414,37 @@
         <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>480</v>
+        <v>453</v>
       </c>
       <c r="J58" t="s">
-        <v>481</v>
+        <v>454</v>
       </c>
       <c r="K58" t="s">
-        <v>482</v>
+        <v>455</v>
       </c>
       <c r="L58" t="s">
-        <v>483</v>
+        <v>456</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>484</v>
+        <v>457</v>
       </c>
       <c r="O58" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
       </c>
       <c r="Q58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T58" t="s"/>
       <c r="U58" t="n">
@@ -5760,10 +6453,2709 @@
       <c r="V58" t="n">
         <v>0</v>
       </c>
-      <c r="W58" t="s"/>
-      <c r="X58" t="s"/>
+      <c r="W58" t="s">
+        <v>458</v>
+      </c>
+      <c r="X58" t="s">
+        <v>459</v>
+      </c>
       <c r="Y58" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>461</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>462</v>
+      </c>
+      <c r="J59" t="s">
+        <v>463</v>
+      </c>
+      <c r="K59" t="s">
+        <v>464</v>
+      </c>
+      <c r="L59" t="s">
+        <v>465</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>466</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>458</v>
+      </c>
+      <c r="X59" t="s">
+        <v>459</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>468</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>469</v>
+      </c>
+      <c r="J60" t="s">
+        <v>470</v>
+      </c>
+      <c r="K60" t="s">
+        <v>471</v>
+      </c>
+      <c r="L60" t="s">
+        <v>472</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>473</v>
+      </c>
+      <c r="O60" t="s">
+        <v>129</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>474</v>
+      </c>
+      <c r="X60" t="s">
+        <v>475</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>477</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>478</v>
+      </c>
+      <c r="J61" t="s">
+        <v>479</v>
+      </c>
+      <c r="K61" t="s">
+        <v>480</v>
+      </c>
+      <c r="L61" t="s">
+        <v>481</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>473</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>474</v>
+      </c>
+      <c r="X61" t="s">
+        <v>475</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
         <v>483</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>484</v>
+      </c>
+      <c r="J62" t="s">
+        <v>485</v>
+      </c>
+      <c r="K62" t="s">
+        <v>486</v>
+      </c>
+      <c r="L62" t="s">
+        <v>487</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>488</v>
+      </c>
+      <c r="O62" t="s">
+        <v>137</v>
+      </c>
+      <c r="P62" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>489</v>
+      </c>
+      <c r="X62" t="s">
+        <v>490</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>492</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>493</v>
+      </c>
+      <c r="J63" t="s">
+        <v>494</v>
+      </c>
+      <c r="K63" t="s">
+        <v>495</v>
+      </c>
+      <c r="L63" t="s">
+        <v>496</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>488</v>
+      </c>
+      <c r="O63" t="s">
+        <v>137</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>497</v>
+      </c>
+      <c r="X63" t="s">
+        <v>490</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>499</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>500</v>
+      </c>
+      <c r="J64" t="s">
+        <v>501</v>
+      </c>
+      <c r="K64" t="s">
+        <v>502</v>
+      </c>
+      <c r="L64" t="s">
+        <v>503</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>504</v>
+      </c>
+      <c r="O64" t="s">
+        <v>65</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>505</v>
+      </c>
+      <c r="X64" t="s">
+        <v>506</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>508</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>509</v>
+      </c>
+      <c r="J65" t="s">
+        <v>510</v>
+      </c>
+      <c r="K65" t="s">
+        <v>511</v>
+      </c>
+      <c r="L65" t="s">
+        <v>512</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>504</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>3</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>513</v>
+      </c>
+      <c r="X65" t="s">
+        <v>514</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>516</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>517</v>
+      </c>
+      <c r="J66" t="s">
+        <v>518</v>
+      </c>
+      <c r="K66" t="s">
+        <v>519</v>
+      </c>
+      <c r="L66" t="s">
+        <v>520</v>
+      </c>
+      <c r="M66" t="n">
+        <v>3</v>
+      </c>
+      <c r="N66" t="s">
+        <v>521</v>
+      </c>
+      <c r="O66" t="s">
+        <v>65</v>
+      </c>
+      <c r="P66" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>522</v>
+      </c>
+      <c r="X66" t="s">
+        <v>523</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>525</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>526</v>
+      </c>
+      <c r="J67" t="s">
+        <v>527</v>
+      </c>
+      <c r="K67" t="s">
+        <v>528</v>
+      </c>
+      <c r="L67" t="s">
+        <v>529</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>530</v>
+      </c>
+      <c r="O67" t="s">
+        <v>65</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>531</v>
+      </c>
+      <c r="X67" t="s">
+        <v>532</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>534</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>535</v>
+      </c>
+      <c r="J68" t="s">
+        <v>536</v>
+      </c>
+      <c r="K68" t="s">
+        <v>537</v>
+      </c>
+      <c r="L68" t="s">
+        <v>538</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>521</v>
+      </c>
+      <c r="O68" t="s">
+        <v>137</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>539</v>
+      </c>
+      <c r="X68" t="s">
+        <v>540</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>542</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>543</v>
+      </c>
+      <c r="J69" t="s">
+        <v>544</v>
+      </c>
+      <c r="K69" t="s">
+        <v>545</v>
+      </c>
+      <c r="L69" t="s">
+        <v>546</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="s"/>
+      <c r="O69" t="s"/>
+      <c r="P69" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>1</v>
+      </c>
+      <c r="R69" t="n">
+        <v>3</v>
+      </c>
+      <c r="S69" t="n">
+        <v>1</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>1</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>547</v>
+      </c>
+      <c r="X69" t="s">
+        <v>548</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>550</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>551</v>
+      </c>
+      <c r="J70" t="s">
+        <v>552</v>
+      </c>
+      <c r="K70" t="s">
+        <v>553</v>
+      </c>
+      <c r="L70" t="s">
+        <v>554</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>530</v>
+      </c>
+      <c r="O70" t="s">
+        <v>137</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>555</v>
+      </c>
+      <c r="X70" t="s">
+        <v>556</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>558</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>559</v>
+      </c>
+      <c r="J71" t="s">
+        <v>560</v>
+      </c>
+      <c r="K71" t="s">
+        <v>561</v>
+      </c>
+      <c r="L71" t="s">
+        <v>562</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>563</v>
+      </c>
+      <c r="O71" t="s">
+        <v>65</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="s"/>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>564</v>
+      </c>
+      <c r="X71" t="s">
+        <v>565</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>567</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>568</v>
+      </c>
+      <c r="J72" t="s">
+        <v>569</v>
+      </c>
+      <c r="K72" t="s">
+        <v>570</v>
+      </c>
+      <c r="L72" t="s">
+        <v>571</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>572</v>
+      </c>
+      <c r="O72" t="s">
+        <v>65</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>573</v>
+      </c>
+      <c r="X72" t="s">
+        <v>574</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>576</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>577</v>
+      </c>
+      <c r="J73" t="s">
+        <v>578</v>
+      </c>
+      <c r="K73" t="s">
+        <v>579</v>
+      </c>
+      <c r="L73" t="s">
+        <v>580</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="s">
+        <v>581</v>
+      </c>
+      <c r="O73" t="s">
+        <v>65</v>
+      </c>
+      <c r="P73" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>1</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>582</v>
+      </c>
+      <c r="X73" t="s">
+        <v>583</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>585</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>586</v>
+      </c>
+      <c r="J74" t="s">
+        <v>587</v>
+      </c>
+      <c r="K74" t="s">
+        <v>588</v>
+      </c>
+      <c r="L74" t="s">
+        <v>589</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>590</v>
+      </c>
+      <c r="O74" t="s">
+        <v>129</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>591</v>
+      </c>
+      <c r="X74" t="s">
+        <v>592</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>594</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>595</v>
+      </c>
+      <c r="J75" t="s">
+        <v>596</v>
+      </c>
+      <c r="K75" t="s">
+        <v>597</v>
+      </c>
+      <c r="L75" t="s">
+        <v>598</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>599</v>
+      </c>
+      <c r="O75" t="s">
+        <v>65</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>600</v>
+      </c>
+      <c r="X75" t="s">
+        <v>592</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>602</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>603</v>
+      </c>
+      <c r="J76" t="s">
+        <v>604</v>
+      </c>
+      <c r="K76" t="s">
+        <v>605</v>
+      </c>
+      <c r="L76" t="s">
+        <v>606</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>607</v>
+      </c>
+      <c r="O76" t="s">
+        <v>129</v>
+      </c>
+      <c r="P76" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="n">
+        <v>3</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>3</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>591</v>
+      </c>
+      <c r="X76" t="s">
+        <v>592</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>609</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>610</v>
+      </c>
+      <c r="J77" t="s">
+        <v>611</v>
+      </c>
+      <c r="K77" t="s">
+        <v>612</v>
+      </c>
+      <c r="L77" t="s">
+        <v>613</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>607</v>
+      </c>
+      <c r="O77" t="s">
+        <v>129</v>
+      </c>
+      <c r="P77" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>3</v>
+      </c>
+      <c r="S77" t="n">
+        <v>3</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>4</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>614</v>
+      </c>
+      <c r="X77" t="s">
+        <v>615</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>617</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>618</v>
+      </c>
+      <c r="J78" t="s">
+        <v>619</v>
+      </c>
+      <c r="K78" t="s">
+        <v>620</v>
+      </c>
+      <c r="L78" t="s">
+        <v>621</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>607</v>
+      </c>
+      <c r="O78" t="s">
+        <v>129</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>3</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>622</v>
+      </c>
+      <c r="X78" t="s">
+        <v>623</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>625</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>626</v>
+      </c>
+      <c r="J79" t="s">
+        <v>627</v>
+      </c>
+      <c r="K79" t="s">
+        <v>628</v>
+      </c>
+      <c r="L79" t="s">
+        <v>629</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>630</v>
+      </c>
+      <c r="O79" t="s">
+        <v>129</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>631</v>
+      </c>
+      <c r="X79" t="s">
+        <v>632</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>634</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>635</v>
+      </c>
+      <c r="J80" t="s">
+        <v>636</v>
+      </c>
+      <c r="K80" t="s">
+        <v>637</v>
+      </c>
+      <c r="L80" t="s">
+        <v>638</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>639</v>
+      </c>
+      <c r="O80" t="s">
+        <v>137</v>
+      </c>
+      <c r="P80" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>640</v>
+      </c>
+      <c r="X80" t="s">
+        <v>632</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>642</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>643</v>
+      </c>
+      <c r="J81" t="s">
+        <v>644</v>
+      </c>
+      <c r="K81" t="s">
+        <v>645</v>
+      </c>
+      <c r="L81" t="s">
+        <v>646</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>647</v>
+      </c>
+      <c r="O81" t="s">
+        <v>137</v>
+      </c>
+      <c r="P81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>640</v>
+      </c>
+      <c r="X81" t="s">
+        <v>632</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>649</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>650</v>
+      </c>
+      <c r="J82" t="s">
+        <v>651</v>
+      </c>
+      <c r="K82" t="s">
+        <v>652</v>
+      </c>
+      <c r="L82" t="s">
+        <v>653</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="s">
+        <v>647</v>
+      </c>
+      <c r="O82" t="s">
+        <v>65</v>
+      </c>
+      <c r="P82" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>1</v>
+      </c>
+      <c r="R82" t="n">
+        <v>1</v>
+      </c>
+      <c r="S82" t="n">
+        <v>1</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>1</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>654</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>655</v>
+      </c>
+      <c r="J83" t="s">
+        <v>656</v>
+      </c>
+      <c r="K83" t="s">
+        <v>657</v>
+      </c>
+      <c r="L83" t="s">
+        <v>658</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>659</v>
+      </c>
+      <c r="O83" t="s">
+        <v>65</v>
+      </c>
+      <c r="P83" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>4</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>4</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>4</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>660</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>661</v>
+      </c>
+      <c r="J84" t="s">
+        <v>662</v>
+      </c>
+      <c r="K84" t="s">
+        <v>663</v>
+      </c>
+      <c r="L84" t="s">
+        <v>664</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>665</v>
+      </c>
+      <c r="O84" t="s">
+        <v>65</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>4</v>
+      </c>
+      <c r="R84" t="n">
+        <v>4</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>666</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>667</v>
+      </c>
+      <c r="J85" t="s">
+        <v>668</v>
+      </c>
+      <c r="K85" t="s">
+        <v>669</v>
+      </c>
+      <c r="L85" t="s">
+        <v>670</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>671</v>
+      </c>
+      <c r="O85" t="s">
+        <v>65</v>
+      </c>
+      <c r="P85" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>4</v>
+      </c>
+      <c r="R85" t="n">
+        <v>3</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>4</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>672</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>673</v>
+      </c>
+      <c r="J86" t="s">
+        <v>674</v>
+      </c>
+      <c r="K86" t="s">
+        <v>675</v>
+      </c>
+      <c r="L86" t="s">
+        <v>676</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s">
+        <v>671</v>
+      </c>
+      <c r="O86" t="s">
+        <v>65</v>
+      </c>
+      <c r="P86" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>4</v>
+      </c>
+      <c r="R86" t="n">
+        <v>4</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>4</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>677</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>678</v>
+      </c>
+      <c r="J87" t="s">
+        <v>679</v>
+      </c>
+      <c r="K87" t="s">
+        <v>680</v>
+      </c>
+      <c r="L87" t="s">
+        <v>681</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s"/>
+      <c r="O87" t="s"/>
+      <c r="P87" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>4</v>
+      </c>
+      <c r="R87" t="n">
+        <v>4</v>
+      </c>
+      <c r="S87" t="n">
+        <v>4</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>4</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>682</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>683</v>
+      </c>
+      <c r="J88" t="s">
+        <v>684</v>
+      </c>
+      <c r="K88" t="s">
+        <v>685</v>
+      </c>
+      <c r="L88" t="s">
+        <v>686</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s">
+        <v>687</v>
+      </c>
+      <c r="O88" t="s">
+        <v>65</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="s"/>
+      <c r="R88" t="s"/>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>3</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>689</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>690</v>
+      </c>
+      <c r="J89" t="s">
+        <v>691</v>
+      </c>
+      <c r="K89" t="s">
+        <v>692</v>
+      </c>
+      <c r="L89" t="s">
+        <v>693</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s">
+        <v>694</v>
+      </c>
+      <c r="O89" t="s">
+        <v>65</v>
+      </c>
+      <c r="P89" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q89" t="s"/>
+      <c r="R89" t="s"/>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>4</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>696</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>697</v>
+      </c>
+      <c r="J90" t="s">
+        <v>698</v>
+      </c>
+      <c r="K90" t="s">
+        <v>699</v>
+      </c>
+      <c r="L90" t="s">
+        <v>700</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>701</v>
+      </c>
+      <c r="O90" t="s">
+        <v>65</v>
+      </c>
+      <c r="P90" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>3</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>702</v>
+      </c>
+      <c r="X90" t="s">
+        <v>703</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>705</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>706</v>
+      </c>
+      <c r="J91" t="s">
+        <v>707</v>
+      </c>
+      <c r="K91" t="s">
+        <v>708</v>
+      </c>
+      <c r="L91" t="s">
+        <v>709</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s">
+        <v>710</v>
+      </c>
+      <c r="O91" t="s">
+        <v>137</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>4</v>
+      </c>
+      <c r="R91" t="n">
+        <v>3</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>711</v>
+      </c>
+      <c r="X91" t="s">
+        <v>703</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>713</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>714</v>
+      </c>
+      <c r="J92" t="s">
+        <v>715</v>
+      </c>
+      <c r="K92" t="s">
+        <v>716</v>
+      </c>
+      <c r="L92" t="s">
+        <v>717</v>
+      </c>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="N92" t="s">
+        <v>718</v>
+      </c>
+      <c r="O92" t="s">
+        <v>129</v>
+      </c>
+      <c r="P92" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q92" t="s"/>
+      <c r="R92" t="n">
+        <v>1</v>
+      </c>
+      <c r="S92" t="n">
+        <v>1</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>1</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>719</v>
+      </c>
+      <c r="X92" t="s">
+        <v>720</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>722</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>723</v>
+      </c>
+      <c r="J93" t="s">
+        <v>724</v>
+      </c>
+      <c r="K93" t="s">
+        <v>725</v>
+      </c>
+      <c r="L93" t="s">
+        <v>726</v>
+      </c>
+      <c r="M93" t="n">
+        <v>3</v>
+      </c>
+      <c r="N93" t="s">
+        <v>727</v>
+      </c>
+      <c r="O93" t="s">
+        <v>137</v>
+      </c>
+      <c r="P93" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>4</v>
+      </c>
+      <c r="R93" t="n">
+        <v>3</v>
+      </c>
+      <c r="S93" t="n">
+        <v>4</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>3</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>728</v>
+      </c>
+      <c r="X93" t="s">
+        <v>729</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>731</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>732</v>
+      </c>
+      <c r="J94" t="s">
+        <v>733</v>
+      </c>
+      <c r="K94" t="s">
+        <v>734</v>
+      </c>
+      <c r="L94" t="s">
+        <v>735</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>736</v>
+      </c>
+      <c r="O94" t="s">
+        <v>137</v>
+      </c>
+      <c r="P94" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>5</v>
+      </c>
+      <c r="R94" t="n">
+        <v>5</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>737</v>
+      </c>
+      <c r="X94" t="s">
+        <v>738</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>740</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>741</v>
+      </c>
+      <c r="J95" t="s">
+        <v>742</v>
+      </c>
+      <c r="K95" t="s">
+        <v>743</v>
+      </c>
+      <c r="L95" t="s">
+        <v>744</v>
+      </c>
+      <c r="M95" t="n">
+        <v>4</v>
+      </c>
+      <c r="N95" t="s">
+        <v>745</v>
+      </c>
+      <c r="O95" t="s">
+        <v>129</v>
+      </c>
+      <c r="P95" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q95" t="s"/>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>746</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>747</v>
+      </c>
+      <c r="J96" t="s">
+        <v>748</v>
+      </c>
+      <c r="K96" t="s">
+        <v>749</v>
+      </c>
+      <c r="L96" t="s">
+        <v>750</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>751</v>
+      </c>
+      <c r="O96" t="s">
+        <v>137</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="n">
+        <v>4</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>56533</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>752</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>753</v>
+      </c>
+      <c r="J97" t="s">
+        <v>754</v>
+      </c>
+      <c r="K97" t="s">
+        <v>755</v>
+      </c>
+      <c r="L97" t="s">
+        <v>756</v>
+      </c>
+      <c r="M97" t="n">
+        <v>4</v>
+      </c>
+      <c r="N97" t="s">
+        <v>757</v>
+      </c>
+      <c r="O97" t="s">
+        <v>53</v>
+      </c>
+      <c r="P97" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>5</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>2</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>756</v>
       </c>
     </row>
   </sheetData>
